--- a/utils/config/ReferenceLists/Units.xlsx
+++ b/utils/config/ReferenceLists/Units.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcgov-my.sharepoint.com/personal/jeremy_krogh_gov_bc_ca/Documents/Projects/2025/github_projects/aqs-api/utils/config/ReferenceLists/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcgov-my.sharepoint.com/personal/sahil_bhandari_gov_bc_ca/Documents/teamdocs/GitHub/aqs-api/utils/config/ReferenceLists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DEAA6C1-0DF4-4EB3-B17D-DC8C9B3E57AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{7DEAA6C1-0DF4-4EB3-B17D-DC8C9B3E57AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8460FD6E-7905-4529-9F90-8E27967195C6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{BEB82E07-AA54-4E71-A23C-79CC3F3C1001}"/>
+    <workbookView xWindow="-28920" yWindow="-3030" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{BEB82E07-AA54-4E71-A23C-79CC3F3C1001}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Units" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet3!$A$1:$I$78</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet4!$A$1:$O$119</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Units!$A$1:$O$119</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2108,20 +2108,20 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="50.28515625" customWidth="1"/>
-    <col min="4" max="6" width="18.5703125" customWidth="1"/>
-    <col min="7" max="7" width="23.42578125" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" customWidth="1"/>
-    <col min="9" max="9" width="27.5703125" customWidth="1"/>
-    <col min="10" max="10" width="27.7109375" customWidth="1"/>
+    <col min="1" max="2" width="18.54296875" customWidth="1"/>
+    <col min="3" max="3" width="50.26953125" customWidth="1"/>
+    <col min="4" max="6" width="18.54296875" customWidth="1"/>
+    <col min="7" max="7" width="23.453125" customWidth="1"/>
+    <col min="8" max="8" width="18.54296875" customWidth="1"/>
+    <col min="9" max="9" width="27.54296875" customWidth="1"/>
+    <col min="10" max="10" width="27.7265625" customWidth="1"/>
     <col min="11" max="12" width="27" customWidth="1"/>
-    <col min="13" max="13" width="33.140625" customWidth="1"/>
+    <col min="13" max="13" width="33.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v xml:space="preserve"> (transmittance)</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v xml:space="preserve"> (by vol.)</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v xml:space="preserve"> (wet)</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -2899,7 +2899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>59</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>62</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>65</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>68</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>71</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>74</v>
       </c>
@@ -3163,7 +3163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>77</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>80</v>
       </c>
@@ -3251,7 +3251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>83</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>86</v>
       </c>
@@ -3339,7 +3339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>89</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>92</v>
       </c>
@@ -3427,7 +3427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>95</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>98</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>101</v>
       </c>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>104</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>107</v>
       </c>
@@ -3647,7 +3647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>110</v>
       </c>
@@ -3691,7 +3691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>113</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>118</v>
       </c>
@@ -3823,7 +3823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>121</v>
       </c>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>124</v>
       </c>
@@ -3911,7 +3911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>127</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>130</v>
       </c>
@@ -3999,7 +3999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>133</v>
       </c>
@@ -4043,7 +4043,7 @@
         <v xml:space="preserve"> (wet)</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>136</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>139</v>
       </c>
@@ -4131,7 +4131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>142</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>145</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>148</v>
       </c>
@@ -4263,7 +4263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>151</v>
       </c>
@@ -4307,7 +4307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>154</v>
       </c>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>157</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>160</v>
       </c>
@@ -4439,7 +4439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>163</v>
       </c>
@@ -4483,7 +4483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>166</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>169</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>172</v>
       </c>
@@ -4615,7 +4615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>175</v>
       </c>
@@ -4659,7 +4659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>178</v>
       </c>
@@ -4703,7 +4703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>181</v>
       </c>
@@ -4747,7 +4747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>184</v>
       </c>
@@ -4791,7 +4791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>187</v>
       </c>
@@ -4835,7 +4835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>190</v>
       </c>
@@ -4879,7 +4879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>193</v>
       </c>
@@ -4923,7 +4923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>196</v>
       </c>
@@ -4967,7 +4967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>199</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>202</v>
       </c>
@@ -5055,7 +5055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>205</v>
       </c>
@@ -5099,7 +5099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>208</v>
       </c>
@@ -5143,7 +5143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>211</v>
       </c>
@@ -5187,7 +5187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>214</v>
       </c>
@@ -5231,7 +5231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>217</v>
       </c>
@@ -5275,7 +5275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>220</v>
       </c>
@@ -5319,7 +5319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>223</v>
       </c>
@@ -5363,7 +5363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>226</v>
       </c>
@@ -5407,7 +5407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>229</v>
       </c>
@@ -5451,7 +5451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>232</v>
       </c>
@@ -5495,7 +5495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>235</v>
       </c>
@@ -5539,7 +5539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>238</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>241</v>
       </c>
@@ -5627,7 +5627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>244</v>
       </c>
@@ -5671,7 +5671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>247</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>250</v>
       </c>
@@ -5759,7 +5759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>253</v>
       </c>
@@ -5803,7 +5803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>256</v>
       </c>
@@ -5847,7 +5847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>259</v>
       </c>
@@ -5891,7 +5891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>262</v>
       </c>
@@ -5935,7 +5935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>265</v>
       </c>
@@ -5979,7 +5979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>268</v>
       </c>
@@ -6023,7 +6023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>271</v>
       </c>
@@ -6067,7 +6067,7 @@
         <v xml:space="preserve"> (mortality)</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>274</v>
       </c>
@@ -6111,7 +6111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>277</v>
       </c>
@@ -6155,7 +6155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>280</v>
       </c>
@@ -6199,7 +6199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>283</v>
       </c>
@@ -6243,7 +6243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>286</v>
       </c>
@@ -6287,7 +6287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>289</v>
       </c>
@@ -6331,7 +6331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>291</v>
       </c>
@@ -6375,7 +6375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>294</v>
       </c>
@@ -6419,7 +6419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>296</v>
       </c>
@@ -6463,7 +6463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>299</v>
       </c>
@@ -6507,7 +6507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>302</v>
       </c>
@@ -6551,7 +6551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>305</v>
       </c>
@@ -6595,7 +6595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>308</v>
       </c>
@@ -6639,7 +6639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>311</v>
       </c>
@@ -6683,7 +6683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>314</v>
       </c>
@@ -6727,7 +6727,7 @@
         <v xml:space="preserve"> (wet)</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>317</v>
       </c>
@@ -6771,7 +6771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>319</v>
       </c>
@@ -6815,7 +6815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>322</v>
       </c>
@@ -6859,7 +6859,7 @@
         <v xml:space="preserve"> (LEL)</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>325</v>
       </c>
@@ -6903,7 +6903,7 @@
         <v xml:space="preserve"> (saturation)</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>327</v>
       </c>
@@ -6947,7 +6947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>330</v>
       </c>
@@ -6991,7 +6991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>333</v>
       </c>
@@ -7035,7 +7035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>336</v>
       </c>
@@ -7079,7 +7079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>339</v>
       </c>
@@ -7123,7 +7123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>342</v>
       </c>
@@ -7167,7 +7167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>345</v>
       </c>
@@ -7211,7 +7211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>348</v>
       </c>
@@ -7270,17 +7270,17 @@
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
-    <col min="2" max="2" width="32.7109375" customWidth="1"/>
-    <col min="3" max="6" width="22.28515625" customWidth="1"/>
-    <col min="7" max="7" width="27.28515625" customWidth="1"/>
-    <col min="8" max="8" width="39.28515625" customWidth="1"/>
+    <col min="1" max="1" width="21.81640625" customWidth="1"/>
+    <col min="2" max="2" width="32.7265625" customWidth="1"/>
+    <col min="3" max="6" width="22.26953125" customWidth="1"/>
+    <col min="7" max="7" width="27.26953125" customWidth="1"/>
+    <col min="8" max="8" width="39.26953125" customWidth="1"/>
     <col min="9" max="9" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>352</v>
       </c>
@@ -7309,7 +7309,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -7326,7 +7326,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -7343,7 +7343,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>114</v>
       </c>
@@ -7360,7 +7360,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -7377,7 +7377,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -7397,7 +7397,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -7414,7 +7414,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>254</v>
       </c>
@@ -7431,7 +7431,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>102</v>
       </c>
@@ -7448,7 +7448,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -7465,7 +7465,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>108</v>
       </c>
@@ -7482,7 +7482,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -7499,7 +7499,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -7516,7 +7516,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>96</v>
       </c>
@@ -7533,7 +7533,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>116</v>
       </c>
@@ -7550,7 +7550,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>84</v>
       </c>
@@ -7567,7 +7567,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -7584,7 +7584,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -7604,7 +7604,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -7621,7 +7621,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>72</v>
       </c>
@@ -7638,7 +7638,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>90</v>
       </c>
@@ -7655,7 +7655,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>111</v>
       </c>
@@ -7672,7 +7672,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>105</v>
       </c>
@@ -7689,7 +7689,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>134</v>
       </c>
@@ -7709,7 +7709,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -7726,7 +7726,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>75</v>
       </c>
@@ -7743,7 +7743,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -7760,7 +7760,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -7777,7 +7777,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>343</v>
       </c>
@@ -7794,7 +7794,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>78</v>
       </c>
@@ -7811,7 +7811,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>81</v>
       </c>
@@ -7828,7 +7828,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>248</v>
       </c>
@@ -7845,7 +7845,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>263</v>
       </c>
@@ -7862,7 +7862,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>63</v>
       </c>
@@ -7879,7 +7879,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>260</v>
       </c>
@@ -7896,7 +7896,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>272</v>
       </c>
@@ -7916,7 +7916,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>99</v>
       </c>
@@ -7933,7 +7933,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>257</v>
       </c>
@@ -7950,7 +7950,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -7967,7 +7967,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>306</v>
       </c>
@@ -7984,7 +7984,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>69</v>
       </c>
@@ -8001,7 +8001,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>318</v>
       </c>
@@ -8018,7 +8018,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>60</v>
       </c>
@@ -8035,7 +8035,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>340</v>
       </c>
@@ -8052,7 +8052,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>443</v>
       </c>
@@ -8069,7 +8069,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>334</v>
       </c>
@@ -8086,7 +8086,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>137</v>
       </c>
@@ -8103,7 +8103,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>122</v>
       </c>
@@ -8120,7 +8120,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>448</v>
       </c>
@@ -8137,7 +8137,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>452</v>
       </c>
@@ -8154,7 +8154,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>320</v>
       </c>
@@ -8171,7 +8171,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>143</v>
       </c>
@@ -8188,7 +8188,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>146</v>
       </c>
@@ -8205,7 +8205,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>323</v>
       </c>
@@ -8225,7 +8225,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>152</v>
       </c>
@@ -8242,7 +8242,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>457</v>
       </c>
@@ -8259,7 +8259,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>326</v>
       </c>
@@ -8279,7 +8279,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>462</v>
       </c>
@@ -8296,7 +8296,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>66</v>
       </c>
@@ -8313,7 +8313,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>465</v>
       </c>
@@ -8330,7 +8330,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>158</v>
       </c>
@@ -8347,7 +8347,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>275</v>
       </c>
@@ -8364,7 +8364,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>349</v>
       </c>
@@ -8381,7 +8381,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>468</v>
       </c>
@@ -8398,7 +8398,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>328</v>
       </c>
@@ -8415,7 +8415,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>13</v>
       </c>
@@ -8435,7 +8435,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>337</v>
       </c>
@@ -8452,7 +8452,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>93</v>
       </c>
@@ -8469,7 +8469,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>472</v>
       </c>
@@ -8486,7 +8486,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>128</v>
       </c>
@@ -8503,7 +8503,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>475</v>
       </c>
@@ -8520,7 +8520,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>119</v>
       </c>
@@ -8537,7 +8537,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>476</v>
       </c>
@@ -8554,7 +8554,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>477</v>
       </c>
@@ -8571,7 +8571,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>478</v>
       </c>
@@ -8588,7 +8588,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>479</v>
       </c>
@@ -8605,7 +8605,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>315</v>
       </c>
@@ -8625,7 +8625,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>155</v>
       </c>
@@ -8652,29 +8652,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3036B1CA-FBEB-4E41-A2A1-61CD7E3CC4C8}">
   <dimension ref="A1:O124"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" customWidth="1"/>
-    <col min="3" max="3" width="42.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.1796875" customWidth="1"/>
+    <col min="2" max="2" width="25.81640625" customWidth="1"/>
+    <col min="3" max="3" width="42.81640625" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1"/>
-    <col min="8" max="9" width="20.5703125" customWidth="1"/>
-    <col min="10" max="10" width="33.5703125" customWidth="1"/>
-    <col min="11" max="11" width="29.28515625" customWidth="1"/>
-    <col min="12" max="12" width="40.140625" customWidth="1"/>
-    <col min="13" max="13" width="23.140625" customWidth="1"/>
-    <col min="14" max="14" width="19.85546875" customWidth="1"/>
-    <col min="15" max="15" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.7265625" customWidth="1"/>
+    <col min="6" max="6" width="16.7265625" customWidth="1"/>
+    <col min="7" max="7" width="20.7265625" customWidth="1"/>
+    <col min="8" max="9" width="20.54296875" customWidth="1"/>
+    <col min="10" max="10" width="33.54296875" customWidth="1"/>
+    <col min="11" max="11" width="29.26953125" customWidth="1"/>
+    <col min="12" max="12" width="40.1796875" customWidth="1"/>
+    <col min="13" max="13" width="23.1796875" customWidth="1"/>
+    <col min="14" max="14" width="19.81640625" customWidth="1"/>
+    <col min="15" max="15" width="15.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -8719,7 +8719,7 @@
       </c>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -8761,7 +8761,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -8805,7 +8805,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -8846,7 +8846,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -8887,7 +8887,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -8928,7 +8928,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -8969,7 +8969,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -9010,7 +9010,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -9051,7 +9051,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -9092,7 +9092,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -9130,7 +9130,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -9171,7 +9171,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -9212,7 +9212,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -9253,7 +9253,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -9297,7 +9297,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -9341,7 +9341,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -9385,7 +9385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -9429,7 +9429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>59</v>
       </c>
@@ -9473,7 +9473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>62</v>
       </c>
@@ -9517,7 +9517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>65</v>
       </c>
@@ -9561,7 +9561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>68</v>
       </c>
@@ -9605,7 +9605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>71</v>
       </c>
@@ -9649,7 +9649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>74</v>
       </c>
@@ -9693,7 +9693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>77</v>
       </c>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>80</v>
       </c>
@@ -9781,7 +9781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>83</v>
       </c>
@@ -9825,7 +9825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>86</v>
       </c>
@@ -9869,7 +9869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>89</v>
       </c>
@@ -9914,7 +9914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>92</v>
       </c>
@@ -9959,7 +9959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>95</v>
       </c>
@@ -10003,7 +10003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>98</v>
       </c>
@@ -10048,7 +10048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>101</v>
       </c>
@@ -10092,7 +10092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>104</v>
       </c>
@@ -10136,7 +10136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>107</v>
       </c>
@@ -10180,7 +10180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>110</v>
       </c>
@@ -10224,7 +10224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>113</v>
       </c>
@@ -10268,7 +10268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -10312,7 +10312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>118</v>
       </c>
@@ -10356,7 +10356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>121</v>
       </c>
@@ -10400,7 +10400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>124</v>
       </c>
@@ -10444,7 +10444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>127</v>
       </c>
@@ -10488,7 +10488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>130</v>
       </c>
@@ -10532,7 +10532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>133</v>
       </c>
@@ -10576,7 +10576,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>136</v>
       </c>
@@ -10620,7 +10620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>139</v>
       </c>
@@ -10664,7 +10664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>142</v>
       </c>
@@ -10708,7 +10708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>145</v>
       </c>
@@ -10752,7 +10752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>148</v>
       </c>
@@ -10797,7 +10797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>151</v>
       </c>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>154</v>
       </c>
@@ -10885,7 +10885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>157</v>
       </c>
@@ -10930,7 +10930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>160</v>
       </c>
@@ -10974,7 +10974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>163</v>
       </c>
@@ -11018,7 +11018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>166</v>
       </c>
@@ -11062,7 +11062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>169</v>
       </c>
@@ -11106,7 +11106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>172</v>
       </c>
@@ -11150,7 +11150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>175</v>
       </c>
@@ -11194,7 +11194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>178</v>
       </c>
@@ -11238,7 +11238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>181</v>
       </c>
@@ -11283,7 +11283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>184</v>
       </c>
@@ -11328,7 +11328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>187</v>
       </c>
@@ -11373,7 +11373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>190</v>
       </c>
@@ -11418,7 +11418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>193</v>
       </c>
@@ -11463,7 +11463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>196</v>
       </c>
@@ -11507,7 +11507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>199</v>
       </c>
@@ -11551,7 +11551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>202</v>
       </c>
@@ -11595,7 +11595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>205</v>
       </c>
@@ -11639,7 +11639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>208</v>
       </c>
@@ -11683,7 +11683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>211</v>
       </c>
@@ -11727,7 +11727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>214</v>
       </c>
@@ -11771,7 +11771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>217</v>
       </c>
@@ -11815,7 +11815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>220</v>
       </c>
@@ -11859,7 +11859,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>223</v>
       </c>
@@ -11903,7 +11903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>226</v>
       </c>
@@ -11947,7 +11947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>229</v>
       </c>
@@ -11991,7 +11991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>232</v>
       </c>
@@ -12036,7 +12036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>235</v>
       </c>
@@ -12080,7 +12080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>238</v>
       </c>
@@ -12124,7 +12124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>241</v>
       </c>
@@ -12168,7 +12168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>244</v>
       </c>
@@ -12209,7 +12209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>247</v>
       </c>
@@ -12253,7 +12253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>250</v>
       </c>
@@ -12298,7 +12298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>253</v>
       </c>
@@ -12342,7 +12342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>256</v>
       </c>
@@ -12386,7 +12386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>259</v>
       </c>
@@ -12430,7 +12430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>262</v>
       </c>
@@ -12474,7 +12474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>265</v>
       </c>
@@ -12518,7 +12518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>268</v>
       </c>
@@ -12562,7 +12562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>271</v>
       </c>
@@ -12606,7 +12606,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>274</v>
       </c>
@@ -12650,7 +12650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>277</v>
       </c>
@@ -12694,7 +12694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>280</v>
       </c>
@@ -12738,7 +12738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>283</v>
       </c>
@@ -12783,7 +12783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>286</v>
       </c>
@@ -12827,7 +12827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>289</v>
       </c>
@@ -12871,7 +12871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>291</v>
       </c>
@@ -12915,7 +12915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>294</v>
       </c>
@@ -12959,7 +12959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>296</v>
       </c>
@@ -13003,7 +13003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>299</v>
       </c>
@@ -13047,7 +13047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>302</v>
       </c>
@@ -13091,7 +13091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>305</v>
       </c>
@@ -13135,7 +13135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>308</v>
       </c>
@@ -13179,7 +13179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>311</v>
       </c>
@@ -13223,7 +13223,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>314</v>
       </c>
@@ -13267,7 +13267,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>317</v>
       </c>
@@ -13311,7 +13311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>319</v>
       </c>
@@ -13355,7 +13355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>322</v>
       </c>
@@ -13399,7 +13399,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>325</v>
       </c>
@@ -13443,7 +13443,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>327</v>
       </c>
@@ -13487,7 +13487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>330</v>
       </c>
@@ -13531,7 +13531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>333</v>
       </c>
@@ -13576,7 +13576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>336</v>
       </c>
@@ -13620,7 +13620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>339</v>
       </c>
@@ -13664,7 +13664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>342</v>
       </c>
@@ -13708,7 +13708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>345</v>
       </c>
@@ -13752,7 +13752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>348</v>
       </c>
@@ -13797,7 +13797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G118">
         <v>100</v>
       </c>
@@ -13820,7 +13820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G119" s="6">
         <v>1000000</v>
       </c>
@@ -13843,7 +13843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G120">
         <v>1E-3</v>
       </c>
@@ -13866,7 +13866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G121">
         <v>1</v>
       </c>
@@ -13889,7 +13889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G122">
         <f>100*100</f>
         <v>10000</v>
@@ -13913,7 +13913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G123">
         <v>1000</v>
       </c>
@@ -13933,7 +13933,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.35">
       <c r="G124">
         <v>1</v>
       </c>

--- a/utils/config/ReferenceLists/Units.xlsx
+++ b/utils/config/ReferenceLists/Units.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcgov-my.sharepoint.com/personal/sahil_bhandari_gov_bc_ca/Documents/teamdocs/GitHub/aqs-api/utils/config/ReferenceLists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="197" documentId="8_{7DEAA6C1-0DF4-4EB3-B17D-DC8C9B3E57AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E734B10-6803-4A47-B10A-838A348B5A8D}"/>
+  <xr:revisionPtr revIDLastSave="204" documentId="8_{7DEAA6C1-0DF4-4EB3-B17D-DC8C9B3E57AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DE618F6-B41A-4FDB-BE1C-E4E0B3C79435}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{BEB82E07-AA54-4E71-A23C-79CC3F3C1001}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="2" xr2:uid="{BEB82E07-AA54-4E71-A23C-79CC3F3C1001}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1724,7 +1724,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1733,6 +1733,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8617,10 +8620,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3036B1CA-FBEB-4E41-A2A1-61CD7E3CC4C8}">
   <dimension ref="A1:Q116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="G1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="A109" sqref="A109"/>
-      <selection pane="topRight" activeCell="H39" sqref="H39"/>
+      <selection pane="topRight" activeCell="H83" sqref="H83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8696,13 +8699,13 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>336</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s">
-        <v>337</v>
+        <v>114</v>
       </c>
       <c r="C2" t="s">
-        <v>338</v>
+        <v>115</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -8720,22 +8723,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>4</v>
+        <v>40221</v>
       </c>
       <c r="K2" t="b">
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>361</v>
+        <v>410</v>
       </c>
       <c r="M2" t="s">
-        <v>337</v>
+        <v>114</v>
       </c>
       <c r="N2" t="s">
-        <v>338</v>
+        <v>115</v>
       </c>
       <c r="O2" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -8743,13 +8746,13 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>327</v>
+        <v>271</v>
       </c>
       <c r="B3" t="s">
-        <v>328</v>
+        <v>272</v>
       </c>
       <c r="C3" t="s">
-        <v>329</v>
+        <v>273</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -8767,36 +8770,36 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>2477</v>
+        <v>44207</v>
       </c>
       <c r="K3" t="b">
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>361</v>
+        <v>410</v>
       </c>
       <c r="M3" t="s">
-        <v>328</v>
+        <v>114</v>
       </c>
       <c r="N3" t="s">
-        <v>329</v>
+        <v>115</v>
       </c>
       <c r="O3" t="s">
-        <v>363</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
+        <v>367</v>
+      </c>
+      <c r="P3" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>256</v>
+        <v>311</v>
       </c>
       <c r="B4" t="s">
-        <v>257</v>
+        <v>312</v>
       </c>
       <c r="C4" t="s">
-        <v>258</v>
+        <v>313</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -8814,36 +8817,36 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>201277</v>
+        <v>1</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="M4" t="s">
-        <v>257</v>
+        <v>114</v>
       </c>
       <c r="N4" t="s">
-        <v>258</v>
+        <v>115</v>
       </c>
       <c r="O4" t="s">
-        <v>429</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
+        <v>520</v>
+      </c>
+      <c r="P4" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>62</v>
+        <v>322</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>323</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>324</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -8861,36 +8864,36 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>2465</v>
+        <v>259</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="M5" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="N5" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="O5" t="s">
-        <v>423</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
+        <v>367</v>
+      </c>
+      <c r="P5" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>299</v>
+        <v>325</v>
       </c>
       <c r="B6" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="C6" t="s">
-        <v>301</v>
+        <v>326</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -8908,36 +8911,36 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>66803</v>
+        <v>364</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>318</v>
+        <v>410</v>
       </c>
       <c r="M6" t="s">
-        <v>300</v>
+        <v>114</v>
       </c>
       <c r="N6" t="s">
-        <v>301</v>
+        <v>115</v>
       </c>
       <c r="O6" t="s">
-        <v>516</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
+        <v>367</v>
+      </c>
+      <c r="P6" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>296</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>297</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>298</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -8955,36 +8958,36 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>14114</v>
+        <v>733</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>318</v>
+        <v>410</v>
       </c>
       <c r="M7" t="s">
-        <v>517</v>
+        <v>114</v>
       </c>
       <c r="N7" t="s">
-        <v>298</v>
+        <v>115</v>
       </c>
       <c r="O7" t="s">
-        <v>516</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
+        <v>367</v>
+      </c>
+      <c r="P7" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -9002,36 +9005,36 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>178177</v>
+        <v>27520</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="M8" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="N8" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="O8" t="s">
-        <v>419</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
+        <v>367</v>
+      </c>
+      <c r="P8" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>319</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>320</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>321</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -9049,36 +9052,36 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>150</v>
+        <v>14645</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="M9" t="s">
-        <v>320</v>
+        <v>114</v>
       </c>
       <c r="N9" t="s">
-        <v>321</v>
+        <v>115</v>
       </c>
       <c r="O9" t="s">
-        <v>419</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
+        <v>367</v>
+      </c>
+      <c r="P9" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>32</v>
+        <v>336</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>337</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>338</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -9096,7 +9099,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>93455</v>
+        <v>4</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
@@ -9105,24 +9108,27 @@
         <v>361</v>
       </c>
       <c r="M10" t="s">
-        <v>33</v>
+        <v>337</v>
       </c>
       <c r="N10" t="s">
-        <v>34</v>
+        <v>338</v>
       </c>
       <c r="O10" t="s">
         <v>363</v>
       </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>317</v>
+        <v>256</v>
       </c>
       <c r="B11" t="s">
-        <v>318</v>
+        <v>257</v>
       </c>
       <c r="C11" t="s">
-        <v>318</v>
+        <v>258</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -9140,22 +9146,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1351</v>
+        <v>201277</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>318</v>
+        <v>428</v>
       </c>
       <c r="M11" t="s">
-        <v>437</v>
+        <v>257</v>
       </c>
       <c r="N11" t="s">
-        <v>318</v>
+        <v>258</v>
       </c>
       <c r="O11" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -9163,13 +9169,13 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>65</v>
+        <v>327</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>328</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>329</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
@@ -9187,22 +9193,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>196</v>
+        <v>2477</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>458</v>
+        <v>361</v>
       </c>
       <c r="M12" t="s">
-        <v>490</v>
+        <v>328</v>
       </c>
       <c r="N12" t="s">
-        <v>528</v>
+        <v>329</v>
       </c>
       <c r="O12" t="s">
-        <v>460</v>
+        <v>363</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -9210,13 +9216,13 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>253</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>254</v>
+        <v>63</v>
       </c>
       <c r="C13" t="s">
-        <v>255</v>
+        <v>64</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
@@ -9234,22 +9240,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9325</v>
+        <v>2465</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>374</v>
+        <v>422</v>
       </c>
       <c r="M13" t="s">
-        <v>254</v>
+        <v>63</v>
       </c>
       <c r="N13" t="s">
-        <v>255</v>
+        <v>64</v>
       </c>
       <c r="O13" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -9257,13 +9263,13 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B14" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C14" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
@@ -9274,29 +9280,32 @@
       <c r="F14" t="b">
         <v>0</v>
       </c>
-      <c r="H14" t="s">
-        <v>14</v>
+      <c r="G14" t="s">
+        <v>108</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>31384</v>
+        <v>496828</v>
       </c>
       <c r="K14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="M14" t="s">
-        <v>111</v>
+        <v>382</v>
       </c>
       <c r="N14" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="O14" t="s">
-        <v>403</v>
+        <v>383</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -9304,13 +9313,13 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>247</v>
+        <v>296</v>
       </c>
       <c r="B15" t="s">
-        <v>248</v>
+        <v>297</v>
       </c>
       <c r="C15" t="s">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="D15" t="s">
         <v>10</v>
@@ -9328,36 +9337,36 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>30</v>
+        <v>14114</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>417</v>
+        <v>318</v>
       </c>
       <c r="M15" t="s">
-        <v>421</v>
+        <v>517</v>
       </c>
       <c r="N15" t="s">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="O15" t="s">
-        <v>419</v>
-      </c>
-      <c r="P15">
+        <v>516</v>
+      </c>
+      <c r="P15" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>80</v>
+        <v>299</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>300</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>301</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
@@ -9375,83 +9384,87 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>45814</v>
+        <v>66803</v>
       </c>
       <c r="K16" t="b">
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>417</v>
+        <v>318</v>
       </c>
       <c r="M16" t="s">
-        <v>81</v>
+        <v>300</v>
       </c>
       <c r="N16" t="s">
-        <v>489</v>
+        <v>301</v>
       </c>
       <c r="O16" t="s">
-        <v>419</v>
-      </c>
-      <c r="P16">
+        <v>516</v>
+      </c>
+      <c r="P16" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>262</v>
+        <v>193</v>
       </c>
       <c r="B17" t="s">
-        <v>263</v>
+        <v>194</v>
       </c>
       <c r="C17" t="s">
-        <v>264</v>
+        <v>195</v>
       </c>
       <c r="D17" t="s">
         <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="s">
-        <v>14</v>
+        <v>92</v>
+      </c>
+      <c r="F17" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" t="s">
+        <v>116</v>
+      </c>
+      <c r="H17">
+        <f>(24*60)/35.3147</f>
+        <v>40.776220667314178</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>300</v>
+        <v>2</v>
       </c>
       <c r="K17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" t="s">
-        <v>417</v>
+        <v>389</v>
       </c>
       <c r="M17" t="s">
-        <v>263</v>
+        <v>503</v>
       </c>
       <c r="N17" t="s">
-        <v>264</v>
+        <v>504</v>
       </c>
       <c r="O17" t="s">
-        <v>419</v>
-      </c>
-      <c r="P17">
+        <v>391</v>
+      </c>
+      <c r="P17" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="D18" t="s">
         <v>10</v>
@@ -9469,33 +9482,36 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7693</v>
+        <v>178177</v>
       </c>
       <c r="K18" t="b">
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>16</v>
+        <v>417</v>
       </c>
       <c r="M18" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="N18" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="O18" t="s">
-        <v>384</v>
+        <v>419</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
       <c r="B19" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="C19" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
       <c r="D19" t="s">
         <v>10</v>
@@ -9513,36 +9529,36 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>13683</v>
+        <v>150</v>
       </c>
       <c r="K19" t="b">
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>318</v>
+        <v>417</v>
       </c>
       <c r="M19" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="N19" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
       <c r="O19" t="s">
-        <v>516</v>
-      </c>
-      <c r="P19" t="b">
+        <v>419</v>
+      </c>
+      <c r="P19">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>154</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>155</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>156</v>
+        <v>34</v>
       </c>
       <c r="D20" t="s">
         <v>10</v>
@@ -9560,36 +9576,33 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>139</v>
+        <v>93455</v>
       </c>
       <c r="K20" t="b">
         <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>410</v>
+        <v>361</v>
       </c>
       <c r="M20" t="s">
-        <v>482</v>
+        <v>33</v>
       </c>
       <c r="N20" t="s">
-        <v>525</v>
+        <v>34</v>
       </c>
       <c r="O20" t="s">
-        <v>411</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
+        <v>363</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>339</v>
+        <v>317</v>
       </c>
       <c r="B21" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="C21" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
       <c r="D21" t="s">
         <v>10</v>
@@ -9607,22 +9620,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4119</v>
+        <v>1351</v>
       </c>
       <c r="K21" t="b">
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>410</v>
+        <v>318</v>
       </c>
       <c r="M21" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="N21" t="s">
-        <v>524</v>
+        <v>318</v>
       </c>
       <c r="O21" t="s">
-        <v>411</v>
+        <v>438</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -9630,13 +9643,13 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>145</v>
+        <v>348</v>
       </c>
       <c r="B22" t="s">
-        <v>146</v>
+        <v>349</v>
       </c>
       <c r="C22" t="s">
-        <v>147</v>
+        <v>350</v>
       </c>
       <c r="D22" t="s">
         <v>10</v>
@@ -9647,29 +9660,33 @@
       <c r="F22" t="b">
         <v>0</v>
       </c>
-      <c r="H22" t="s">
-        <v>14</v>
+      <c r="G22" t="s">
+        <v>260</v>
+      </c>
+      <c r="H22">
+        <f>24</f>
+        <v>24</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>430</v>
+        <v>2</v>
       </c>
       <c r="K22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="M22" t="s">
-        <v>442</v>
+        <v>349</v>
       </c>
       <c r="N22" t="s">
-        <v>524</v>
+        <v>350</v>
       </c>
       <c r="O22" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -9677,154 +9694,163 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>151</v>
+        <v>280</v>
       </c>
       <c r="B23" t="s">
-        <v>152</v>
+        <v>281</v>
       </c>
       <c r="C23" t="s">
-        <v>153</v>
+        <v>282</v>
       </c>
       <c r="D23" t="s">
         <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="F23" t="s">
+        <v>116</v>
+      </c>
+      <c r="G23" t="s">
+        <v>116</v>
+      </c>
+      <c r="H23">
+        <v>1000</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1333</v>
+        <v>40243</v>
       </c>
       <c r="K23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="M23" t="s">
-        <v>442</v>
+        <v>515</v>
       </c>
       <c r="N23" t="s">
-        <v>524</v>
+        <v>282</v>
       </c>
       <c r="O23" t="s">
-        <v>411</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A24" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B24" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="s">
-        <v>14</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>7586</v>
-      </c>
-      <c r="K24" t="b">
-        <v>0</v>
-      </c>
-      <c r="L24" t="s">
-        <v>410</v>
-      </c>
-      <c r="M24" t="s">
-        <v>75</v>
-      </c>
-      <c r="N24" t="s">
-        <v>488</v>
-      </c>
-      <c r="O24" t="s">
-        <v>411</v>
-      </c>
-      <c r="P24">
+        <v>391</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="H24" s="9">
+        <v>4546.09</v>
+      </c>
+      <c r="I24" s="9">
+        <v>0</v>
+      </c>
+      <c r="J24" s="9">
+        <v>176</v>
+      </c>
+      <c r="K24" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="M24" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="N24" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="O24" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="P24" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>47</v>
+        <v>178</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>179</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>180</v>
       </c>
       <c r="D25" t="s">
         <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="F25" t="s">
+        <v>116</v>
+      </c>
+      <c r="G25" t="s">
+        <v>116</v>
+      </c>
+      <c r="H25">
+        <v>1000</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>27520</v>
+        <v>11060</v>
       </c>
       <c r="K25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="M25" t="s">
-        <v>114</v>
+        <v>501</v>
       </c>
       <c r="N25" t="s">
-        <v>115</v>
+        <v>180</v>
       </c>
       <c r="O25" t="s">
-        <v>367</v>
-      </c>
-      <c r="P25" t="s">
-        <v>397</v>
+        <v>391</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>50</v>
+        <v>232</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>233</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>234</v>
       </c>
       <c r="D26" t="s">
         <v>10</v>
@@ -9835,43 +9861,47 @@
       <c r="F26" t="b">
         <v>0</v>
       </c>
-      <c r="H26" t="s">
-        <v>14</v>
+      <c r="G26" t="s">
+        <v>382</v>
+      </c>
+      <c r="H26">
+        <f>9/5</f>
+        <v>1.8</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>-32</v>
       </c>
       <c r="J26">
-        <v>14645</v>
+        <v>33</v>
       </c>
       <c r="K26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" t="s">
-        <v>410</v>
+        <v>381</v>
       </c>
       <c r="M26" t="s">
-        <v>114</v>
+        <v>510</v>
       </c>
       <c r="N26" t="s">
-        <v>115</v>
+        <v>234</v>
       </c>
       <c r="O26" t="s">
-        <v>367</v>
-      </c>
-      <c r="P26" t="s">
-        <v>370</v>
+        <v>383</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="B27" t="s">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="C27" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="D27" t="s">
         <v>10</v>
@@ -9889,22 +9919,22 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>40221</v>
+        <v>196</v>
       </c>
       <c r="K27" t="b">
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>410</v>
+        <v>458</v>
       </c>
       <c r="M27" t="s">
-        <v>114</v>
+        <v>490</v>
       </c>
       <c r="N27" t="s">
-        <v>115</v>
+        <v>528</v>
       </c>
       <c r="O27" t="s">
-        <v>367</v>
+        <v>460</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -9912,107 +9942,114 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>271</v>
+        <v>166</v>
       </c>
       <c r="B28" t="s">
-        <v>272</v>
+        <v>167</v>
       </c>
       <c r="C28" t="s">
-        <v>273</v>
+        <v>168</v>
       </c>
       <c r="D28" t="s">
         <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="s">
-        <v>14</v>
+        <v>83</v>
+      </c>
+      <c r="F28" t="s">
+        <v>84</v>
+      </c>
+      <c r="G28" t="s">
+        <v>84</v>
+      </c>
+      <c r="H28">
+        <f>1/3.2808</f>
+        <v>0.30480370641306997</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>44207</v>
+        <v>29</v>
       </c>
       <c r="K28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="M28" t="s">
-        <v>114</v>
+        <v>167</v>
       </c>
       <c r="N28" t="s">
-        <v>115</v>
+        <v>168</v>
       </c>
       <c r="O28" t="s">
-        <v>367</v>
-      </c>
-      <c r="P28" t="s">
-        <v>427</v>
+        <v>393</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
-        <v>311</v>
+        <v>139</v>
       </c>
       <c r="B29" t="s">
-        <v>312</v>
+        <v>140</v>
       </c>
       <c r="C29" t="s">
-        <v>313</v>
+        <v>141</v>
       </c>
       <c r="D29" t="s">
         <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="F29" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29">
+        <v>1000</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
+        <v>389</v>
+      </c>
+      <c r="K29" t="b">
         <v>1</v>
       </c>
-      <c r="K29" t="b">
-        <v>0</v>
-      </c>
       <c r="L29" t="s">
-        <v>410</v>
+        <v>364</v>
       </c>
       <c r="M29" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="N29" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="O29" t="s">
-        <v>520</v>
-      </c>
-      <c r="P29" t="s">
-        <v>521</v>
+        <v>366</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
-        <v>322</v>
+        <v>53</v>
       </c>
       <c r="B30" t="s">
-        <v>323</v>
+        <v>54</v>
       </c>
       <c r="C30" t="s">
-        <v>324</v>
+        <v>55</v>
       </c>
       <c r="D30" t="s">
         <v>10</v>
@@ -10023,43 +10060,46 @@
       <c r="F30" t="b">
         <v>0</v>
       </c>
-      <c r="H30" t="s">
-        <v>14</v>
+      <c r="G30" t="s">
+        <v>54</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>259</v>
+        <v>2751</v>
       </c>
       <c r="K30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="M30" t="s">
-        <v>114</v>
+        <v>415</v>
       </c>
       <c r="N30" t="s">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="O30" t="s">
-        <v>367</v>
-      </c>
-      <c r="P30" t="s">
-        <v>456</v>
+        <v>416</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
-        <v>325</v>
+        <v>259</v>
       </c>
       <c r="B31" t="s">
-        <v>326</v>
+        <v>260</v>
       </c>
       <c r="C31" t="s">
-        <v>326</v>
+        <v>261</v>
       </c>
       <c r="D31" t="s">
         <v>10</v>
@@ -10070,4254 +10110,4228 @@
       <c r="F31" t="b">
         <v>0</v>
       </c>
-      <c r="H31" t="s">
-        <v>14</v>
+      <c r="G31" t="s">
+        <v>425</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>364</v>
+        <v>73</v>
       </c>
       <c r="K31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="M31" t="s">
-        <v>114</v>
+        <v>425</v>
       </c>
       <c r="N31" t="s">
-        <v>115</v>
+        <v>261</v>
       </c>
       <c r="O31" t="s">
-        <v>367</v>
-      </c>
-      <c r="P31" t="s">
-        <v>461</v>
+        <v>426</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B32" t="s">
+        <v>170</v>
+      </c>
+      <c r="C32" t="s">
+        <v>171</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" t="s">
+        <v>116</v>
+      </c>
+      <c r="G32" t="s">
+        <v>116</v>
+      </c>
+      <c r="H32">
+        <f>0.00454609</f>
+        <v>4.54609E-3</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>5779</v>
+      </c>
+      <c r="K32" t="b">
+        <v>1</v>
+      </c>
+      <c r="L32" t="s">
+        <v>389</v>
+      </c>
+      <c r="M32" t="s">
+        <v>170</v>
+      </c>
+      <c r="N32" t="s">
+        <v>171</v>
+      </c>
+      <c r="O32" t="s">
+        <v>391</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A33" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B33" t="s">
+        <v>245</v>
+      </c>
+      <c r="C33" t="s">
+        <v>246</v>
+      </c>
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33" t="s">
+        <v>36</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>15</v>
+      </c>
+      <c r="K33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L33" t="s">
+        <v>385</v>
+      </c>
+      <c r="M33" t="s">
+        <v>245</v>
+      </c>
+      <c r="N33" t="s">
+        <v>246</v>
+      </c>
+      <c r="O33" t="s">
+        <v>386</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A34" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B34" t="s">
+        <v>254</v>
+      </c>
+      <c r="C34" t="s">
+        <v>255</v>
+      </c>
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>9325</v>
+      </c>
+      <c r="K34" t="b">
+        <v>0</v>
+      </c>
+      <c r="L34" t="s">
+        <v>374</v>
+      </c>
+      <c r="M34" t="s">
+        <v>254</v>
+      </c>
+      <c r="N34" t="s">
+        <v>255</v>
+      </c>
+      <c r="O34" t="s">
+        <v>375</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A35" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B35" t="s">
+        <v>215</v>
+      </c>
+      <c r="C35" t="s">
+        <v>216</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" t="s">
+        <v>22</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>8</v>
+      </c>
+      <c r="K35" t="b">
+        <v>0</v>
+      </c>
+      <c r="L35" t="s">
+        <v>374</v>
+      </c>
+      <c r="M35" t="s">
+        <v>215</v>
+      </c>
+      <c r="N35" t="s">
+        <v>216</v>
+      </c>
+      <c r="O35" t="s">
+        <v>429</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A36" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B36" t="s">
+        <v>230</v>
+      </c>
+      <c r="C36" t="s">
+        <v>231</v>
+      </c>
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" t="s">
+        <v>101</v>
+      </c>
+      <c r="F36" t="s">
+        <v>102</v>
+      </c>
+      <c r="G36" t="s">
+        <v>102</v>
+      </c>
+      <c r="H36">
+        <f>1/1000</f>
+        <v>1E-3</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>100120</v>
+      </c>
+      <c r="K36" t="b">
+        <v>1</v>
+      </c>
+      <c r="L36" t="s">
+        <v>376</v>
+      </c>
+      <c r="M36" t="s">
+        <v>230</v>
+      </c>
+      <c r="N36" t="s">
+        <v>231</v>
+      </c>
+      <c r="O36" t="s">
+        <v>377</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H37" s="9">
+        <f>1000000000</f>
+        <v>1000000000</v>
+      </c>
+      <c r="I37" s="9">
+        <v>0</v>
+      </c>
+      <c r="J37" s="9">
+        <v>16</v>
+      </c>
+      <c r="K37" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L37" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="M37" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="N37" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="O37" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="P37" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A38" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B38" t="s">
+        <v>287</v>
+      </c>
+      <c r="C38" t="s">
+        <v>288</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" t="s">
+        <v>218</v>
+      </c>
+      <c r="H38">
+        <v>1000</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>230</v>
+      </c>
+      <c r="K38" t="b">
+        <v>1</v>
+      </c>
+      <c r="L38" t="s">
+        <v>368</v>
+      </c>
+      <c r="M38" t="s">
+        <v>287</v>
+      </c>
+      <c r="N38" t="s">
+        <v>288</v>
+      </c>
+      <c r="O38" t="s">
+        <v>369</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A39" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" t="b">
+        <v>0</v>
+      </c>
+      <c r="G39" t="s">
+        <v>96</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>3358</v>
+      </c>
+      <c r="K39" t="b">
+        <v>1</v>
+      </c>
+      <c r="L39" t="s">
+        <v>387</v>
+      </c>
+      <c r="M39" t="s">
+        <v>96</v>
+      </c>
+      <c r="N39" t="s">
+        <v>97</v>
+      </c>
+      <c r="O39" t="s">
+        <v>388</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" t="b">
+        <v>0</v>
+      </c>
+      <c r="G40" t="s">
+        <v>72</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>3831</v>
+      </c>
+      <c r="K40" t="b">
+        <v>1</v>
+      </c>
+      <c r="L40" t="s">
+        <v>398</v>
+      </c>
+      <c r="M40" t="s">
+        <v>72</v>
+      </c>
+      <c r="N40" t="s">
+        <v>73</v>
+      </c>
+      <c r="O40" t="s">
+        <v>400</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40"/>
+    </row>
+    <row r="41" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B41" t="s">
+        <v>176</v>
+      </c>
+      <c r="C41" t="s">
+        <v>177</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" t="s">
+        <v>116</v>
+      </c>
+      <c r="G41" t="s">
+        <v>116</v>
+      </c>
+      <c r="H41">
+        <f>1/1000</f>
+        <v>1E-3</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>1585</v>
+      </c>
+      <c r="K41" t="b">
+        <v>1</v>
+      </c>
+      <c r="L41" t="s">
+        <v>389</v>
+      </c>
+      <c r="M41" t="s">
+        <v>176</v>
+      </c>
+      <c r="N41" t="s">
+        <v>177</v>
+      </c>
+      <c r="O41" t="s">
+        <v>391</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A42" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B42" t="s">
+        <v>251</v>
+      </c>
+      <c r="C42" t="s">
+        <v>252</v>
+      </c>
+      <c r="D42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" t="s">
+        <v>89</v>
+      </c>
+      <c r="F42" t="s">
+        <v>90</v>
+      </c>
+      <c r="G42" t="s">
+        <v>116</v>
+      </c>
+      <c r="H42">
+        <f>(24*60)/1000</f>
+        <v>1.44</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>5832</v>
+      </c>
+      <c r="K42" t="b">
+        <v>1</v>
+      </c>
+      <c r="L42" t="s">
+        <v>389</v>
+      </c>
+      <c r="M42" t="s">
+        <v>251</v>
+      </c>
+      <c r="N42" t="s">
+        <v>252</v>
+      </c>
+      <c r="O42" t="s">
+        <v>391</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A43" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B43" t="s">
+        <v>284</v>
+      </c>
+      <c r="C43" t="s">
+        <v>285</v>
+      </c>
+      <c r="D43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" t="s">
+        <v>89</v>
+      </c>
+      <c r="F43" t="s">
+        <v>90</v>
+      </c>
+      <c r="G43" t="s">
+        <v>116</v>
+      </c>
+      <c r="H43">
+        <f>(24*60*60)/1000</f>
+        <v>86.4</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>2654</v>
+      </c>
+      <c r="K43" t="b">
+        <v>1</v>
+      </c>
+      <c r="L43" t="s">
+        <v>389</v>
+      </c>
+      <c r="M43" t="s">
+        <v>284</v>
+      </c>
+      <c r="N43" t="s">
+        <v>285</v>
+      </c>
+      <c r="O43" t="s">
+        <v>391</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A44" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G44" t="s">
+        <v>84</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>39003</v>
+      </c>
+      <c r="K44" t="b">
+        <v>1</v>
+      </c>
+      <c r="L44" t="s">
+        <v>392</v>
+      </c>
+      <c r="M44" t="s">
+        <v>84</v>
+      </c>
+      <c r="N44" t="s">
+        <v>85</v>
+      </c>
+      <c r="O44" t="s">
+        <v>393</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A45" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B45" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" t="s">
+        <v>106</v>
+      </c>
+      <c r="D45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" t="b">
+        <v>0</v>
+      </c>
+      <c r="G45" t="s">
+        <v>105</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>47</v>
+      </c>
+      <c r="K45" t="b">
+        <v>1</v>
+      </c>
+      <c r="L45" t="s">
+        <v>404</v>
+      </c>
+      <c r="M45" t="s">
+        <v>105</v>
+      </c>
+      <c r="N45" t="s">
+        <v>106</v>
+      </c>
+      <c r="O45" t="s">
+        <v>405</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A46" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B46" t="s">
+        <v>158</v>
+      </c>
+      <c r="C46" t="s">
+        <v>159</v>
+      </c>
+      <c r="D46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" t="b">
+        <v>0</v>
+      </c>
+      <c r="G46" t="s">
+        <v>72</v>
+      </c>
+      <c r="H46">
+        <v>1000</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>2030</v>
+      </c>
+      <c r="K46" t="b">
+        <v>1</v>
+      </c>
+      <c r="L46" t="s">
+        <v>398</v>
+      </c>
+      <c r="M46" t="s">
+        <v>466</v>
+      </c>
+      <c r="N46" t="s">
+        <v>159</v>
+      </c>
+      <c r="O46" t="s">
+        <v>400</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A47" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" t="s">
+        <v>116</v>
+      </c>
+      <c r="C47" t="s">
+        <v>117</v>
+      </c>
+      <c r="D47" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" t="b">
+        <v>0</v>
+      </c>
+      <c r="G47" t="s">
+        <v>116</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>537521</v>
+      </c>
+      <c r="K47" t="b">
+        <v>1</v>
+      </c>
+      <c r="L47" t="s">
+        <v>389</v>
+      </c>
+      <c r="M47" t="s">
+        <v>390</v>
+      </c>
+      <c r="N47" t="s">
+        <v>117</v>
+      </c>
+      <c r="O47" t="s">
+        <v>391</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A48" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B48" t="s">
+        <v>188</v>
+      </c>
+      <c r="C48" t="s">
+        <v>189</v>
+      </c>
+      <c r="D48" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" t="s">
+        <v>89</v>
+      </c>
+      <c r="F48" t="s">
+        <v>90</v>
+      </c>
+      <c r="G48" t="s">
+        <v>116</v>
+      </c>
+      <c r="H48">
+        <v>24</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>11</v>
+      </c>
+      <c r="K48" t="b">
+        <v>1</v>
+      </c>
+      <c r="L48" t="s">
+        <v>389</v>
+      </c>
+      <c r="M48" t="s">
+        <v>502</v>
+      </c>
+      <c r="N48" t="s">
+        <v>189</v>
+      </c>
+      <c r="O48" t="s">
+        <v>391</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="H49" s="9">
+        <f>1/30</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="I49" s="9">
+        <v>0</v>
+      </c>
+      <c r="J49" s="9">
+        <v>6</v>
+      </c>
+      <c r="K49" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L49" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="M49" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="N49" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="O49" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="P49" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B50" t="s">
+        <v>185</v>
+      </c>
+      <c r="C50" t="s">
+        <v>186</v>
+      </c>
+      <c r="D50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" t="s">
+        <v>89</v>
+      </c>
+      <c r="F50" t="s">
+        <v>90</v>
+      </c>
+      <c r="G50" t="s">
+        <v>116</v>
+      </c>
+      <c r="H50">
+        <f>24*60</f>
+        <v>1440</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>1038</v>
+      </c>
+      <c r="K50" t="b">
+        <v>1</v>
+      </c>
+      <c r="L50" t="s">
+        <v>389</v>
+      </c>
+      <c r="M50" t="s">
+        <v>471</v>
+      </c>
+      <c r="N50" t="s">
+        <v>186</v>
+      </c>
+      <c r="O50" t="s">
+        <v>391</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A51" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B51" t="s">
+        <v>93</v>
+      </c>
+      <c r="C51" t="s">
+        <v>94</v>
+      </c>
+      <c r="D51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" t="b">
+        <v>0</v>
+      </c>
+      <c r="G51" t="s">
+        <v>116</v>
+      </c>
+      <c r="H51">
+        <f>24*60</f>
+        <v>1440</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>51077</v>
+      </c>
+      <c r="K51" t="b">
+        <v>1</v>
+      </c>
+      <c r="L51" t="s">
+        <v>389</v>
+      </c>
+      <c r="M51" t="s">
+        <v>471</v>
+      </c>
+      <c r="N51" t="s">
+        <v>186</v>
+      </c>
+      <c r="O51" t="s">
+        <v>391</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A52" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" t="s">
+        <v>116</v>
+      </c>
+      <c r="G52" t="s">
+        <v>116</v>
+      </c>
+      <c r="H52">
+        <f>24*60</f>
+        <v>1440</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>736</v>
+      </c>
+      <c r="K52" t="b">
+        <v>1</v>
+      </c>
+      <c r="L52" t="s">
+        <v>389</v>
+      </c>
+      <c r="M52" t="s">
+        <v>471</v>
+      </c>
+      <c r="N52" t="s">
+        <v>186</v>
+      </c>
+      <c r="O52" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B53" t="s">
+        <v>191</v>
+      </c>
+      <c r="C53" t="s">
+        <v>192</v>
+      </c>
+      <c r="D53" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" t="s">
+        <v>92</v>
+      </c>
+      <c r="F53" t="s">
+        <v>93</v>
+      </c>
+      <c r="G53" t="s">
+        <v>116</v>
+      </c>
+      <c r="H53">
+        <f>24*60*60</f>
+        <v>86400</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>166</v>
+      </c>
+      <c r="K53" t="b">
+        <v>1</v>
+      </c>
+      <c r="L53" t="s">
+        <v>389</v>
+      </c>
+      <c r="M53" t="s">
+        <v>401</v>
+      </c>
+      <c r="N53" t="s">
+        <v>498</v>
+      </c>
+      <c r="O53" t="s">
+        <v>391</v>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q53"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A54" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B54" t="s">
+        <v>90</v>
+      </c>
+      <c r="C54" t="s">
+        <v>91</v>
+      </c>
+      <c r="D54" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" t="b">
+        <v>0</v>
+      </c>
+      <c r="G54" t="s">
+        <v>116</v>
+      </c>
+      <c r="H54">
+        <f>24*60*60</f>
+        <v>86400</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>51718</v>
+      </c>
+      <c r="K54" t="b">
+        <v>1</v>
+      </c>
+      <c r="L54" t="s">
+        <v>389</v>
+      </c>
+      <c r="M54" t="s">
+        <v>401</v>
+      </c>
+      <c r="N54" t="s">
+        <v>498</v>
+      </c>
+      <c r="O54" t="s">
+        <v>391</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A55" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B55" t="s">
+        <v>239</v>
+      </c>
+      <c r="C55" t="s">
+        <v>240</v>
+      </c>
+      <c r="D55" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" t="s">
+        <v>116</v>
+      </c>
+      <c r="G55" t="s">
+        <v>116</v>
+      </c>
+      <c r="H55">
+        <f>1/7</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>194</v>
+      </c>
+      <c r="K55" t="b">
+        <v>1</v>
+      </c>
+      <c r="L55" t="s">
+        <v>389</v>
+      </c>
+      <c r="M55" t="s">
+        <v>512</v>
+      </c>
+      <c r="N55" t="s">
+        <v>240</v>
+      </c>
+      <c r="O55" t="s">
+        <v>391</v>
+      </c>
+      <c r="P55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="H56" s="9">
+        <f>1/365.25</f>
+        <v>2.7378507871321013E-3</v>
+      </c>
+      <c r="I56" s="9">
+        <v>0</v>
+      </c>
+      <c r="J56" s="9">
         <v>12</v>
       </c>
-      <c r="B32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="s">
-        <v>14</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>733</v>
-      </c>
-      <c r="K32" t="b">
-        <v>0</v>
-      </c>
-      <c r="L32" t="s">
-        <v>410</v>
-      </c>
-      <c r="M32" t="s">
-        <v>114</v>
-      </c>
-      <c r="N32" t="s">
-        <v>115</v>
-      </c>
-      <c r="O32" t="s">
-        <v>367</v>
-      </c>
-      <c r="P32" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A33" s="5" t="s">
+      <c r="K56" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L56" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="M56" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="N56" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="O56" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="P56" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="B57" t="s">
+        <v>334</v>
+      </c>
+      <c r="C57" t="s">
+        <v>335</v>
+      </c>
+      <c r="D57" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" t="b">
+        <v>0</v>
+      </c>
+      <c r="G57" t="s">
+        <v>530</v>
+      </c>
+      <c r="H57">
+        <v>1000</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>8907</v>
+      </c>
+      <c r="K57" t="b">
+        <v>1</v>
+      </c>
+      <c r="L57" t="s">
+        <v>433</v>
+      </c>
+      <c r="M57" t="s">
+        <v>526</v>
+      </c>
+      <c r="N57" t="s">
+        <v>335</v>
+      </c>
+      <c r="O57" t="s">
+        <v>435</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A58" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B58" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" t="s">
+        <v>26</v>
+      </c>
+      <c r="D58" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" t="b">
+        <v>0</v>
+      </c>
+      <c r="G58" t="s">
+        <v>25</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>3293</v>
+      </c>
+      <c r="K58" t="b">
+        <v>1</v>
+      </c>
+      <c r="L58" t="s">
+        <v>412</v>
+      </c>
+      <c r="M58" t="s">
+        <v>25</v>
+      </c>
+      <c r="N58" t="s">
+        <v>26</v>
+      </c>
+      <c r="O58" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A59" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" t="s">
+        <v>61</v>
+      </c>
+      <c r="D59" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" t="b">
+        <v>0</v>
+      </c>
+      <c r="G59" t="s">
+        <v>60</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>123349</v>
+      </c>
+      <c r="K59" t="b">
+        <v>1</v>
+      </c>
+      <c r="L59" t="s">
+        <v>439</v>
+      </c>
+      <c r="M59" t="s">
+        <v>440</v>
+      </c>
+      <c r="N59" t="s">
+        <v>61</v>
+      </c>
+      <c r="O59" t="s">
+        <v>441</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B60" t="s">
+        <v>206</v>
+      </c>
+      <c r="C60" t="s">
+        <v>207</v>
+      </c>
+      <c r="D60" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" t="s">
+        <v>59</v>
+      </c>
+      <c r="F60" t="s">
+        <v>60</v>
+      </c>
+      <c r="G60" t="s">
+        <v>60</v>
+      </c>
+      <c r="H60">
+        <f>1/30</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>155</v>
+      </c>
+      <c r="K60" t="b">
+        <v>1</v>
+      </c>
+      <c r="L60" t="s">
+        <v>439</v>
+      </c>
+      <c r="M60" t="s">
+        <v>507</v>
+      </c>
+      <c r="N60" t="s">
+        <v>207</v>
+      </c>
+      <c r="O60" t="s">
+        <v>441</v>
+      </c>
+      <c r="P60" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q60"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A61" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B61" t="s">
+        <v>212</v>
+      </c>
+      <c r="C61" t="s">
+        <v>213</v>
+      </c>
+      <c r="D61" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" t="s">
+        <v>21</v>
+      </c>
+      <c r="F61" t="s">
+        <v>22</v>
+      </c>
+      <c r="G61" t="s">
+        <v>218</v>
+      </c>
+      <c r="H61">
+        <v>1000</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>4</v>
+      </c>
+      <c r="K61" t="b">
+        <v>1</v>
+      </c>
+      <c r="L61" t="s">
+        <v>368</v>
+      </c>
+      <c r="M61" t="s">
+        <v>212</v>
+      </c>
+      <c r="N61" t="s">
+        <v>213</v>
+      </c>
+      <c r="O61" t="s">
+        <v>369</v>
+      </c>
+      <c r="P61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A62" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B62" t="s">
+        <v>218</v>
+      </c>
+      <c r="C62" t="s">
+        <v>219</v>
+      </c>
+      <c r="D62" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" t="s">
+        <v>21</v>
+      </c>
+      <c r="F62" t="s">
+        <v>22</v>
+      </c>
+      <c r="G62" t="s">
+        <v>218</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>53121</v>
+      </c>
+      <c r="K62" t="b">
+        <v>1</v>
+      </c>
+      <c r="L62" t="s">
+        <v>368</v>
+      </c>
+      <c r="M62" t="s">
+        <v>218</v>
+      </c>
+      <c r="N62" t="s">
+        <v>219</v>
+      </c>
+      <c r="O62" t="s">
+        <v>369</v>
+      </c>
+      <c r="P62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A63" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B63" t="s">
+        <v>221</v>
+      </c>
+      <c r="C63" t="s">
+        <v>222</v>
+      </c>
+      <c r="D63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" t="s">
+        <v>133</v>
+      </c>
+      <c r="F63" t="s">
+        <v>134</v>
+      </c>
+      <c r="G63" t="s">
+        <v>218</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>8488</v>
+      </c>
+      <c r="K63" t="b">
+        <v>1</v>
+      </c>
+      <c r="L63" t="s">
+        <v>368</v>
+      </c>
+      <c r="M63" t="s">
+        <v>218</v>
+      </c>
+      <c r="N63" t="s">
+        <v>219</v>
+      </c>
+      <c r="O63" t="s">
+        <v>369</v>
+      </c>
+      <c r="P63" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A64" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B64" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" t="s">
+        <v>20</v>
+      </c>
+      <c r="D64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" t="s">
+        <v>14</v>
+      </c>
+      <c r="F64" t="b">
+        <v>0</v>
+      </c>
+      <c r="G64" t="s">
+        <v>19</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>14231484</v>
+      </c>
+      <c r="K64" t="b">
+        <v>1</v>
+      </c>
+      <c r="L64" t="s">
+        <v>364</v>
+      </c>
+      <c r="M64" t="s">
+        <v>19</v>
+      </c>
+      <c r="N64" t="s">
+        <v>20</v>
+      </c>
+      <c r="O64" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A65" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B65" t="s">
+        <v>224</v>
+      </c>
+      <c r="C65" t="s">
+        <v>225</v>
+      </c>
+      <c r="D65" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" t="s">
+        <v>53</v>
+      </c>
+      <c r="F65" t="s">
+        <v>54</v>
+      </c>
+      <c r="G65" t="s">
+        <v>54</v>
+      </c>
+      <c r="H65">
+        <f>1/1000</f>
+        <v>1E-3</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>79</v>
+      </c>
+      <c r="K65" t="b">
+        <v>1</v>
+      </c>
+      <c r="L65" t="s">
+        <v>414</v>
+      </c>
+      <c r="M65" t="s">
+        <v>509</v>
+      </c>
+      <c r="N65" t="s">
+        <v>225</v>
+      </c>
+      <c r="O65" t="s">
+        <v>416</v>
+      </c>
+      <c r="P65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A66" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B66" t="s">
+        <v>125</v>
+      </c>
+      <c r="C66" t="s">
+        <v>126</v>
+      </c>
+      <c r="D66" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" t="s">
+        <v>56</v>
+      </c>
+      <c r="F66" t="s">
+        <v>57</v>
+      </c>
+      <c r="G66" t="s">
+        <v>57</v>
+      </c>
+      <c r="H66">
+        <v>1000</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>127260</v>
+      </c>
+      <c r="K66" t="b">
+        <v>1</v>
+      </c>
+      <c r="L66" t="s">
+        <v>407</v>
+      </c>
+      <c r="M66" t="s">
+        <v>494</v>
+      </c>
+      <c r="N66" t="s">
+        <v>126</v>
+      </c>
+      <c r="O66" t="s">
+        <v>409</v>
+      </c>
+      <c r="P66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A67" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B67" t="s">
+        <v>161</v>
+      </c>
+      <c r="C67" t="s">
+        <v>162</v>
+      </c>
+      <c r="D67" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" t="s">
+        <v>27</v>
+      </c>
+      <c r="F67" t="s">
+        <v>28</v>
+      </c>
+      <c r="G67" t="s">
+        <v>28</v>
+      </c>
+      <c r="H67">
+        <v>1000000</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>514</v>
+      </c>
+      <c r="K67" t="b">
+        <v>1</v>
+      </c>
+      <c r="L67" t="s">
+        <v>378</v>
+      </c>
+      <c r="M67" t="s">
+        <v>161</v>
+      </c>
+      <c r="N67" t="s">
+        <v>162</v>
+      </c>
+      <c r="O67" t="s">
+        <v>380</v>
+      </c>
+      <c r="P67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A68" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B68" t="s">
+        <v>45</v>
+      </c>
+      <c r="C68" t="s">
+        <v>46</v>
+      </c>
+      <c r="D68" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" t="b">
+        <v>0</v>
+      </c>
+      <c r="G68" t="s">
+        <v>492</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>58</v>
+      </c>
+      <c r="K68" t="b">
+        <v>1</v>
+      </c>
+      <c r="L68" t="s">
+        <v>394</v>
+      </c>
+      <c r="M68" t="s">
+        <v>492</v>
+      </c>
+      <c r="N68" t="s">
+        <v>46</v>
+      </c>
+      <c r="O68" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A69" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B69" t="s">
+        <v>119</v>
+      </c>
+      <c r="C69" t="s">
+        <v>120</v>
+      </c>
+      <c r="D69" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" t="s">
+        <v>83</v>
+      </c>
+      <c r="F69" t="s">
+        <v>84</v>
+      </c>
+      <c r="G69" t="s">
+        <v>84</v>
+      </c>
+      <c r="H69">
+        <f>1/1000</f>
+        <v>1E-3</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>6178</v>
+      </c>
+      <c r="K69" t="b">
+        <v>1</v>
+      </c>
+      <c r="L69" t="s">
+        <v>392</v>
+      </c>
+      <c r="M69" t="s">
+        <v>119</v>
+      </c>
+      <c r="N69" t="s">
+        <v>120</v>
+      </c>
+      <c r="O69" t="s">
+        <v>393</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A70" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H70" s="3">
+        <v>0.13332238741499999</v>
+      </c>
+      <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
+        <v>84</v>
+      </c>
+      <c r="K70" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L70" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="M70" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="N70" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="O70" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="P70" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3"/>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A71" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B71" t="s">
+        <v>248</v>
+      </c>
+      <c r="C71" t="s">
+        <v>249</v>
+      </c>
+      <c r="D71" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71" t="b">
+        <v>0</v>
+      </c>
+      <c r="H71" t="s">
+        <v>14</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
         <v>30</v>
       </c>
-      <c r="B33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" t="s">
-        <v>31</v>
-      </c>
-      <c r="D33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="s">
-        <v>14</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>685712</v>
-      </c>
-      <c r="K33" t="b">
-        <v>0</v>
-      </c>
-      <c r="L33" t="s">
-        <v>371</v>
-      </c>
-      <c r="M33" t="s">
-        <v>31</v>
-      </c>
-      <c r="N33" t="s">
-        <v>31</v>
-      </c>
-      <c r="O33" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A34" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="B34" t="s">
-        <v>343</v>
-      </c>
-      <c r="C34" t="s">
-        <v>344</v>
-      </c>
-      <c r="D34" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="s">
-        <v>14</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>204</v>
-      </c>
-      <c r="K34" t="b">
-        <v>0</v>
-      </c>
-      <c r="L34" t="s">
-        <v>361</v>
-      </c>
-      <c r="M34" t="s">
-        <v>343</v>
-      </c>
-      <c r="N34" t="s">
-        <v>344</v>
-      </c>
-      <c r="O34" t="s">
-        <v>363</v>
-      </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A35" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" t="s">
-        <v>43</v>
-      </c>
-      <c r="D35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="s">
-        <v>14</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>28167</v>
-      </c>
-      <c r="K35" t="b">
-        <v>0</v>
-      </c>
-      <c r="L35" t="s">
-        <v>361</v>
-      </c>
-      <c r="M35" t="s">
-        <v>42</v>
-      </c>
-      <c r="N35" t="s">
-        <v>43</v>
-      </c>
-      <c r="O35" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A36" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" t="s">
-        <v>40</v>
-      </c>
-      <c r="D36" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="s">
-        <v>14</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>8255</v>
-      </c>
-      <c r="K36" t="b">
-        <v>0</v>
-      </c>
-      <c r="L36" t="s">
-        <v>361</v>
-      </c>
-      <c r="M36" t="s">
-        <v>39</v>
-      </c>
-      <c r="N36" t="s">
-        <v>40</v>
-      </c>
-      <c r="O36" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A37" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="B37" t="s">
-        <v>331</v>
-      </c>
-      <c r="C37" t="s">
-        <v>332</v>
-      </c>
-      <c r="D37" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="s">
-        <v>14</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>50305</v>
-      </c>
-      <c r="K37" t="b">
-        <v>0</v>
-      </c>
-      <c r="L37" t="s">
+      <c r="K71" t="b">
+        <v>0</v>
+      </c>
+      <c r="L71" t="s">
+        <v>417</v>
+      </c>
+      <c r="M71" t="s">
+        <v>421</v>
+      </c>
+      <c r="N71" t="s">
+        <v>249</v>
+      </c>
+      <c r="O71" t="s">
+        <v>419</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A72" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B72" t="s">
+        <v>81</v>
+      </c>
+      <c r="C72" t="s">
+        <v>82</v>
+      </c>
+      <c r="D72" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72" t="b">
+        <v>0</v>
+      </c>
+      <c r="H72" t="s">
+        <v>14</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>45814</v>
+      </c>
+      <c r="K72" t="b">
+        <v>0</v>
+      </c>
+      <c r="L72" t="s">
+        <v>417</v>
+      </c>
+      <c r="M72" t="s">
+        <v>81</v>
+      </c>
+      <c r="N72" t="s">
+        <v>489</v>
+      </c>
+      <c r="O72" t="s">
+        <v>419</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A73" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B73" t="s">
+        <v>263</v>
+      </c>
+      <c r="C73" t="s">
+        <v>264</v>
+      </c>
+      <c r="D73" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" t="s">
+        <v>14</v>
+      </c>
+      <c r="F73" t="b">
+        <v>0</v>
+      </c>
+      <c r="H73" t="s">
+        <v>14</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>300</v>
+      </c>
+      <c r="K73" t="b">
+        <v>0</v>
+      </c>
+      <c r="L73" t="s">
+        <v>417</v>
+      </c>
+      <c r="M73" t="s">
+        <v>263</v>
+      </c>
+      <c r="N73" t="s">
+        <v>264</v>
+      </c>
+      <c r="O73" t="s">
+        <v>419</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A74" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B74" t="s">
+        <v>346</v>
+      </c>
+      <c r="C74" t="s">
+        <v>347</v>
+      </c>
+      <c r="D74" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" t="s">
+        <v>27</v>
+      </c>
+      <c r="F74" t="s">
+        <v>28</v>
+      </c>
+      <c r="G74" t="s">
+        <v>28</v>
+      </c>
+      <c r="H74">
+        <v>1000</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74" t="b">
+        <v>1</v>
+      </c>
+      <c r="L74" t="s">
+        <v>378</v>
+      </c>
+      <c r="M74" t="s">
+        <v>522</v>
+      </c>
+      <c r="N74" t="s">
+        <v>347</v>
+      </c>
+      <c r="O74" t="s">
+        <v>380</v>
+      </c>
+      <c r="P74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A75" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B75" t="s">
+        <v>111</v>
+      </c>
+      <c r="C75" t="s">
+        <v>112</v>
+      </c>
+      <c r="D75" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" t="s">
+        <v>14</v>
+      </c>
+      <c r="F75" t="b">
+        <v>0</v>
+      </c>
+      <c r="H75" t="s">
+        <v>14</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>31384</v>
+      </c>
+      <c r="K75" t="b">
+        <v>0</v>
+      </c>
+      <c r="L75" t="s">
+        <v>402</v>
+      </c>
+      <c r="M75" t="s">
+        <v>111</v>
+      </c>
+      <c r="N75" t="s">
+        <v>112</v>
+      </c>
+      <c r="O75" t="s">
+        <v>403</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A76" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B76" t="s">
+        <v>143</v>
+      </c>
+      <c r="C76" t="s">
+        <v>290</v>
+      </c>
+      <c r="D76" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76" t="b">
+        <v>0</v>
+      </c>
+      <c r="G76" t="s">
+        <v>19</v>
+      </c>
+      <c r="H76">
+        <f>1/1000000</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>746</v>
+      </c>
+      <c r="K76" t="b">
+        <v>1</v>
+      </c>
+      <c r="L76" t="s">
+        <v>364</v>
+      </c>
+      <c r="M76" t="s">
+        <v>143</v>
+      </c>
+      <c r="N76" t="s">
+        <v>144</v>
+      </c>
+      <c r="O76" t="s">
+        <v>366</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A77" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B77" t="s">
+        <v>143</v>
+      </c>
+      <c r="C77" t="s">
+        <v>144</v>
+      </c>
+      <c r="D77" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77" t="s">
+        <v>18</v>
+      </c>
+      <c r="F77" t="s">
+        <v>19</v>
+      </c>
+      <c r="G77" t="s">
+        <v>19</v>
+      </c>
+      <c r="H77">
+        <f>1/1000000</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>136</v>
+      </c>
+      <c r="K77" t="b">
+        <v>1</v>
+      </c>
+      <c r="L77" t="s">
+        <v>364</v>
+      </c>
+      <c r="M77" t="s">
+        <v>143</v>
+      </c>
+      <c r="N77" t="s">
+        <v>144</v>
+      </c>
+      <c r="O77" t="s">
+        <v>366</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A78" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B78" t="s">
+        <v>292</v>
+      </c>
+      <c r="C78" t="s">
+        <v>293</v>
+      </c>
+      <c r="D78" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" t="s">
+        <v>14</v>
+      </c>
+      <c r="F78" t="b">
+        <v>0</v>
+      </c>
+      <c r="H78" t="s">
+        <v>14</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>13683</v>
+      </c>
+      <c r="K78" t="b">
+        <v>0</v>
+      </c>
+      <c r="L78" t="s">
         <v>318</v>
       </c>
-      <c r="M37" t="s">
-        <v>331</v>
-      </c>
-      <c r="N37" t="s">
-        <v>332</v>
-      </c>
-      <c r="O37" t="s">
+      <c r="M78" t="s">
+        <v>292</v>
+      </c>
+      <c r="N78" t="s">
+        <v>293</v>
+      </c>
+      <c r="O78" t="s">
         <v>516</v>
       </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A38" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="B38" t="s">
-        <v>295</v>
-      </c>
-      <c r="C38" t="s">
-        <v>295</v>
-      </c>
-      <c r="D38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="s">
-        <v>14</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>57</v>
-      </c>
-      <c r="K38" t="b">
-        <v>0</v>
-      </c>
-      <c r="L38" t="s">
+      <c r="P78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A79" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B79" t="s">
+        <v>309</v>
+      </c>
+      <c r="C79" t="s">
+        <v>310</v>
+      </c>
+      <c r="D79" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" t="s">
+        <v>14</v>
+      </c>
+      <c r="F79" t="b">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>1461</v>
+      </c>
+      <c r="K79" t="b">
+        <v>1</v>
+      </c>
+      <c r="L79" t="s">
         <v>318</v>
       </c>
-      <c r="M38" t="s">
-        <v>295</v>
-      </c>
-      <c r="N38" t="s">
-        <v>295</v>
-      </c>
-      <c r="O38" t="s">
+      <c r="M79" t="s">
+        <v>519</v>
+      </c>
+      <c r="N79" t="s">
+        <v>310</v>
+      </c>
+      <c r="O79" t="s">
         <v>516</v>
       </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A39" s="5" t="s">
+      <c r="P79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A80" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B80" t="s">
+        <v>16</v>
+      </c>
+      <c r="C80" t="s">
+        <v>17</v>
+      </c>
+      <c r="D80" t="s">
+        <v>10</v>
+      </c>
+      <c r="E80" t="s">
+        <v>14</v>
+      </c>
+      <c r="F80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H80" t="s">
+        <v>14</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>7693</v>
+      </c>
+      <c r="K80" t="b">
+        <v>0</v>
+      </c>
+      <c r="L80" t="s">
+        <v>16</v>
+      </c>
+      <c r="M80" t="s">
+        <v>16</v>
+      </c>
+      <c r="N80" t="s">
+        <v>16</v>
+      </c>
+      <c r="O80" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A81" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B81" t="s">
+        <v>36</v>
+      </c>
+      <c r="C81" t="s">
+        <v>37</v>
+      </c>
+      <c r="D81" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" t="s">
+        <v>14</v>
+      </c>
+      <c r="F81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>318014</v>
+      </c>
+      <c r="K81" t="b">
+        <v>0</v>
+      </c>
+      <c r="L81" t="s">
+        <v>385</v>
+      </c>
+      <c r="M81" t="s">
+        <v>36</v>
+      </c>
+      <c r="N81" t="s">
+        <v>37</v>
+      </c>
+      <c r="O81" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A82" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F82" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="H82" s="3">
+        <f>1/1000000</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I82" s="3">
+        <v>0</v>
+      </c>
+      <c r="J82" s="3">
+        <v>640</v>
+      </c>
+      <c r="K82" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L82" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="M82" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="N82" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="O82" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="P82" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A83" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F83" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="H83" s="3">
+        <f>1/1000000</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>203</v>
+      </c>
+      <c r="K83" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q83" s="3"/>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A84" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B84" t="s">
         <v>122</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C84" t="s">
         <v>123</v>
       </c>
-      <c r="D39" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" t="b">
-        <v>0</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="D84" t="s">
+        <v>10</v>
+      </c>
+      <c r="E84" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84" t="b">
+        <v>0</v>
+      </c>
+      <c r="G84" t="s">
         <v>19</v>
       </c>
-      <c r="H39" s="6">
+      <c r="H84" s="6">
         <f>1/1000000000</f>
         <v>1.0000000000000001E-9</v>
       </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
         <v>5777</v>
       </c>
-      <c r="K39" t="b">
+      <c r="K84" t="b">
         <v>1</v>
       </c>
-      <c r="L39" t="s">
+      <c r="L84" t="s">
         <v>364</v>
       </c>
-      <c r="M39" t="s">
+      <c r="M84" t="s">
         <v>122</v>
       </c>
-      <c r="N39" t="s">
+      <c r="N84" t="s">
         <v>123</v>
       </c>
-      <c r="O39" t="s">
+      <c r="O84" t="s">
         <v>366</v>
       </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F40" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="H40" s="3">
-        <f>1/1000000</f>
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="I40" s="3">
-        <v>0</v>
-      </c>
-      <c r="J40" s="3">
-        <v>640</v>
-      </c>
-      <c r="K40" s="3" t="b">
+      <c r="P84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A85" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B85" t="s">
+        <v>31</v>
+      </c>
+      <c r="C85" t="s">
+        <v>31</v>
+      </c>
+      <c r="D85" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" t="s">
+        <v>14</v>
+      </c>
+      <c r="F85" t="b">
+        <v>0</v>
+      </c>
+      <c r="H85" t="s">
+        <v>14</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>685712</v>
+      </c>
+      <c r="K85" t="b">
+        <v>0</v>
+      </c>
+      <c r="L85" t="s">
+        <v>371</v>
+      </c>
+      <c r="M85" t="s">
+        <v>31</v>
+      </c>
+      <c r="N85" t="s">
+        <v>31</v>
+      </c>
+      <c r="O85" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A86" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B86" t="s">
+        <v>155</v>
+      </c>
+      <c r="C86" t="s">
+        <v>156</v>
+      </c>
+      <c r="D86" t="s">
+        <v>10</v>
+      </c>
+      <c r="E86" t="s">
+        <v>14</v>
+      </c>
+      <c r="F86" t="b">
+        <v>0</v>
+      </c>
+      <c r="H86" t="s">
+        <v>14</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>139</v>
+      </c>
+      <c r="K86" t="b">
+        <v>0</v>
+      </c>
+      <c r="L86" t="s">
+        <v>410</v>
+      </c>
+      <c r="M86" t="s">
+        <v>482</v>
+      </c>
+      <c r="N86" t="s">
+        <v>525</v>
+      </c>
+      <c r="O86" t="s">
+        <v>411</v>
+      </c>
+      <c r="P86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A87" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="B87" t="s">
+        <v>340</v>
+      </c>
+      <c r="C87" t="s">
+        <v>341</v>
+      </c>
+      <c r="D87" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87" t="s">
+        <v>14</v>
+      </c>
+      <c r="F87" t="b">
+        <v>0</v>
+      </c>
+      <c r="H87" t="s">
+        <v>14</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>4119</v>
+      </c>
+      <c r="K87" t="b">
+        <v>0</v>
+      </c>
+      <c r="L87" t="s">
+        <v>410</v>
+      </c>
+      <c r="M87" t="s">
+        <v>442</v>
+      </c>
+      <c r="N87" t="s">
+        <v>524</v>
+      </c>
+      <c r="O87" t="s">
+        <v>411</v>
+      </c>
+      <c r="P87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A88" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B88" t="s">
+        <v>152</v>
+      </c>
+      <c r="C88" t="s">
+        <v>153</v>
+      </c>
+      <c r="D88" t="s">
+        <v>10</v>
+      </c>
+      <c r="E88" t="s">
+        <v>14</v>
+      </c>
+      <c r="F88" t="b">
+        <v>0</v>
+      </c>
+      <c r="H88" t="s">
+        <v>14</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>1333</v>
+      </c>
+      <c r="K88" t="b">
+        <v>0</v>
+      </c>
+      <c r="L88" t="s">
+        <v>410</v>
+      </c>
+      <c r="M88" t="s">
+        <v>442</v>
+      </c>
+      <c r="N88" t="s">
+        <v>524</v>
+      </c>
+      <c r="O88" t="s">
+        <v>411</v>
+      </c>
+      <c r="P88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A89" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B89" t="s">
+        <v>146</v>
+      </c>
+      <c r="C89" t="s">
+        <v>147</v>
+      </c>
+      <c r="D89" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89" t="s">
+        <v>14</v>
+      </c>
+      <c r="F89" t="b">
+        <v>0</v>
+      </c>
+      <c r="H89" t="s">
+        <v>14</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>430</v>
+      </c>
+      <c r="K89" t="b">
+        <v>0</v>
+      </c>
+      <c r="L89" t="s">
+        <v>410</v>
+      </c>
+      <c r="M89" t="s">
+        <v>442</v>
+      </c>
+      <c r="N89" t="s">
+        <v>524</v>
+      </c>
+      <c r="O89" t="s">
+        <v>411</v>
+      </c>
+      <c r="P89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A90" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B90" t="s">
+        <v>75</v>
+      </c>
+      <c r="C90" t="s">
+        <v>76</v>
+      </c>
+      <c r="D90" t="s">
+        <v>10</v>
+      </c>
+      <c r="E90" t="s">
+        <v>14</v>
+      </c>
+      <c r="F90" t="b">
+        <v>0</v>
+      </c>
+      <c r="H90" t="s">
+        <v>14</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>7586</v>
+      </c>
+      <c r="K90" t="b">
+        <v>0</v>
+      </c>
+      <c r="L90" t="s">
+        <v>410</v>
+      </c>
+      <c r="M90" t="s">
+        <v>75</v>
+      </c>
+      <c r="N90" t="s">
+        <v>488</v>
+      </c>
+      <c r="O90" t="s">
+        <v>411</v>
+      </c>
+      <c r="P90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A91" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B91" t="s">
+        <v>343</v>
+      </c>
+      <c r="C91" t="s">
+        <v>344</v>
+      </c>
+      <c r="D91" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91" t="s">
+        <v>14</v>
+      </c>
+      <c r="F91" t="b">
+        <v>0</v>
+      </c>
+      <c r="H91" t="s">
+        <v>14</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>204</v>
+      </c>
+      <c r="K91" t="b">
+        <v>0</v>
+      </c>
+      <c r="L91" t="s">
+        <v>361</v>
+      </c>
+      <c r="M91" t="s">
+        <v>343</v>
+      </c>
+      <c r="N91" t="s">
+        <v>344</v>
+      </c>
+      <c r="O91" t="s">
+        <v>363</v>
+      </c>
+      <c r="P91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A92" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B92" t="s">
+        <v>42</v>
+      </c>
+      <c r="C92" t="s">
+        <v>43</v>
+      </c>
+      <c r="D92" t="s">
+        <v>10</v>
+      </c>
+      <c r="E92" t="s">
+        <v>14</v>
+      </c>
+      <c r="F92" t="b">
+        <v>0</v>
+      </c>
+      <c r="H92" t="s">
+        <v>14</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>28167</v>
+      </c>
+      <c r="K92" t="b">
+        <v>0</v>
+      </c>
+      <c r="L92" t="s">
+        <v>361</v>
+      </c>
+      <c r="M92" t="s">
+        <v>42</v>
+      </c>
+      <c r="N92" t="s">
+        <v>43</v>
+      </c>
+      <c r="O92" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F93" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H93" s="10">
+        <f>1000000000</f>
+        <v>1000000000</v>
+      </c>
+      <c r="I93" s="3">
+        <v>0</v>
+      </c>
+      <c r="J93" s="3">
+        <v>188</v>
+      </c>
+      <c r="K93" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="L40" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="M40" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="N40" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="O40" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="P40" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F41" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="H41" s="3">
-        <f>1/1000000</f>
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
+      <c r="L93" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="M93" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="N93" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="O93" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A94" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B94" t="s">
+        <v>102</v>
+      </c>
+      <c r="C94" t="s">
+        <v>103</v>
+      </c>
+      <c r="D94" t="s">
+        <v>10</v>
+      </c>
+      <c r="E94" t="s">
+        <v>14</v>
+      </c>
+      <c r="F94" t="b">
+        <v>0</v>
+      </c>
+      <c r="G94" t="s">
+        <v>102</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>52014</v>
+      </c>
+      <c r="K94" t="b">
+        <v>1</v>
+      </c>
+      <c r="L94" t="s">
+        <v>376</v>
+      </c>
+      <c r="M94" t="s">
+        <v>102</v>
+      </c>
+      <c r="N94" t="s">
+        <v>103</v>
+      </c>
+      <c r="O94" t="s">
+        <v>377</v>
+      </c>
+      <c r="P94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A95" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B95" t="s">
+        <v>275</v>
+      </c>
+      <c r="C95" t="s">
+        <v>276</v>
+      </c>
+      <c r="D95" t="s">
+        <v>10</v>
+      </c>
+      <c r="E95" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95" t="b">
+        <v>0</v>
+      </c>
+      <c r="G95" t="s">
+        <v>54</v>
+      </c>
+      <c r="H95">
+        <v>100</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>30</v>
+      </c>
+      <c r="K95" t="b">
+        <v>1</v>
+      </c>
+      <c r="L95" t="s">
+        <v>414</v>
+      </c>
+      <c r="M95" t="s">
+        <v>275</v>
+      </c>
+      <c r="N95" t="s">
+        <v>276</v>
+      </c>
+      <c r="O95" t="s">
+        <v>467</v>
+      </c>
+      <c r="P95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A96" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B96" t="s">
+        <v>39</v>
+      </c>
+      <c r="C96" t="s">
+        <v>40</v>
+      </c>
+      <c r="D96" t="s">
+        <v>10</v>
+      </c>
+      <c r="E96" t="s">
+        <v>14</v>
+      </c>
+      <c r="F96" t="b">
+        <v>0</v>
+      </c>
+      <c r="H96" t="s">
+        <v>14</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>8255</v>
+      </c>
+      <c r="K96" t="b">
+        <v>0</v>
+      </c>
+      <c r="L96" t="s">
+        <v>361</v>
+      </c>
+      <c r="M96" t="s">
+        <v>39</v>
+      </c>
+      <c r="N96" t="s">
+        <v>40</v>
+      </c>
+      <c r="O96" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A97" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="B97" t="s">
+        <v>331</v>
+      </c>
+      <c r="C97" t="s">
+        <v>332</v>
+      </c>
+      <c r="D97" t="s">
+        <v>10</v>
+      </c>
+      <c r="E97" t="s">
+        <v>14</v>
+      </c>
+      <c r="F97" t="b">
+        <v>0</v>
+      </c>
+      <c r="H97" t="s">
+        <v>14</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>50305</v>
+      </c>
+      <c r="K97" t="b">
+        <v>0</v>
+      </c>
+      <c r="L97" t="s">
+        <v>318</v>
+      </c>
+      <c r="M97" t="s">
+        <v>331</v>
+      </c>
+      <c r="N97" t="s">
+        <v>332</v>
+      </c>
+      <c r="O97" t="s">
+        <v>516</v>
+      </c>
+      <c r="P97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A98" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B98" t="s">
+        <v>227</v>
+      </c>
+      <c r="C98" t="s">
+        <v>228</v>
+      </c>
+      <c r="D98" t="s">
+        <v>10</v>
+      </c>
+      <c r="E98" t="s">
+        <v>101</v>
+      </c>
+      <c r="F98" t="s">
+        <v>102</v>
+      </c>
+      <c r="G98" t="s">
+        <v>102</v>
+      </c>
+      <c r="H98">
+        <v>0.90718500000000002</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>1</v>
+      </c>
+      <c r="K98" t="b">
+        <v>1</v>
+      </c>
+      <c r="L98" t="s">
+        <v>376</v>
+      </c>
+      <c r="M98" t="s">
+        <v>227</v>
+      </c>
+      <c r="N98" t="s">
+        <v>228</v>
+      </c>
+      <c r="O98" t="s">
+        <v>377</v>
+      </c>
+      <c r="P98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A99" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B99" t="s">
+        <v>69</v>
+      </c>
+      <c r="C99" t="s">
+        <v>70</v>
+      </c>
+      <c r="D99" t="s">
+        <v>10</v>
+      </c>
+      <c r="E99" t="s">
+        <v>14</v>
+      </c>
+      <c r="F99" t="b">
+        <v>0</v>
+      </c>
+      <c r="G99" t="s">
+        <v>530</v>
+      </c>
+      <c r="H99">
+        <v>1</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>18696</v>
+      </c>
+      <c r="K99" t="b">
+        <v>1</v>
+      </c>
+      <c r="L99" t="s">
+        <v>433</v>
+      </c>
+      <c r="M99" t="s">
+        <v>491</v>
+      </c>
+      <c r="N99" t="s">
+        <v>70</v>
+      </c>
+      <c r="O99" t="s">
+        <v>435</v>
+      </c>
+      <c r="P99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A100" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B100" t="s">
+        <v>209</v>
+      </c>
+      <c r="C100" t="s">
+        <v>210</v>
+      </c>
+      <c r="D100" t="s">
+        <v>10</v>
+      </c>
+      <c r="E100" t="s">
+        <v>24</v>
+      </c>
+      <c r="F100" t="s">
+        <v>25</v>
+      </c>
+      <c r="G100" t="s">
+        <v>25</v>
+      </c>
+      <c r="H100">
+        <f>1/1000</f>
+        <v>1E-3</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>273</v>
+      </c>
+      <c r="K100" t="b">
+        <v>1</v>
+      </c>
+      <c r="L100" t="s">
+        <v>412</v>
+      </c>
+      <c r="M100" t="s">
+        <v>508</v>
+      </c>
+      <c r="N100" t="s">
+        <v>210</v>
+      </c>
+      <c r="O100" t="s">
+        <v>413</v>
+      </c>
+      <c r="P100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A101" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B101" t="s">
+        <v>131</v>
+      </c>
+      <c r="C101" t="s">
+        <v>132</v>
+      </c>
+      <c r="D101" t="s">
+        <v>10</v>
+      </c>
+      <c r="E101" t="s">
+        <v>53</v>
+      </c>
+      <c r="F101" t="s">
+        <v>54</v>
+      </c>
+      <c r="G101" t="s">
+        <v>54</v>
+      </c>
+      <c r="H101">
+        <f>0.01</f>
+        <v>0.01</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>6348</v>
+      </c>
+      <c r="K101" t="b">
+        <v>1</v>
+      </c>
+      <c r="L101" t="s">
+        <v>414</v>
+      </c>
+      <c r="M101" t="s">
+        <v>496</v>
+      </c>
+      <c r="N101" t="s">
+        <v>132</v>
+      </c>
+      <c r="O101" t="s">
+        <v>416</v>
+      </c>
+      <c r="P101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A102" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B102" t="s">
+        <v>87</v>
+      </c>
+      <c r="C102" t="s">
+        <v>88</v>
+      </c>
+      <c r="D102" t="s">
+        <v>10</v>
+      </c>
+      <c r="E102" t="s">
+        <v>59</v>
+      </c>
+      <c r="F102" t="s">
+        <v>60</v>
+      </c>
+      <c r="G102" t="s">
+        <v>60</v>
+      </c>
+      <c r="H102">
+        <v>0.1</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
         <v>203</v>
       </c>
-      <c r="K41" s="3" t="b">
+      <c r="K102" t="b">
         <v>1</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A42" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="B42" t="s">
-        <v>143</v>
-      </c>
-      <c r="C42" t="s">
-        <v>290</v>
-      </c>
-      <c r="D42" t="s">
-        <v>10</v>
-      </c>
-      <c r="E42" t="s">
-        <v>14</v>
-      </c>
-      <c r="F42" t="b">
-        <v>0</v>
-      </c>
-      <c r="G42" t="s">
-        <v>19</v>
-      </c>
-      <c r="H42">
-        <f>1/1000000</f>
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>746</v>
-      </c>
-      <c r="K42" t="b">
+      <c r="L102" t="s">
+        <v>439</v>
+      </c>
+      <c r="M102" t="s">
+        <v>493</v>
+      </c>
+      <c r="N102" t="s">
+        <v>88</v>
+      </c>
+      <c r="O102" t="s">
+        <v>441</v>
+      </c>
+      <c r="P102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A103" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B103" t="s">
+        <v>200</v>
+      </c>
+      <c r="C103" t="s">
+        <v>201</v>
+      </c>
+      <c r="D103" t="s">
+        <v>10</v>
+      </c>
+      <c r="E103" t="s">
+        <v>59</v>
+      </c>
+      <c r="F103" t="s">
+        <v>60</v>
+      </c>
+      <c r="G103" t="s">
+        <v>60</v>
+      </c>
+      <c r="H103">
+        <f>1/1000</f>
+        <v>1E-3</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>345</v>
+      </c>
+      <c r="K103" t="b">
         <v>1</v>
       </c>
-      <c r="L42" t="s">
-        <v>364</v>
-      </c>
-      <c r="M42" t="s">
-        <v>143</v>
-      </c>
-      <c r="N42" t="s">
-        <v>144</v>
-      </c>
-      <c r="O42" t="s">
-        <v>366</v>
-      </c>
-      <c r="P42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A43" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B43" t="s">
-        <v>143</v>
-      </c>
-      <c r="C43" t="s">
-        <v>144</v>
-      </c>
-      <c r="D43" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" t="s">
-        <v>18</v>
-      </c>
-      <c r="F43" t="s">
-        <v>19</v>
-      </c>
-      <c r="G43" t="s">
-        <v>19</v>
-      </c>
-      <c r="H43">
-        <f>1/1000000</f>
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>136</v>
-      </c>
-      <c r="K43" t="b">
-        <v>1</v>
-      </c>
-      <c r="L43" t="s">
-        <v>364</v>
-      </c>
-      <c r="M43" t="s">
-        <v>143</v>
-      </c>
-      <c r="N43" t="s">
-        <v>144</v>
-      </c>
-      <c r="O43" t="s">
-        <v>366</v>
-      </c>
-      <c r="P43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A44" s="5" t="s">
+      <c r="L103" t="s">
+        <v>439</v>
+      </c>
+      <c r="M103" t="s">
+        <v>505</v>
+      </c>
+      <c r="N103" t="s">
+        <v>201</v>
+      </c>
+      <c r="O103" t="s">
+        <v>441</v>
+      </c>
+      <c r="P103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A104" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B104" t="s">
         <v>203</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C104" t="s">
         <v>204</v>
       </c>
-      <c r="D44" t="s">
-        <v>10</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="D104" t="s">
+        <v>10</v>
+      </c>
+      <c r="E104" t="s">
         <v>59</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F104" t="s">
         <v>60</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G104" t="s">
         <v>60</v>
       </c>
-      <c r="H44">
+      <c r="H104">
         <f>1/30000</f>
         <v>3.3333333333333335E-5</v>
       </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>346</v>
       </c>
-      <c r="K44" t="b">
+      <c r="K104" t="b">
         <v>1</v>
       </c>
-      <c r="L44" t="s">
+      <c r="L104" t="s">
         <v>439</v>
       </c>
-      <c r="M44" t="s">
+      <c r="M104" t="s">
         <v>506</v>
       </c>
-      <c r="N44" t="s">
+      <c r="N104" t="s">
         <v>204</v>
       </c>
-      <c r="O44" t="s">
+      <c r="O104" t="s">
         <v>441</v>
       </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A45" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B45" t="s">
-        <v>230</v>
-      </c>
-      <c r="C45" t="s">
-        <v>231</v>
-      </c>
-      <c r="D45" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45" t="s">
-        <v>101</v>
-      </c>
-      <c r="F45" t="s">
-        <v>102</v>
-      </c>
-      <c r="G45" t="s">
-        <v>102</v>
-      </c>
-      <c r="H45">
-        <f t="shared" ref="H45:H52" si="0">1/1000</f>
+      <c r="P104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A105" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B105" t="s">
+        <v>22</v>
+      </c>
+      <c r="C105" t="s">
+        <v>23</v>
+      </c>
+      <c r="D105" t="s">
+        <v>10</v>
+      </c>
+      <c r="E105" t="s">
+        <v>14</v>
+      </c>
+      <c r="F105" t="b">
+        <v>0</v>
+      </c>
+      <c r="G105" t="s">
+        <v>218</v>
+      </c>
+      <c r="H105">
+        <v>1</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>287100</v>
+      </c>
+      <c r="K105" t="b">
+        <v>1</v>
+      </c>
+      <c r="L105" t="s">
+        <v>368</v>
+      </c>
+      <c r="M105" t="s">
+        <v>218</v>
+      </c>
+      <c r="N105" t="s">
+        <v>219</v>
+      </c>
+      <c r="O105" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A106" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B106" t="s">
+        <v>134</v>
+      </c>
+      <c r="C106" t="s">
+        <v>135</v>
+      </c>
+      <c r="D106" t="s">
+        <v>10</v>
+      </c>
+      <c r="E106" t="s">
+        <v>14</v>
+      </c>
+      <c r="F106" t="b">
+        <v>0</v>
+      </c>
+      <c r="G106" t="s">
+        <v>218</v>
+      </c>
+      <c r="H106">
+        <v>1</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>4818</v>
+      </c>
+      <c r="K106" t="b">
+        <v>1</v>
+      </c>
+      <c r="L106" t="s">
+        <v>368</v>
+      </c>
+      <c r="M106" t="s">
+        <v>406</v>
+      </c>
+      <c r="N106" t="s">
+        <v>23</v>
+      </c>
+      <c r="O106" t="s">
+        <v>369</v>
+      </c>
+      <c r="P106" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A107" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="B107" t="s">
+        <v>303</v>
+      </c>
+      <c r="C107" t="s">
+        <v>304</v>
+      </c>
+      <c r="D107" t="s">
+        <v>10</v>
+      </c>
+      <c r="E107" t="s">
+        <v>21</v>
+      </c>
+      <c r="F107" t="s">
+        <v>22</v>
+      </c>
+      <c r="G107" t="s">
+        <v>218</v>
+      </c>
+      <c r="H107">
+        <f>1/1000</f>
         <v>1E-3</v>
       </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>100120</v>
-      </c>
-      <c r="K45" t="b">
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>207</v>
+      </c>
+      <c r="K107" t="b">
         <v>1</v>
       </c>
-      <c r="L45" t="s">
-        <v>376</v>
-      </c>
-      <c r="M45" t="s">
-        <v>230</v>
-      </c>
-      <c r="N45" t="s">
-        <v>231</v>
-      </c>
-      <c r="O45" t="s">
-        <v>377</v>
-      </c>
-      <c r="P45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A46" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="B46" t="s">
-        <v>176</v>
-      </c>
-      <c r="C46" t="s">
-        <v>177</v>
-      </c>
-      <c r="D46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="L107" t="s">
+        <v>368</v>
+      </c>
+      <c r="M107" t="s">
+        <v>518</v>
+      </c>
+      <c r="N107" t="s">
+        <v>304</v>
+      </c>
+      <c r="O107" t="s">
+        <v>369</v>
+      </c>
+      <c r="P107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A108" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B108" t="s">
+        <v>128</v>
+      </c>
+      <c r="C108" t="s">
+        <v>129</v>
+      </c>
+      <c r="D108" t="s">
+        <v>10</v>
+      </c>
+      <c r="E108" t="s">
+        <v>18</v>
+      </c>
+      <c r="F108" t="s">
+        <v>19</v>
+      </c>
+      <c r="G108" t="s">
+        <v>19</v>
+      </c>
+      <c r="H108">
+        <f>1/1000</f>
+        <v>1E-3</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>2906817</v>
+      </c>
+      <c r="K108" t="b">
+        <v>1</v>
+      </c>
+      <c r="L108" t="s">
+        <v>364</v>
+      </c>
+      <c r="M108" t="s">
+        <v>495</v>
+      </c>
+      <c r="N108" t="s">
+        <v>129</v>
+      </c>
+      <c r="O108" t="s">
+        <v>366</v>
+      </c>
+      <c r="P108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A109" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B109" t="s">
+        <v>57</v>
+      </c>
+      <c r="C109" t="s">
+        <v>58</v>
+      </c>
+      <c r="D109" t="s">
+        <v>10</v>
+      </c>
+      <c r="E109" t="s">
+        <v>14</v>
+      </c>
+      <c r="F109" t="b">
+        <v>0</v>
+      </c>
+      <c r="G109" t="s">
+        <v>57</v>
+      </c>
+      <c r="H109">
+        <v>1</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>226825</v>
+      </c>
+      <c r="K109" t="b">
+        <v>1</v>
+      </c>
+      <c r="L109" t="s">
+        <v>407</v>
+      </c>
+      <c r="M109" t="s">
+        <v>408</v>
+      </c>
+      <c r="N109" t="s">
+        <v>58</v>
+      </c>
+      <c r="O109" t="s">
+        <v>409</v>
+      </c>
+      <c r="P109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B110" t="s">
+        <v>269</v>
+      </c>
+      <c r="C110" t="s">
+        <v>270</v>
+      </c>
+      <c r="D110" t="s">
+        <v>10</v>
+      </c>
+      <c r="E110" t="s">
+        <v>18</v>
+      </c>
+      <c r="F110" t="s">
+        <v>19</v>
+      </c>
+      <c r="G110" t="s">
+        <v>19</v>
+      </c>
+      <c r="H110">
+        <v>1</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>2066</v>
+      </c>
+      <c r="K110" t="b">
+        <v>1</v>
+      </c>
+      <c r="L110" t="s">
+        <v>364</v>
+      </c>
+      <c r="M110" t="s">
+        <v>514</v>
+      </c>
+      <c r="N110" t="s">
+        <v>270</v>
+      </c>
+      <c r="O110" t="s">
+        <v>366</v>
+      </c>
+      <c r="P110" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q110"/>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A111" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B111" t="s">
+        <v>164</v>
+      </c>
+      <c r="C111" t="s">
+        <v>165</v>
+      </c>
+      <c r="D111" t="s">
+        <v>10</v>
+      </c>
+      <c r="E111" t="s">
+        <v>27</v>
+      </c>
+      <c r="F111" t="s">
+        <v>28</v>
+      </c>
+      <c r="G111" t="s">
+        <v>164</v>
+      </c>
+      <c r="H111">
+        <v>1</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>977</v>
+      </c>
+      <c r="K111" t="b">
+        <v>1</v>
+      </c>
+      <c r="L111" t="s">
+        <v>378</v>
+      </c>
+      <c r="M111" t="s">
+        <v>499</v>
+      </c>
+      <c r="N111" t="s">
+        <v>165</v>
+      </c>
+      <c r="O111" t="s">
+        <v>380</v>
+      </c>
+      <c r="P111" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A112" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B112" t="s">
+        <v>306</v>
+      </c>
+      <c r="C112" t="s">
+        <v>307</v>
+      </c>
+      <c r="D112" t="s">
+        <v>10</v>
+      </c>
+      <c r="E112" t="s">
+        <v>14</v>
+      </c>
+      <c r="F112" t="b">
+        <v>0</v>
+      </c>
+      <c r="G112" t="s">
+        <v>306</v>
+      </c>
+      <c r="H112">
+        <v>1</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>133</v>
+      </c>
+      <c r="K112" t="b">
+        <v>1</v>
+      </c>
+      <c r="L112" t="s">
+        <v>430</v>
+      </c>
+      <c r="M112" t="s">
+        <v>431</v>
+      </c>
+      <c r="N112" t="s">
+        <v>307</v>
+      </c>
+      <c r="O112" t="s">
+        <v>432</v>
+      </c>
+      <c r="P112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B113" t="s">
+        <v>28</v>
+      </c>
+      <c r="C113" t="s">
+        <v>29</v>
+      </c>
+      <c r="D113" t="s">
+        <v>10</v>
+      </c>
+      <c r="E113" t="s">
+        <v>14</v>
+      </c>
+      <c r="F113" t="b">
+        <v>0</v>
+      </c>
+      <c r="G113" t="s">
+        <v>28</v>
+      </c>
+      <c r="H113">
+        <v>1</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>500748</v>
+      </c>
+      <c r="K113" t="b">
+        <v>1</v>
+      </c>
+      <c r="L113" t="s">
+        <v>378</v>
+      </c>
+      <c r="M113" t="s">
+        <v>487</v>
+      </c>
+      <c r="N113" t="s">
+        <v>29</v>
+      </c>
+      <c r="O113" t="s">
+        <v>380</v>
+      </c>
+      <c r="P113"/>
+      <c r="Q113"/>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A114" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B114" t="s">
+        <v>278</v>
+      </c>
+      <c r="C114" t="s">
+        <v>279</v>
+      </c>
+      <c r="D114" t="s">
+        <v>10</v>
+      </c>
+      <c r="E114" t="s">
         <v>11</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F114" t="s">
         <v>116</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G114" t="s">
         <v>116</v>
       </c>
-      <c r="H46">
-        <f t="shared" si="0"/>
-        <v>1E-3</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>1585</v>
-      </c>
-      <c r="K46" t="b">
-        <v>1</v>
-      </c>
-      <c r="L46" t="s">
-        <v>389</v>
-      </c>
-      <c r="M46" t="s">
-        <v>176</v>
-      </c>
-      <c r="N46" t="s">
-        <v>177</v>
-      </c>
-      <c r="O46" t="s">
-        <v>391</v>
-      </c>
-      <c r="P46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A47" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="B47" t="s">
-        <v>303</v>
-      </c>
-      <c r="C47" t="s">
-        <v>304</v>
-      </c>
-      <c r="D47" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" t="s">
-        <v>21</v>
-      </c>
-      <c r="F47" t="s">
-        <v>22</v>
-      </c>
-      <c r="G47" t="s">
-        <v>218</v>
-      </c>
-      <c r="H47">
-        <f t="shared" si="0"/>
-        <v>1E-3</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>207</v>
-      </c>
-      <c r="K47" t="b">
-        <v>1</v>
-      </c>
-      <c r="L47" t="s">
-        <v>368</v>
-      </c>
-      <c r="M47" t="s">
-        <v>518</v>
-      </c>
-      <c r="N47" t="s">
-        <v>304</v>
-      </c>
-      <c r="O47" t="s">
-        <v>369</v>
-      </c>
-      <c r="P47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A48" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="B48" t="s">
-        <v>209</v>
-      </c>
-      <c r="C48" t="s">
-        <v>210</v>
-      </c>
-      <c r="D48" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" t="s">
-        <v>24</v>
-      </c>
-      <c r="F48" t="s">
-        <v>25</v>
-      </c>
-      <c r="G48" t="s">
-        <v>25</v>
-      </c>
-      <c r="H48">
-        <f t="shared" si="0"/>
-        <v>1E-3</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>273</v>
-      </c>
-      <c r="K48" t="b">
-        <v>1</v>
-      </c>
-      <c r="L48" t="s">
-        <v>412</v>
-      </c>
-      <c r="M48" t="s">
-        <v>508</v>
-      </c>
-      <c r="N48" t="s">
-        <v>210</v>
-      </c>
-      <c r="O48" t="s">
-        <v>413</v>
-      </c>
-      <c r="P48" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A49" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B49" t="s">
-        <v>128</v>
-      </c>
-      <c r="C49" t="s">
-        <v>129</v>
-      </c>
-      <c r="D49" t="s">
-        <v>10</v>
-      </c>
-      <c r="E49" t="s">
-        <v>18</v>
-      </c>
-      <c r="F49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G49" t="s">
-        <v>19</v>
-      </c>
-      <c r="H49">
-        <f t="shared" si="0"/>
-        <v>1E-3</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>2906817</v>
-      </c>
-      <c r="K49" t="b">
-        <v>1</v>
-      </c>
-      <c r="L49" t="s">
-        <v>364</v>
-      </c>
-      <c r="M49" t="s">
-        <v>495</v>
-      </c>
-      <c r="N49" t="s">
-        <v>129</v>
-      </c>
-      <c r="O49" t="s">
-        <v>366</v>
-      </c>
-      <c r="P49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="B50" t="s">
-        <v>200</v>
-      </c>
-      <c r="C50" t="s">
-        <v>201</v>
-      </c>
-      <c r="D50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" t="s">
-        <v>59</v>
-      </c>
-      <c r="F50" t="s">
-        <v>60</v>
-      </c>
-      <c r="G50" t="s">
-        <v>60</v>
-      </c>
-      <c r="H50">
-        <f t="shared" si="0"/>
-        <v>1E-3</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>345</v>
-      </c>
-      <c r="K50" t="b">
-        <v>1</v>
-      </c>
-      <c r="L50" t="s">
-        <v>439</v>
-      </c>
-      <c r="M50" t="s">
-        <v>505</v>
-      </c>
-      <c r="N50" t="s">
-        <v>201</v>
-      </c>
-      <c r="O50" t="s">
-        <v>441</v>
-      </c>
-      <c r="P50" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A51" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="B51" t="s">
-        <v>224</v>
-      </c>
-      <c r="C51" t="s">
-        <v>225</v>
-      </c>
-      <c r="D51" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" t="s">
-        <v>53</v>
-      </c>
-      <c r="F51" t="s">
-        <v>54</v>
-      </c>
-      <c r="G51" t="s">
-        <v>54</v>
-      </c>
-      <c r="H51">
-        <f t="shared" si="0"/>
-        <v>1E-3</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>79</v>
-      </c>
-      <c r="K51" t="b">
-        <v>1</v>
-      </c>
-      <c r="L51" t="s">
-        <v>414</v>
-      </c>
-      <c r="M51" t="s">
-        <v>509</v>
-      </c>
-      <c r="N51" t="s">
-        <v>225</v>
-      </c>
-      <c r="O51" t="s">
-        <v>416</v>
-      </c>
-      <c r="P51" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A52" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B52" t="s">
-        <v>119</v>
-      </c>
-      <c r="C52" t="s">
-        <v>120</v>
-      </c>
-      <c r="D52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E52" t="s">
-        <v>83</v>
-      </c>
-      <c r="F52" t="s">
-        <v>84</v>
-      </c>
-      <c r="G52" t="s">
-        <v>84</v>
-      </c>
-      <c r="H52">
-        <f t="shared" si="0"/>
-        <v>1E-3</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>6178</v>
-      </c>
-      <c r="K52" t="b">
-        <v>1</v>
-      </c>
-      <c r="L52" t="s">
-        <v>392</v>
-      </c>
-      <c r="M52" t="s">
-        <v>119</v>
-      </c>
-      <c r="N52" t="s">
-        <v>120</v>
-      </c>
-      <c r="O52" t="s">
-        <v>393</v>
-      </c>
-      <c r="P52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H53" s="3">
-        <f>1/365.25</f>
-        <v>2.7378507871321013E-3</v>
-      </c>
-      <c r="I53" s="3">
-        <v>0</v>
-      </c>
-      <c r="J53" s="3">
-        <v>12</v>
-      </c>
-      <c r="K53" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L53" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="M53" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="N53" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="O53" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="P53" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A54" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="B54" t="s">
-        <v>278</v>
-      </c>
-      <c r="C54" t="s">
-        <v>279</v>
-      </c>
-      <c r="D54" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" t="s">
-        <v>11</v>
-      </c>
-      <c r="F54" t="s">
-        <v>116</v>
-      </c>
-      <c r="G54" t="s">
-        <v>116</v>
-      </c>
-      <c r="H54">
+      <c r="H114">
         <f>0.00378541</f>
         <v>3.7854099999999999E-3</v>
       </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
         <v>2830</v>
       </c>
-      <c r="K54" t="b">
+      <c r="K114" t="b">
         <v>1</v>
       </c>
-      <c r="L54" t="s">
+      <c r="L114" t="s">
         <v>389</v>
       </c>
-      <c r="M54" t="s">
+      <c r="M114" t="s">
         <v>278</v>
       </c>
-      <c r="N54" t="s">
+      <c r="N114" t="s">
         <v>279</v>
       </c>
-      <c r="O54" t="s">
+      <c r="O114" t="s">
         <v>391</v>
       </c>
-      <c r="P54" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A55" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B55" t="s">
-        <v>170</v>
-      </c>
-      <c r="C55" t="s">
-        <v>171</v>
-      </c>
-      <c r="D55" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55" t="s">
+      <c r="P114" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A115" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B115" t="s">
+        <v>182</v>
+      </c>
+      <c r="C115" t="s">
+        <v>183</v>
+      </c>
+      <c r="D115" t="s">
+        <v>10</v>
+      </c>
+      <c r="E115" t="s">
+        <v>89</v>
+      </c>
+      <c r="F115" t="s">
+        <v>90</v>
+      </c>
+      <c r="G115" t="s">
         <v>116</v>
       </c>
-      <c r="G55" t="s">
-        <v>116</v>
-      </c>
-      <c r="H55">
-        <f>0.00454609</f>
-        <v>4.54609E-3</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>5779</v>
-      </c>
-      <c r="K55" t="b">
-        <v>1</v>
-      </c>
-      <c r="L55" t="s">
-        <v>389</v>
-      </c>
-      <c r="M55" t="s">
-        <v>170</v>
-      </c>
-      <c r="N55" t="s">
-        <v>171</v>
-      </c>
-      <c r="O55" t="s">
-        <v>391</v>
-      </c>
-      <c r="P55" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A56" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B56" t="s">
-        <v>131</v>
-      </c>
-      <c r="C56" t="s">
-        <v>132</v>
-      </c>
-      <c r="D56" t="s">
-        <v>10</v>
-      </c>
-      <c r="E56" t="s">
-        <v>53</v>
-      </c>
-      <c r="F56" t="s">
-        <v>54</v>
-      </c>
-      <c r="G56" t="s">
-        <v>54</v>
-      </c>
-      <c r="H56">
-        <f>0.01</f>
-        <v>0.01</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>6348</v>
-      </c>
-      <c r="K56" t="b">
-        <v>1</v>
-      </c>
-      <c r="L56" t="s">
-        <v>414</v>
-      </c>
-      <c r="M56" t="s">
-        <v>496</v>
-      </c>
-      <c r="N56" t="s">
-        <v>132</v>
-      </c>
-      <c r="O56" t="s">
-        <v>416</v>
-      </c>
-      <c r="P56" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H57" s="3">
-        <f>1/30</f>
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3">
-        <v>6</v>
-      </c>
-      <c r="K57" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="P57" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A58" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="B58" t="s">
-        <v>206</v>
-      </c>
-      <c r="C58" t="s">
-        <v>207</v>
-      </c>
-      <c r="D58" t="s">
-        <v>10</v>
-      </c>
-      <c r="E58" t="s">
-        <v>59</v>
-      </c>
-      <c r="F58" t="s">
-        <v>60</v>
-      </c>
-      <c r="G58" t="s">
-        <v>60</v>
-      </c>
-      <c r="H58">
-        <f>1/30</f>
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58">
-        <v>155</v>
-      </c>
-      <c r="K58" t="b">
-        <v>1</v>
-      </c>
-      <c r="L58" t="s">
-        <v>439</v>
-      </c>
-      <c r="M58" t="s">
-        <v>507</v>
-      </c>
-      <c r="N58" t="s">
-        <v>207</v>
-      </c>
-      <c r="O58" t="s">
-        <v>441</v>
-      </c>
-      <c r="P58" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A59" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B59" t="s">
-        <v>87</v>
-      </c>
-      <c r="C59" t="s">
-        <v>88</v>
-      </c>
-      <c r="D59" t="s">
-        <v>10</v>
-      </c>
-      <c r="E59" t="s">
-        <v>59</v>
-      </c>
-      <c r="F59" t="s">
-        <v>60</v>
-      </c>
-      <c r="G59" t="s">
-        <v>60</v>
-      </c>
-      <c r="H59">
-        <v>0.1</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="J59">
-        <v>203</v>
-      </c>
-      <c r="K59" t="b">
-        <v>1</v>
-      </c>
-      <c r="L59" t="s">
-        <v>439</v>
-      </c>
-      <c r="M59" t="s">
-        <v>493</v>
-      </c>
-      <c r="N59" t="s">
-        <v>88</v>
-      </c>
-      <c r="O59" t="s">
-        <v>441</v>
-      </c>
-      <c r="P59" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="H60" s="3">
-        <v>0.13332238741499999</v>
-      </c>
-      <c r="I60" s="3">
-        <v>0</v>
-      </c>
-      <c r="J60" s="3">
-        <v>84</v>
-      </c>
-      <c r="K60" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="N60" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="O60" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="P60" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A61" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="B61" t="s">
-        <v>239</v>
-      </c>
-      <c r="C61" t="s">
-        <v>240</v>
-      </c>
-      <c r="D61" t="s">
-        <v>10</v>
-      </c>
-      <c r="E61" t="s">
-        <v>11</v>
-      </c>
-      <c r="F61" t="s">
-        <v>116</v>
-      </c>
-      <c r="G61" t="s">
-        <v>116</v>
-      </c>
-      <c r="H61">
-        <f>1/7</f>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="J61">
-        <v>194</v>
-      </c>
-      <c r="K61" t="b">
-        <v>1</v>
-      </c>
-      <c r="L61" t="s">
-        <v>389</v>
-      </c>
-      <c r="M61" t="s">
-        <v>512</v>
-      </c>
-      <c r="N61" t="s">
-        <v>240</v>
-      </c>
-      <c r="O61" t="s">
-        <v>391</v>
-      </c>
-      <c r="P61" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A62" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="B62" t="s">
-        <v>167</v>
-      </c>
-      <c r="C62" t="s">
-        <v>168</v>
-      </c>
-      <c r="D62" t="s">
-        <v>10</v>
-      </c>
-      <c r="E62" t="s">
-        <v>83</v>
-      </c>
-      <c r="F62" t="s">
-        <v>84</v>
-      </c>
-      <c r="G62" t="s">
-        <v>84</v>
-      </c>
-      <c r="H62">
-        <f>1/3.2808</f>
-        <v>0.30480370641306997</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="J62">
-        <v>29</v>
-      </c>
-      <c r="K62" t="b">
-        <v>1</v>
-      </c>
-      <c r="L62" t="s">
-        <v>392</v>
-      </c>
-      <c r="M62" t="s">
-        <v>167</v>
-      </c>
-      <c r="N62" t="s">
-        <v>168</v>
-      </c>
-      <c r="O62" t="s">
-        <v>393</v>
-      </c>
-      <c r="P62" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A63" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="B63" t="s">
-        <v>227</v>
-      </c>
-      <c r="C63" t="s">
-        <v>228</v>
-      </c>
-      <c r="D63" t="s">
-        <v>10</v>
-      </c>
-      <c r="E63" t="s">
-        <v>101</v>
-      </c>
-      <c r="F63" t="s">
-        <v>102</v>
-      </c>
-      <c r="G63" t="s">
-        <v>102</v>
-      </c>
-      <c r="H63">
-        <v>0.90718500000000002</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63">
-        <v>1</v>
-      </c>
-      <c r="K63" t="b">
-        <v>1</v>
-      </c>
-      <c r="L63" t="s">
-        <v>376</v>
-      </c>
-      <c r="M63" t="s">
-        <v>227</v>
-      </c>
-      <c r="N63" t="s">
-        <v>228</v>
-      </c>
-      <c r="O63" t="s">
-        <v>377</v>
-      </c>
-      <c r="P63" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A64" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B64" t="s">
-        <v>116</v>
-      </c>
-      <c r="C64" t="s">
-        <v>117</v>
-      </c>
-      <c r="D64" t="s">
-        <v>10</v>
-      </c>
-      <c r="E64" t="s">
-        <v>14</v>
-      </c>
-      <c r="F64" t="b">
-        <v>0</v>
-      </c>
-      <c r="G64" t="s">
-        <v>116</v>
-      </c>
-      <c r="H64">
-        <v>1</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64">
-        <v>537521</v>
-      </c>
-      <c r="K64" t="b">
-        <v>1</v>
-      </c>
-      <c r="L64" t="s">
-        <v>389</v>
-      </c>
-      <c r="M64" t="s">
-        <v>390</v>
-      </c>
-      <c r="N64" t="s">
-        <v>117</v>
-      </c>
-      <c r="O64" t="s">
-        <v>391</v>
-      </c>
-      <c r="P64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A65" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B65" t="s">
-        <v>108</v>
-      </c>
-      <c r="C65" t="s">
-        <v>109</v>
-      </c>
-      <c r="D65" t="s">
-        <v>10</v>
-      </c>
-      <c r="E65" t="s">
-        <v>14</v>
-      </c>
-      <c r="F65" t="b">
-        <v>0</v>
-      </c>
-      <c r="G65" t="s">
-        <v>108</v>
-      </c>
-      <c r="H65">
-        <v>1</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-      <c r="J65">
-        <v>496828</v>
-      </c>
-      <c r="K65" t="b">
-        <v>1</v>
-      </c>
-      <c r="L65" t="s">
-        <v>381</v>
-      </c>
-      <c r="M65" t="s">
-        <v>382</v>
-      </c>
-      <c r="N65" t="s">
-        <v>109</v>
-      </c>
-      <c r="O65" t="s">
-        <v>383</v>
-      </c>
-      <c r="P65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A66" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B66" t="s">
-        <v>54</v>
-      </c>
-      <c r="C66" t="s">
-        <v>55</v>
-      </c>
-      <c r="D66" t="s">
-        <v>10</v>
-      </c>
-      <c r="E66" t="s">
-        <v>14</v>
-      </c>
-      <c r="F66" t="b">
-        <v>0</v>
-      </c>
-      <c r="G66" t="s">
-        <v>54</v>
-      </c>
-      <c r="H66">
-        <v>1</v>
-      </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-      <c r="J66">
-        <v>2751</v>
-      </c>
-      <c r="K66" t="b">
-        <v>1</v>
-      </c>
-      <c r="L66" t="s">
-        <v>414</v>
-      </c>
-      <c r="M66" t="s">
-        <v>415</v>
-      </c>
-      <c r="N66" t="s">
-        <v>55</v>
-      </c>
-      <c r="O66" t="s">
-        <v>416</v>
-      </c>
-      <c r="P66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A67" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="B67" t="s">
-        <v>260</v>
-      </c>
-      <c r="C67" t="s">
-        <v>261</v>
-      </c>
-      <c r="D67" t="s">
-        <v>10</v>
-      </c>
-      <c r="E67" t="s">
-        <v>14</v>
-      </c>
-      <c r="F67" t="b">
-        <v>0</v>
-      </c>
-      <c r="G67" t="s">
-        <v>425</v>
-      </c>
-      <c r="H67">
-        <v>1</v>
-      </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
-      <c r="J67">
-        <v>73</v>
-      </c>
-      <c r="K67" t="b">
-        <v>1</v>
-      </c>
-      <c r="L67" t="s">
-        <v>424</v>
-      </c>
-      <c r="M67" t="s">
-        <v>425</v>
-      </c>
-      <c r="N67" t="s">
-        <v>261</v>
-      </c>
-      <c r="O67" t="s">
-        <v>426</v>
-      </c>
-      <c r="P67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A68" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B68" t="s">
-        <v>96</v>
-      </c>
-      <c r="C68" t="s">
-        <v>97</v>
-      </c>
-      <c r="D68" t="s">
-        <v>10</v>
-      </c>
-      <c r="E68" t="s">
-        <v>14</v>
-      </c>
-      <c r="F68" t="b">
-        <v>0</v>
-      </c>
-      <c r="G68" t="s">
-        <v>96</v>
-      </c>
-      <c r="H68">
-        <v>1</v>
-      </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
-      <c r="J68">
-        <v>3358</v>
-      </c>
-      <c r="K68" t="b">
-        <v>1</v>
-      </c>
-      <c r="L68" t="s">
-        <v>387</v>
-      </c>
-      <c r="M68" t="s">
-        <v>96</v>
-      </c>
-      <c r="N68" t="s">
-        <v>97</v>
-      </c>
-      <c r="O68" t="s">
-        <v>388</v>
-      </c>
-      <c r="P68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A69" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B69" t="s">
-        <v>72</v>
-      </c>
-      <c r="C69" t="s">
-        <v>73</v>
-      </c>
-      <c r="D69" t="s">
-        <v>10</v>
-      </c>
-      <c r="E69" t="s">
-        <v>14</v>
-      </c>
-      <c r="F69" t="b">
-        <v>0</v>
-      </c>
-      <c r="G69" t="s">
-        <v>72</v>
-      </c>
-      <c r="H69">
-        <v>1</v>
-      </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-      <c r="J69">
-        <v>3831</v>
-      </c>
-      <c r="K69" t="b">
-        <v>1</v>
-      </c>
-      <c r="L69" t="s">
-        <v>398</v>
-      </c>
-      <c r="M69" t="s">
-        <v>72</v>
-      </c>
-      <c r="N69" t="s">
-        <v>73</v>
-      </c>
-      <c r="O69" t="s">
-        <v>400</v>
-      </c>
-      <c r="P69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A70" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B70" t="s">
-        <v>84</v>
-      </c>
-      <c r="C70" t="s">
-        <v>85</v>
-      </c>
-      <c r="D70" t="s">
-        <v>10</v>
-      </c>
-      <c r="E70" t="s">
-        <v>14</v>
-      </c>
-      <c r="F70" t="b">
-        <v>0</v>
-      </c>
-      <c r="G70" t="s">
-        <v>84</v>
-      </c>
-      <c r="H70">
-        <v>1</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-      <c r="J70">
-        <v>39003</v>
-      </c>
-      <c r="K70" t="b">
-        <v>1</v>
-      </c>
-      <c r="L70" t="s">
-        <v>392</v>
-      </c>
-      <c r="M70" t="s">
-        <v>84</v>
-      </c>
-      <c r="N70" t="s">
-        <v>85</v>
-      </c>
-      <c r="O70" t="s">
-        <v>393</v>
-      </c>
-      <c r="P70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A71" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B71" t="s">
-        <v>105</v>
-      </c>
-      <c r="C71" t="s">
-        <v>106</v>
-      </c>
-      <c r="D71" t="s">
-        <v>10</v>
-      </c>
-      <c r="E71" t="s">
-        <v>14</v>
-      </c>
-      <c r="F71" t="b">
-        <v>0</v>
-      </c>
-      <c r="G71" t="s">
-        <v>105</v>
-      </c>
-      <c r="H71">
-        <v>1</v>
-      </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
-      <c r="J71">
-        <v>47</v>
-      </c>
-      <c r="K71" t="b">
-        <v>1</v>
-      </c>
-      <c r="L71" t="s">
-        <v>404</v>
-      </c>
-      <c r="M71" t="s">
-        <v>105</v>
-      </c>
-      <c r="N71" t="s">
-        <v>106</v>
-      </c>
-      <c r="O71" t="s">
-        <v>405</v>
-      </c>
-      <c r="P71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A72" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B72" t="s">
-        <v>69</v>
-      </c>
-      <c r="C72" t="s">
-        <v>70</v>
-      </c>
-      <c r="D72" t="s">
-        <v>10</v>
-      </c>
-      <c r="E72" t="s">
-        <v>14</v>
-      </c>
-      <c r="F72" t="b">
-        <v>0</v>
-      </c>
-      <c r="G72" t="s">
-        <v>530</v>
-      </c>
-      <c r="H72">
-        <v>1</v>
-      </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
-      <c r="J72">
-        <v>18696</v>
-      </c>
-      <c r="K72" t="b">
-        <v>1</v>
-      </c>
-      <c r="L72" t="s">
-        <v>433</v>
-      </c>
-      <c r="M72" t="s">
-        <v>491</v>
-      </c>
-      <c r="N72" t="s">
-        <v>70</v>
-      </c>
-      <c r="O72" t="s">
-        <v>435</v>
-      </c>
-      <c r="P72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A73" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B73" t="s">
-        <v>134</v>
-      </c>
-      <c r="C73" t="s">
-        <v>135</v>
-      </c>
-      <c r="D73" t="s">
-        <v>10</v>
-      </c>
-      <c r="E73" t="s">
-        <v>14</v>
-      </c>
-      <c r="F73" t="b">
-        <v>0</v>
-      </c>
-      <c r="G73" t="s">
-        <v>218</v>
-      </c>
-      <c r="H73">
-        <v>1</v>
-      </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
-      <c r="J73">
-        <v>4818</v>
-      </c>
-      <c r="K73" t="b">
-        <v>1</v>
-      </c>
-      <c r="L73" t="s">
-        <v>368</v>
-      </c>
-      <c r="M73" t="s">
-        <v>406</v>
-      </c>
-      <c r="N73" t="s">
-        <v>23</v>
-      </c>
-      <c r="O73" t="s">
-        <v>369</v>
-      </c>
-      <c r="P73" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A74" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B74" t="s">
-        <v>57</v>
-      </c>
-      <c r="C74" t="s">
-        <v>58</v>
-      </c>
-      <c r="D74" t="s">
-        <v>10</v>
-      </c>
-      <c r="E74" t="s">
-        <v>14</v>
-      </c>
-      <c r="F74" t="b">
-        <v>0</v>
-      </c>
-      <c r="G74" t="s">
-        <v>57</v>
-      </c>
-      <c r="H74">
-        <v>1</v>
-      </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
-      <c r="J74">
-        <v>226825</v>
-      </c>
-      <c r="K74" t="b">
-        <v>1</v>
-      </c>
-      <c r="L74" t="s">
-        <v>407</v>
-      </c>
-      <c r="M74" t="s">
-        <v>408</v>
-      </c>
-      <c r="N74" t="s">
-        <v>58</v>
-      </c>
-      <c r="O74" t="s">
-        <v>409</v>
-      </c>
-      <c r="P74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A75" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="B75" t="s">
-        <v>269</v>
-      </c>
-      <c r="C75" t="s">
-        <v>270</v>
-      </c>
-      <c r="D75" t="s">
-        <v>10</v>
-      </c>
-      <c r="E75" t="s">
-        <v>18</v>
-      </c>
-      <c r="F75" t="s">
-        <v>19</v>
-      </c>
-      <c r="G75" t="s">
-        <v>19</v>
-      </c>
-      <c r="H75">
-        <v>1</v>
-      </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
-      <c r="J75">
-        <v>2066</v>
-      </c>
-      <c r="K75" t="b">
-        <v>1</v>
-      </c>
-      <c r="L75" t="s">
-        <v>364</v>
-      </c>
-      <c r="M75" t="s">
-        <v>514</v>
-      </c>
-      <c r="N75" t="s">
-        <v>270</v>
-      </c>
-      <c r="O75" t="s">
-        <v>366</v>
-      </c>
-      <c r="P75" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A76" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="B76" t="s">
-        <v>164</v>
-      </c>
-      <c r="C76" t="s">
-        <v>165</v>
-      </c>
-      <c r="D76" t="s">
-        <v>10</v>
-      </c>
-      <c r="E76" t="s">
-        <v>27</v>
-      </c>
-      <c r="F76" t="s">
-        <v>28</v>
-      </c>
-      <c r="G76" t="s">
-        <v>164</v>
-      </c>
-      <c r="H76">
-        <v>1</v>
-      </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
-      <c r="J76">
-        <v>977</v>
-      </c>
-      <c r="K76" t="b">
-        <v>1</v>
-      </c>
-      <c r="L76" t="s">
-        <v>378</v>
-      </c>
-      <c r="M76" t="s">
-        <v>499</v>
-      </c>
-      <c r="N76" t="s">
-        <v>165</v>
-      </c>
-      <c r="O76" t="s">
-        <v>380</v>
-      </c>
-      <c r="P76" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A77" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="B77" t="s">
-        <v>306</v>
-      </c>
-      <c r="C77" t="s">
-        <v>307</v>
-      </c>
-      <c r="D77" t="s">
-        <v>10</v>
-      </c>
-      <c r="E77" t="s">
-        <v>14</v>
-      </c>
-      <c r="F77" t="b">
-        <v>0</v>
-      </c>
-      <c r="G77" t="s">
-        <v>306</v>
-      </c>
-      <c r="H77">
-        <v>1</v>
-      </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
-      <c r="J77">
-        <v>133</v>
-      </c>
-      <c r="K77" t="b">
-        <v>1</v>
-      </c>
-      <c r="L77" t="s">
-        <v>430</v>
-      </c>
-      <c r="M77" t="s">
-        <v>431</v>
-      </c>
-      <c r="N77" t="s">
-        <v>307</v>
-      </c>
-      <c r="O77" t="s">
-        <v>432</v>
-      </c>
-      <c r="P77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A78" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B78" t="s">
-        <v>28</v>
-      </c>
-      <c r="C78" t="s">
-        <v>29</v>
-      </c>
-      <c r="D78" t="s">
-        <v>10</v>
-      </c>
-      <c r="E78" t="s">
-        <v>14</v>
-      </c>
-      <c r="F78" t="b">
-        <v>0</v>
-      </c>
-      <c r="G78" t="s">
-        <v>28</v>
-      </c>
-      <c r="H78">
-        <v>1</v>
-      </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
-      <c r="J78">
-        <v>500748</v>
-      </c>
-      <c r="K78" t="b">
-        <v>1</v>
-      </c>
-      <c r="L78" t="s">
-        <v>378</v>
-      </c>
-      <c r="M78" t="s">
-        <v>487</v>
-      </c>
-      <c r="N78" t="s">
-        <v>29</v>
-      </c>
-      <c r="O78" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A79" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B79" t="s">
-        <v>25</v>
-      </c>
-      <c r="C79" t="s">
-        <v>26</v>
-      </c>
-      <c r="D79" t="s">
-        <v>10</v>
-      </c>
-      <c r="E79" t="s">
-        <v>14</v>
-      </c>
-      <c r="F79" t="b">
-        <v>0</v>
-      </c>
-      <c r="G79" t="s">
-        <v>25</v>
-      </c>
-      <c r="H79">
-        <v>1</v>
-      </c>
-      <c r="I79">
-        <v>0</v>
-      </c>
-      <c r="J79">
-        <v>3293</v>
-      </c>
-      <c r="K79" t="b">
-        <v>1</v>
-      </c>
-      <c r="L79" t="s">
-        <v>412</v>
-      </c>
-      <c r="M79" t="s">
-        <v>25</v>
-      </c>
-      <c r="N79" t="s">
-        <v>26</v>
-      </c>
-      <c r="O79" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A80" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B80" t="s">
-        <v>60</v>
-      </c>
-      <c r="C80" t="s">
-        <v>61</v>
-      </c>
-      <c r="D80" t="s">
-        <v>10</v>
-      </c>
-      <c r="E80" t="s">
-        <v>14</v>
-      </c>
-      <c r="F80" t="b">
-        <v>0</v>
-      </c>
-      <c r="G80" t="s">
-        <v>60</v>
-      </c>
-      <c r="H80">
-        <v>1</v>
-      </c>
-      <c r="I80">
-        <v>0</v>
-      </c>
-      <c r="J80">
-        <v>123349</v>
-      </c>
-      <c r="K80" t="b">
-        <v>1</v>
-      </c>
-      <c r="L80" t="s">
-        <v>439</v>
-      </c>
-      <c r="M80" t="s">
-        <v>440</v>
-      </c>
-      <c r="N80" t="s">
-        <v>61</v>
-      </c>
-      <c r="O80" t="s">
-        <v>441</v>
-      </c>
-      <c r="P80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A81" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B81" t="s">
-        <v>22</v>
-      </c>
-      <c r="C81" t="s">
-        <v>23</v>
-      </c>
-      <c r="D81" t="s">
-        <v>10</v>
-      </c>
-      <c r="E81" t="s">
-        <v>14</v>
-      </c>
-      <c r="F81" t="b">
-        <v>0</v>
-      </c>
-      <c r="G81" t="s">
-        <v>218</v>
-      </c>
-      <c r="H81">
-        <v>1</v>
-      </c>
-      <c r="I81">
-        <v>0</v>
-      </c>
-      <c r="J81">
-        <v>287100</v>
-      </c>
-      <c r="K81" t="b">
-        <v>1</v>
-      </c>
-      <c r="L81" t="s">
-        <v>368</v>
-      </c>
-      <c r="M81" t="s">
-        <v>218</v>
-      </c>
-      <c r="N81" t="s">
-        <v>219</v>
-      </c>
-      <c r="O81" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A82" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="B82" t="s">
-        <v>218</v>
-      </c>
-      <c r="C82" t="s">
-        <v>219</v>
-      </c>
-      <c r="D82" t="s">
-        <v>10</v>
-      </c>
-      <c r="E82" t="s">
-        <v>21</v>
-      </c>
-      <c r="F82" t="s">
-        <v>22</v>
-      </c>
-      <c r="G82" t="s">
-        <v>218</v>
-      </c>
-      <c r="H82">
-        <v>1</v>
-      </c>
-      <c r="I82">
-        <v>0</v>
-      </c>
-      <c r="J82">
-        <v>53121</v>
-      </c>
-      <c r="K82" t="b">
-        <v>1</v>
-      </c>
-      <c r="L82" t="s">
-        <v>368</v>
-      </c>
-      <c r="M82" t="s">
-        <v>218</v>
-      </c>
-      <c r="N82" t="s">
-        <v>219</v>
-      </c>
-      <c r="O82" t="s">
-        <v>369</v>
-      </c>
-      <c r="P82" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A83" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="B83" t="s">
-        <v>221</v>
-      </c>
-      <c r="C83" t="s">
-        <v>222</v>
-      </c>
-      <c r="D83" t="s">
-        <v>10</v>
-      </c>
-      <c r="E83" t="s">
-        <v>133</v>
-      </c>
-      <c r="F83" t="s">
-        <v>134</v>
-      </c>
-      <c r="G83" t="s">
-        <v>218</v>
-      </c>
-      <c r="H83">
-        <v>1</v>
-      </c>
-      <c r="I83">
-        <v>0</v>
-      </c>
-      <c r="J83">
-        <v>8488</v>
-      </c>
-      <c r="K83" t="b">
-        <v>1</v>
-      </c>
-      <c r="L83" t="s">
-        <v>368</v>
-      </c>
-      <c r="M83" t="s">
-        <v>218</v>
-      </c>
-      <c r="N83" t="s">
-        <v>219</v>
-      </c>
-      <c r="O83" t="s">
-        <v>369</v>
-      </c>
-      <c r="P83" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A84" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B84" t="s">
-        <v>19</v>
-      </c>
-      <c r="C84" t="s">
-        <v>20</v>
-      </c>
-      <c r="D84" t="s">
-        <v>10</v>
-      </c>
-      <c r="E84" t="s">
-        <v>14</v>
-      </c>
-      <c r="F84" t="b">
-        <v>0</v>
-      </c>
-      <c r="G84" t="s">
-        <v>19</v>
-      </c>
-      <c r="H84">
-        <v>1</v>
-      </c>
-      <c r="I84">
-        <v>0</v>
-      </c>
-      <c r="J84">
-        <v>14231484</v>
-      </c>
-      <c r="K84" t="b">
-        <v>1</v>
-      </c>
-      <c r="L84" t="s">
-        <v>364</v>
-      </c>
-      <c r="M84" t="s">
-        <v>19</v>
-      </c>
-      <c r="N84" t="s">
-        <v>20</v>
-      </c>
-      <c r="O84" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A85" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B85" t="s">
-        <v>45</v>
-      </c>
-      <c r="C85" t="s">
-        <v>46</v>
-      </c>
-      <c r="D85" t="s">
-        <v>10</v>
-      </c>
-      <c r="E85" t="s">
-        <v>14</v>
-      </c>
-      <c r="F85" t="b">
-        <v>0</v>
-      </c>
-      <c r="G85" t="s">
-        <v>492</v>
-      </c>
-      <c r="H85">
-        <v>1</v>
-      </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
-      <c r="J85">
-        <v>58</v>
-      </c>
-      <c r="K85" t="b">
-        <v>1</v>
-      </c>
-      <c r="L85" t="s">
-        <v>394</v>
-      </c>
-      <c r="M85" t="s">
-        <v>492</v>
-      </c>
-      <c r="N85" t="s">
-        <v>46</v>
-      </c>
-      <c r="O85" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A86" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="B86" t="s">
-        <v>309</v>
-      </c>
-      <c r="C86" t="s">
-        <v>310</v>
-      </c>
-      <c r="D86" t="s">
-        <v>10</v>
-      </c>
-      <c r="E86" t="s">
-        <v>14</v>
-      </c>
-      <c r="F86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86">
-        <v>1</v>
-      </c>
-      <c r="I86">
-        <v>0</v>
-      </c>
-      <c r="J86">
-        <v>1461</v>
-      </c>
-      <c r="K86" t="b">
-        <v>1</v>
-      </c>
-      <c r="L86" t="s">
-        <v>318</v>
-      </c>
-      <c r="M86" t="s">
-        <v>519</v>
-      </c>
-      <c r="N86" t="s">
-        <v>310</v>
-      </c>
-      <c r="O86" t="s">
-        <v>516</v>
-      </c>
-      <c r="P86" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A87" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B87" t="s">
-        <v>102</v>
-      </c>
-      <c r="C87" t="s">
-        <v>103</v>
-      </c>
-      <c r="D87" t="s">
-        <v>10</v>
-      </c>
-      <c r="E87" t="s">
-        <v>14</v>
-      </c>
-      <c r="F87" t="b">
-        <v>0</v>
-      </c>
-      <c r="G87" t="s">
-        <v>102</v>
-      </c>
-      <c r="H87">
-        <v>1</v>
-      </c>
-      <c r="I87">
-        <v>0</v>
-      </c>
-      <c r="J87">
-        <v>52014</v>
-      </c>
-      <c r="K87" t="b">
-        <v>1</v>
-      </c>
-      <c r="L87" t="s">
-        <v>376</v>
-      </c>
-      <c r="M87" t="s">
-        <v>102</v>
-      </c>
-      <c r="N87" t="s">
-        <v>103</v>
-      </c>
-      <c r="O87" t="s">
-        <v>377</v>
-      </c>
-      <c r="P87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A88" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="B88" t="s">
-        <v>251</v>
-      </c>
-      <c r="C88" t="s">
-        <v>252</v>
-      </c>
-      <c r="D88" t="s">
-        <v>10</v>
-      </c>
-      <c r="E88" t="s">
-        <v>89</v>
-      </c>
-      <c r="F88" t="s">
-        <v>90</v>
-      </c>
-      <c r="G88" t="s">
-        <v>116</v>
-      </c>
-      <c r="H88">
-        <f>(24*60)/1000</f>
-        <v>1.44</v>
-      </c>
-      <c r="I88">
-        <v>0</v>
-      </c>
-      <c r="J88">
-        <v>5832</v>
-      </c>
-      <c r="K88" t="b">
-        <v>1</v>
-      </c>
-      <c r="L88" t="s">
-        <v>389</v>
-      </c>
-      <c r="M88" t="s">
-        <v>251</v>
-      </c>
-      <c r="N88" t="s">
-        <v>252</v>
-      </c>
-      <c r="O88" t="s">
-        <v>391</v>
-      </c>
-      <c r="P88" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A89" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="B89" t="s">
-        <v>233</v>
-      </c>
-      <c r="C89" t="s">
-        <v>234</v>
-      </c>
-      <c r="D89" t="s">
-        <v>10</v>
-      </c>
-      <c r="E89" t="s">
-        <v>14</v>
-      </c>
-      <c r="F89" t="b">
-        <v>0</v>
-      </c>
-      <c r="G89" t="s">
-        <v>382</v>
-      </c>
-      <c r="H89">
-        <f>9/5</f>
-        <v>1.8</v>
-      </c>
-      <c r="I89">
-        <v>-32</v>
-      </c>
-      <c r="J89">
-        <v>33</v>
-      </c>
-      <c r="K89" t="b">
-        <v>1</v>
-      </c>
-      <c r="L89" t="s">
-        <v>381</v>
-      </c>
-      <c r="M89" t="s">
-        <v>510</v>
-      </c>
-      <c r="N89" t="s">
-        <v>234</v>
-      </c>
-      <c r="O89" t="s">
-        <v>383</v>
-      </c>
-      <c r="P89" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A90" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="B90" t="s">
-        <v>182</v>
-      </c>
-      <c r="C90" t="s">
-        <v>183</v>
-      </c>
-      <c r="D90" t="s">
-        <v>10</v>
-      </c>
-      <c r="E90" t="s">
-        <v>89</v>
-      </c>
-      <c r="F90" t="s">
-        <v>90</v>
-      </c>
-      <c r="G90" t="s">
-        <v>116</v>
-      </c>
-      <c r="H90">
+      <c r="H115">
         <f>0.00378541*(24*60)</f>
         <v>5.4509904000000002</v>
       </c>
-      <c r="I90">
-        <v>0</v>
-      </c>
-      <c r="J90">
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
         <v>68540</v>
       </c>
-      <c r="K90" t="b">
+      <c r="K115" t="b">
         <v>1</v>
       </c>
-      <c r="L90" t="s">
+      <c r="L115" t="s">
         <v>389</v>
       </c>
-      <c r="M90" t="s">
+      <c r="M115" t="s">
         <v>182</v>
       </c>
-      <c r="N90" t="s">
+      <c r="N115" t="s">
         <v>183</v>
       </c>
-      <c r="O90" t="s">
+      <c r="O115" t="s">
         <v>391</v>
       </c>
-      <c r="P90" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A91" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B91" t="s">
-        <v>188</v>
-      </c>
-      <c r="C91" t="s">
-        <v>189</v>
-      </c>
-      <c r="D91" t="s">
-        <v>10</v>
-      </c>
-      <c r="E91" t="s">
-        <v>89</v>
-      </c>
-      <c r="F91" t="s">
-        <v>90</v>
-      </c>
-      <c r="G91" t="s">
-        <v>116</v>
-      </c>
-      <c r="H91">
-        <v>24</v>
-      </c>
-      <c r="I91">
-        <v>0</v>
-      </c>
-      <c r="J91">
-        <v>11</v>
-      </c>
-      <c r="K91" t="b">
-        <v>1</v>
-      </c>
-      <c r="L91" t="s">
-        <v>389</v>
-      </c>
-      <c r="M91" t="s">
-        <v>502</v>
-      </c>
-      <c r="N91" t="s">
-        <v>189</v>
-      </c>
-      <c r="O91" t="s">
-        <v>391</v>
-      </c>
-      <c r="P91" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A92" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="B92" t="s">
-        <v>349</v>
-      </c>
-      <c r="C92" t="s">
-        <v>350</v>
-      </c>
-      <c r="D92" t="s">
-        <v>10</v>
-      </c>
-      <c r="E92" t="s">
-        <v>14</v>
-      </c>
-      <c r="F92" t="b">
-        <v>0</v>
-      </c>
-      <c r="G92" t="s">
-        <v>260</v>
-      </c>
-      <c r="H92">
-        <f>24</f>
-        <v>24</v>
-      </c>
-      <c r="I92">
-        <v>0</v>
-      </c>
-      <c r="J92">
-        <v>2</v>
-      </c>
-      <c r="K92" t="b">
-        <v>1</v>
-      </c>
-      <c r="L92" t="s">
-        <v>424</v>
-      </c>
-      <c r="M92" t="s">
-        <v>349</v>
-      </c>
-      <c r="N92" t="s">
-        <v>350</v>
-      </c>
-      <c r="O92" t="s">
-        <v>426</v>
-      </c>
-      <c r="P92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A93" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="B93" t="s">
-        <v>194</v>
-      </c>
-      <c r="C93" t="s">
-        <v>195</v>
-      </c>
-      <c r="D93" t="s">
-        <v>10</v>
-      </c>
-      <c r="E93" t="s">
-        <v>92</v>
-      </c>
-      <c r="F93" t="s">
-        <v>93</v>
-      </c>
-      <c r="G93" t="s">
-        <v>116</v>
-      </c>
-      <c r="H93">
-        <f>(24*60)/35.3147</f>
-        <v>40.776220667314178</v>
-      </c>
-      <c r="I93">
-        <v>0</v>
-      </c>
-      <c r="J93">
-        <v>2</v>
-      </c>
-      <c r="K93" t="b">
-        <v>1</v>
-      </c>
-      <c r="L93" t="s">
-        <v>389</v>
-      </c>
-      <c r="M93" t="s">
-        <v>503</v>
-      </c>
-      <c r="N93" t="s">
-        <v>504</v>
-      </c>
-      <c r="O93" t="s">
-        <v>391</v>
-      </c>
-      <c r="P93" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A94" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="B94" t="s">
-        <v>284</v>
-      </c>
-      <c r="C94" t="s">
-        <v>285</v>
-      </c>
-      <c r="D94" t="s">
-        <v>10</v>
-      </c>
-      <c r="E94" t="s">
-        <v>89</v>
-      </c>
-      <c r="F94" t="s">
-        <v>90</v>
-      </c>
-      <c r="G94" t="s">
-        <v>116</v>
-      </c>
-      <c r="H94">
-        <f>(24*60*60)/1000</f>
-        <v>86.4</v>
-      </c>
-      <c r="I94">
-        <v>0</v>
-      </c>
-      <c r="J94">
-        <v>2654</v>
-      </c>
-      <c r="K94" t="b">
-        <v>1</v>
-      </c>
-      <c r="L94" t="s">
-        <v>389</v>
-      </c>
-      <c r="M94" t="s">
-        <v>284</v>
-      </c>
-      <c r="N94" t="s">
-        <v>285</v>
-      </c>
-      <c r="O94" t="s">
-        <v>391</v>
-      </c>
-      <c r="P94" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A95" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B95" t="s">
-        <v>275</v>
-      </c>
-      <c r="C95" t="s">
-        <v>276</v>
-      </c>
-      <c r="D95" t="s">
-        <v>10</v>
-      </c>
-      <c r="E95" t="s">
-        <v>14</v>
-      </c>
-      <c r="F95" t="b">
-        <v>0</v>
-      </c>
-      <c r="G95" t="s">
-        <v>54</v>
-      </c>
-      <c r="H95">
-        <v>100</v>
-      </c>
-      <c r="I95">
-        <v>0</v>
-      </c>
-      <c r="J95">
-        <v>30</v>
-      </c>
-      <c r="K95" t="b">
-        <v>1</v>
-      </c>
-      <c r="L95" t="s">
-        <v>414</v>
-      </c>
-      <c r="M95" t="s">
-        <v>275</v>
-      </c>
-      <c r="N95" t="s">
-        <v>276</v>
-      </c>
-      <c r="O95" t="s">
-        <v>467</v>
-      </c>
-      <c r="P95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A96" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="B96" t="s">
-        <v>158</v>
-      </c>
-      <c r="C96" t="s">
-        <v>159</v>
-      </c>
-      <c r="D96" t="s">
-        <v>10</v>
-      </c>
-      <c r="E96" t="s">
-        <v>14</v>
-      </c>
-      <c r="F96" t="b">
-        <v>0</v>
-      </c>
-      <c r="G96" t="s">
-        <v>72</v>
-      </c>
-      <c r="H96">
-        <v>1000</v>
-      </c>
-      <c r="I96">
-        <v>0</v>
-      </c>
-      <c r="J96">
-        <v>2030</v>
-      </c>
-      <c r="K96" t="b">
-        <v>1</v>
-      </c>
-      <c r="L96" t="s">
-        <v>398</v>
-      </c>
-      <c r="M96" t="s">
-        <v>466</v>
-      </c>
-      <c r="N96" t="s">
-        <v>159</v>
-      </c>
-      <c r="O96" t="s">
-        <v>400</v>
-      </c>
-      <c r="P96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A97" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B97" t="s">
-        <v>140</v>
-      </c>
-      <c r="C97" t="s">
-        <v>141</v>
-      </c>
-      <c r="D97" t="s">
-        <v>10</v>
-      </c>
-      <c r="E97" t="s">
-        <v>18</v>
-      </c>
-      <c r="F97" t="s">
-        <v>19</v>
-      </c>
-      <c r="G97" t="s">
-        <v>19</v>
-      </c>
-      <c r="H97">
-        <v>1000</v>
-      </c>
-      <c r="I97">
-        <v>0</v>
-      </c>
-      <c r="J97">
-        <v>389</v>
-      </c>
-      <c r="K97" t="b">
-        <v>1</v>
-      </c>
-      <c r="L97" t="s">
-        <v>364</v>
-      </c>
-      <c r="M97" t="s">
-        <v>140</v>
-      </c>
-      <c r="N97" t="s">
-        <v>141</v>
-      </c>
-      <c r="O97" t="s">
-        <v>366</v>
-      </c>
-      <c r="P97" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A98" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="B98" t="s">
-        <v>215</v>
-      </c>
-      <c r="C98" t="s">
-        <v>216</v>
-      </c>
-      <c r="D98" t="s">
-        <v>10</v>
-      </c>
-      <c r="E98" t="s">
-        <v>21</v>
-      </c>
-      <c r="F98" t="s">
-        <v>22</v>
-      </c>
-      <c r="H98">
-        <v>1</v>
-      </c>
-      <c r="I98">
-        <v>0</v>
-      </c>
-      <c r="J98">
-        <v>8</v>
-      </c>
-      <c r="K98" t="b">
-        <v>0</v>
-      </c>
-      <c r="L98" t="s">
-        <v>374</v>
-      </c>
-      <c r="M98" t="s">
-        <v>215</v>
-      </c>
-      <c r="N98" t="s">
-        <v>216</v>
-      </c>
-      <c r="O98" t="s">
-        <v>429</v>
-      </c>
-      <c r="P98" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A99" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="B99" t="s">
-        <v>287</v>
-      </c>
-      <c r="C99" t="s">
-        <v>288</v>
-      </c>
-      <c r="D99" t="s">
-        <v>10</v>
-      </c>
-      <c r="E99" t="s">
-        <v>21</v>
-      </c>
-      <c r="F99" t="s">
-        <v>22</v>
-      </c>
-      <c r="G99" t="s">
-        <v>218</v>
-      </c>
-      <c r="H99">
-        <v>1000</v>
-      </c>
-      <c r="I99">
-        <v>0</v>
-      </c>
-      <c r="J99">
-        <v>230</v>
-      </c>
-      <c r="K99" t="b">
-        <v>1</v>
-      </c>
-      <c r="L99" t="s">
-        <v>368</v>
-      </c>
-      <c r="M99" t="s">
-        <v>287</v>
-      </c>
-      <c r="N99" t="s">
-        <v>288</v>
-      </c>
-      <c r="O99" t="s">
-        <v>369</v>
-      </c>
-      <c r="P99" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A100" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B100" t="s">
-        <v>161</v>
-      </c>
-      <c r="C100" t="s">
-        <v>162</v>
-      </c>
-      <c r="D100" t="s">
-        <v>10</v>
-      </c>
-      <c r="E100" t="s">
-        <v>27</v>
-      </c>
-      <c r="F100" t="s">
-        <v>28</v>
-      </c>
-      <c r="G100" t="s">
-        <v>28</v>
-      </c>
-      <c r="H100">
-        <v>1000000</v>
-      </c>
-      <c r="I100">
-        <v>0</v>
-      </c>
-      <c r="J100">
-        <v>514</v>
-      </c>
-      <c r="K100" t="b">
-        <v>1</v>
-      </c>
-      <c r="L100" t="s">
-        <v>378</v>
-      </c>
-      <c r="M100" t="s">
-        <v>161</v>
-      </c>
-      <c r="N100" t="s">
-        <v>162</v>
-      </c>
-      <c r="O100" t="s">
-        <v>380</v>
-      </c>
-      <c r="P100" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A101" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="B101" t="s">
-        <v>346</v>
-      </c>
-      <c r="C101" t="s">
-        <v>347</v>
-      </c>
-      <c r="D101" t="s">
-        <v>10</v>
-      </c>
-      <c r="E101" t="s">
-        <v>27</v>
-      </c>
-      <c r="F101" t="s">
-        <v>28</v>
-      </c>
-      <c r="G101" t="s">
-        <v>28</v>
-      </c>
-      <c r="H101">
-        <v>1000</v>
-      </c>
-      <c r="I101">
-        <v>0</v>
-      </c>
-      <c r="J101">
-        <v>1</v>
-      </c>
-      <c r="K101" t="b">
-        <v>1</v>
-      </c>
-      <c r="L101" t="s">
-        <v>378</v>
-      </c>
-      <c r="M101" t="s">
-        <v>522</v>
-      </c>
-      <c r="N101" t="s">
-        <v>347</v>
-      </c>
-      <c r="O101" t="s">
-        <v>380</v>
-      </c>
-      <c r="P101" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A102" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="B102" t="s">
-        <v>334</v>
-      </c>
-      <c r="C102" t="s">
-        <v>335</v>
-      </c>
-      <c r="D102" t="s">
-        <v>10</v>
-      </c>
-      <c r="E102" t="s">
-        <v>14</v>
-      </c>
-      <c r="F102" t="b">
-        <v>0</v>
-      </c>
-      <c r="G102" t="s">
-        <v>530</v>
-      </c>
-      <c r="H102">
-        <v>1000</v>
-      </c>
-      <c r="I102">
-        <v>0</v>
-      </c>
-      <c r="J102">
-        <v>8907</v>
-      </c>
-      <c r="K102" t="b">
-        <v>1</v>
-      </c>
-      <c r="L102" t="s">
-        <v>433</v>
-      </c>
-      <c r="M102" t="s">
-        <v>526</v>
-      </c>
-      <c r="N102" t="s">
-        <v>335</v>
-      </c>
-      <c r="O102" t="s">
-        <v>435</v>
-      </c>
-      <c r="P102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A103" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B103" t="s">
-        <v>125</v>
-      </c>
-      <c r="C103" t="s">
-        <v>126</v>
-      </c>
-      <c r="D103" t="s">
-        <v>10</v>
-      </c>
-      <c r="E103" t="s">
-        <v>56</v>
-      </c>
-      <c r="F103" t="s">
+      <c r="P115" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A116" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B116" t="s">
+        <v>295</v>
+      </c>
+      <c r="C116" t="s">
+        <v>295</v>
+      </c>
+      <c r="D116" t="s">
+        <v>10</v>
+      </c>
+      <c r="E116" t="s">
+        <v>14</v>
+      </c>
+      <c r="F116" t="b">
+        <v>0</v>
+      </c>
+      <c r="H116" t="s">
+        <v>14</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
         <v>57</v>
       </c>
-      <c r="G103" t="s">
-        <v>57</v>
-      </c>
-      <c r="H103">
-        <v>1000</v>
-      </c>
-      <c r="I103">
-        <v>0</v>
-      </c>
-      <c r="J103">
-        <v>127260</v>
-      </c>
-      <c r="K103" t="b">
-        <v>1</v>
-      </c>
-      <c r="L103" t="s">
-        <v>407</v>
-      </c>
-      <c r="M103" t="s">
-        <v>494</v>
-      </c>
-      <c r="N103" t="s">
-        <v>126</v>
-      </c>
-      <c r="O103" t="s">
-        <v>409</v>
-      </c>
-      <c r="P103" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A104" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="B104" t="s">
-        <v>212</v>
-      </c>
-      <c r="C104" t="s">
-        <v>213</v>
-      </c>
-      <c r="D104" t="s">
-        <v>10</v>
-      </c>
-      <c r="E104" t="s">
-        <v>21</v>
-      </c>
-      <c r="F104" t="s">
-        <v>22</v>
-      </c>
-      <c r="G104" t="s">
-        <v>218</v>
-      </c>
-      <c r="H104">
-        <v>1000</v>
-      </c>
-      <c r="I104">
-        <v>0</v>
-      </c>
-      <c r="J104">
-        <v>4</v>
-      </c>
-      <c r="K104" t="b">
-        <v>1</v>
-      </c>
-      <c r="L104" t="s">
-        <v>368</v>
-      </c>
-      <c r="M104" t="s">
-        <v>212</v>
-      </c>
-      <c r="N104" t="s">
-        <v>213</v>
-      </c>
-      <c r="O104" t="s">
-        <v>369</v>
-      </c>
-      <c r="P104" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A105" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="B105" t="s">
-        <v>179</v>
-      </c>
-      <c r="C105" t="s">
-        <v>180</v>
-      </c>
-      <c r="D105" t="s">
-        <v>10</v>
-      </c>
-      <c r="E105" t="s">
-        <v>11</v>
-      </c>
-      <c r="F105" t="s">
-        <v>116</v>
-      </c>
-      <c r="G105" t="s">
-        <v>116</v>
-      </c>
-      <c r="H105">
-        <v>1000</v>
-      </c>
-      <c r="I105">
-        <v>0</v>
-      </c>
-      <c r="J105">
-        <v>11060</v>
-      </c>
-      <c r="K105" t="b">
-        <v>1</v>
-      </c>
-      <c r="L105" t="s">
-        <v>389</v>
-      </c>
-      <c r="M105" t="s">
-        <v>501</v>
-      </c>
-      <c r="N105" t="s">
-        <v>180</v>
-      </c>
-      <c r="O105" t="s">
-        <v>391</v>
-      </c>
-      <c r="P105" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A106" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="B106" t="s">
-        <v>281</v>
-      </c>
-      <c r="C106" t="s">
-        <v>282</v>
-      </c>
-      <c r="D106" t="s">
-        <v>10</v>
-      </c>
-      <c r="E106" t="s">
-        <v>11</v>
-      </c>
-      <c r="F106" t="s">
-        <v>116</v>
-      </c>
-      <c r="G106" t="s">
-        <v>116</v>
-      </c>
-      <c r="H106">
-        <v>1000</v>
-      </c>
-      <c r="I106">
-        <v>0</v>
-      </c>
-      <c r="J106">
-        <v>40243</v>
-      </c>
-      <c r="K106" t="b">
-        <v>1</v>
-      </c>
-      <c r="L106" t="s">
-        <v>389</v>
-      </c>
-      <c r="M106" t="s">
-        <v>515</v>
-      </c>
-      <c r="N106" t="s">
-        <v>282</v>
-      </c>
-      <c r="O106" t="s">
-        <v>391</v>
-      </c>
-      <c r="P106" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A107" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B107" t="s">
-        <v>93</v>
-      </c>
-      <c r="C107" t="s">
-        <v>94</v>
-      </c>
-      <c r="D107" t="s">
-        <v>10</v>
-      </c>
-      <c r="E107" t="s">
-        <v>14</v>
-      </c>
-      <c r="F107" t="b">
-        <v>0</v>
-      </c>
-      <c r="G107" t="s">
-        <v>116</v>
-      </c>
-      <c r="H107">
-        <f>24*60</f>
-        <v>1440</v>
-      </c>
-      <c r="I107">
-        <v>0</v>
-      </c>
-      <c r="J107">
-        <v>51077</v>
-      </c>
-      <c r="K107" t="b">
-        <v>1</v>
-      </c>
-      <c r="L107" t="s">
-        <v>389</v>
-      </c>
-      <c r="M107" t="s">
-        <v>471</v>
-      </c>
-      <c r="N107" t="s">
-        <v>186</v>
-      </c>
-      <c r="O107" t="s">
-        <v>391</v>
-      </c>
-      <c r="P107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A108" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="B108" t="s">
-        <v>185</v>
-      </c>
-      <c r="C108" t="s">
-        <v>186</v>
-      </c>
-      <c r="D108" t="s">
-        <v>10</v>
-      </c>
-      <c r="E108" t="s">
-        <v>89</v>
-      </c>
-      <c r="F108" t="s">
-        <v>90</v>
-      </c>
-      <c r="G108" t="s">
-        <v>116</v>
-      </c>
-      <c r="H108">
-        <f t="shared" ref="H108:H109" si="1">24*60</f>
-        <v>1440</v>
-      </c>
-      <c r="I108">
-        <v>0</v>
-      </c>
-      <c r="J108">
-        <v>1038</v>
-      </c>
-      <c r="K108" t="b">
-        <v>1</v>
-      </c>
-      <c r="L108" t="s">
-        <v>389</v>
-      </c>
-      <c r="M108" t="s">
-        <v>471</v>
-      </c>
-      <c r="N108" t="s">
-        <v>186</v>
-      </c>
-      <c r="O108" t="s">
-        <v>391</v>
-      </c>
-      <c r="P108" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A109" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B109" t="s">
-        <v>8</v>
-      </c>
-      <c r="C109" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" t="s">
-        <v>10</v>
-      </c>
-      <c r="E109" t="s">
-        <v>11</v>
-      </c>
-      <c r="F109" t="s">
-        <v>116</v>
-      </c>
-      <c r="G109" t="s">
-        <v>116</v>
-      </c>
-      <c r="H109">
-        <f t="shared" si="1"/>
-        <v>1440</v>
-      </c>
-      <c r="I109">
-        <v>0</v>
-      </c>
-      <c r="J109">
-        <v>736</v>
-      </c>
-      <c r="K109" t="b">
-        <v>1</v>
-      </c>
-      <c r="L109" t="s">
-        <v>389</v>
-      </c>
-      <c r="M109" t="s">
-        <v>471</v>
-      </c>
-      <c r="N109" t="s">
-        <v>186</v>
-      </c>
-      <c r="O109" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="110" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F110" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G110" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H110" s="3">
-        <v>4546.09</v>
-      </c>
-      <c r="I110" s="3">
-        <v>0</v>
-      </c>
-      <c r="J110" s="3">
-        <v>176</v>
-      </c>
-      <c r="K110" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L110" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="M110" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="N110" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="O110" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="P110" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A111" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B111" t="s">
-        <v>90</v>
-      </c>
-      <c r="C111" t="s">
-        <v>91</v>
-      </c>
-      <c r="D111" t="s">
-        <v>10</v>
-      </c>
-      <c r="E111" t="s">
-        <v>14</v>
-      </c>
-      <c r="F111" t="b">
-        <v>0</v>
-      </c>
-      <c r="G111" t="s">
-        <v>116</v>
-      </c>
-      <c r="H111">
-        <f>24*60*60</f>
-        <v>86400</v>
-      </c>
-      <c r="I111">
-        <v>0</v>
-      </c>
-      <c r="J111">
-        <v>51718</v>
-      </c>
-      <c r="K111" t="b">
-        <v>1</v>
-      </c>
-      <c r="L111" t="s">
-        <v>389</v>
-      </c>
-      <c r="M111" t="s">
-        <v>401</v>
-      </c>
-      <c r="N111" t="s">
-        <v>498</v>
-      </c>
-      <c r="O111" t="s">
-        <v>391</v>
-      </c>
-      <c r="P111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A112" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="B112" t="s">
-        <v>191</v>
-      </c>
-      <c r="C112" t="s">
-        <v>192</v>
-      </c>
-      <c r="D112" t="s">
-        <v>10</v>
-      </c>
-      <c r="E112" t="s">
-        <v>92</v>
-      </c>
-      <c r="F112" t="s">
-        <v>93</v>
-      </c>
-      <c r="G112" t="s">
-        <v>116</v>
-      </c>
-      <c r="H112">
-        <f>24*60*60</f>
-        <v>86400</v>
-      </c>
-      <c r="I112">
-        <v>0</v>
-      </c>
-      <c r="J112">
-        <v>166</v>
-      </c>
-      <c r="K112" t="b">
-        <v>1</v>
-      </c>
-      <c r="L112" t="s">
-        <v>389</v>
-      </c>
-      <c r="M112" t="s">
-        <v>401</v>
-      </c>
-      <c r="N112" t="s">
-        <v>498</v>
-      </c>
-      <c r="O112" t="s">
-        <v>391</v>
-      </c>
-      <c r="P112" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G113" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H113" s="3">
-        <f>1000000000</f>
-        <v>1000000000</v>
-      </c>
-      <c r="I113">
-        <v>0</v>
-      </c>
-      <c r="J113" s="3">
-        <v>16</v>
-      </c>
-      <c r="K113" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L113" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="M113" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="N113" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="O113" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="P113" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A114" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B114" t="s">
-        <v>99</v>
-      </c>
-      <c r="C114" t="s">
-        <v>100</v>
-      </c>
-      <c r="D114" t="s">
-        <v>10</v>
-      </c>
-      <c r="E114" t="s">
-        <v>14</v>
-      </c>
-      <c r="F114" t="b">
-        <v>0</v>
-      </c>
-      <c r="G114" t="s">
-        <v>25</v>
-      </c>
-      <c r="H114" s="6">
-        <f>1000000000</f>
-        <v>1000000000</v>
-      </c>
-      <c r="I114">
-        <v>0</v>
-      </c>
-      <c r="J114">
-        <v>188</v>
-      </c>
-      <c r="K114" t="b">
-        <v>1</v>
-      </c>
-      <c r="L114" t="s">
-        <v>412</v>
-      </c>
-      <c r="M114" t="s">
-        <v>99</v>
-      </c>
-      <c r="N114" t="s">
-        <v>100</v>
-      </c>
-      <c r="O114" t="s">
-        <v>413</v>
-      </c>
-      <c r="P114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A115" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="B115" t="s">
-        <v>245</v>
-      </c>
-      <c r="C115" t="s">
-        <v>246</v>
-      </c>
-      <c r="D115" t="s">
-        <v>10</v>
-      </c>
-      <c r="E115" t="s">
-        <v>35</v>
-      </c>
-      <c r="F115" t="s">
-        <v>36</v>
-      </c>
-      <c r="I115">
-        <v>0</v>
-      </c>
-      <c r="J115">
-        <v>15</v>
-      </c>
-      <c r="K115" t="b">
-        <v>0</v>
-      </c>
-      <c r="L115" t="s">
-        <v>385</v>
-      </c>
-      <c r="M115" t="s">
-        <v>245</v>
-      </c>
-      <c r="N115" t="s">
-        <v>246</v>
-      </c>
-      <c r="O115" t="s">
-        <v>386</v>
-      </c>
-      <c r="P115" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A116" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B116" t="s">
-        <v>36</v>
-      </c>
-      <c r="C116" t="s">
-        <v>37</v>
-      </c>
-      <c r="D116" t="s">
-        <v>10</v>
-      </c>
-      <c r="E116" t="s">
-        <v>14</v>
-      </c>
-      <c r="F116" t="b">
-        <v>0</v>
-      </c>
-      <c r="I116">
-        <v>0</v>
-      </c>
-      <c r="J116">
-        <v>318014</v>
-      </c>
       <c r="K116" t="b">
         <v>0</v>
       </c>
       <c r="L116" t="s">
-        <v>385</v>
+        <v>318</v>
       </c>
       <c r="M116" t="s">
-        <v>36</v>
+        <v>295</v>
       </c>
       <c r="N116" t="s">
-        <v>37</v>
+        <v>295</v>
       </c>
       <c r="O116" t="s">
-        <v>386</v>
+        <v>516</v>
+      </c>
+      <c r="P116" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:Q116" xr:uid="{3036B1CA-FBEB-4E41-A2A1-61CD7E3CC4C8}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q116">
-    <sortCondition descending="1" ref="H2:H116"/>
+    <sortCondition ref="B2:B116"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/utils/config/ReferenceLists/Units.xlsx
+++ b/utils/config/ReferenceLists/Units.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcgov-my.sharepoint.com/personal/sahil_bhandari_gov_bc_ca/Documents/teamdocs/GitHub/aqs-api/utils/config/ReferenceLists/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcgov-my.sharepoint.com/personal/jeremy_krogh_gov_bc_ca/Documents/Projects/2025/github_projects/aqs-api/utils/config/ReferenceLists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="204" documentId="8_{7DEAA6C1-0DF4-4EB3-B17D-DC8C9B3E57AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DE618F6-B41A-4FDB-BE1C-E4E0B3C79435}"/>
+  <xr:revisionPtr revIDLastSave="222" documentId="8_{7DEAA6C1-0DF4-4EB3-B17D-DC8C9B3E57AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5B76C80-50D0-40FD-B65F-7D418E51B3DA}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="2" xr2:uid="{BEB82E07-AA54-4E71-A23C-79CC3F3C1001}"/>
+    <workbookView xWindow="-10000" yWindow="-21710" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{BEB82E07-AA54-4E71-A23C-79CC3F3C1001}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1608,9 +1608,6 @@
     <t>µg/mL</t>
   </si>
   <si>
-    <t>tft³/d</t>
-  </si>
-  <si>
     <t>(count)</t>
   </si>
   <si>
@@ -1657,6 +1654,9 @@
   </si>
   <si>
     <t>OFFSET</t>
+  </si>
+  <si>
+    <t>tm³/d</t>
   </si>
 </sst>
 </file>
@@ -1724,7 +1724,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1733,8 +1733,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -2076,20 +2074,20 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="18.54296875" customWidth="1"/>
-    <col min="3" max="3" width="50.26953125" customWidth="1"/>
-    <col min="4" max="6" width="18.54296875" customWidth="1"/>
-    <col min="7" max="7" width="23.453125" customWidth="1"/>
-    <col min="8" max="8" width="18.54296875" customWidth="1"/>
-    <col min="9" max="9" width="27.54296875" customWidth="1"/>
-    <col min="10" max="10" width="27.7265625" customWidth="1"/>
+    <col min="1" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="50.28515625" customWidth="1"/>
+    <col min="4" max="6" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="23.42578125" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" customWidth="1"/>
+    <col min="9" max="9" width="27.5703125" customWidth="1"/>
+    <col min="10" max="10" width="27.7109375" customWidth="1"/>
     <col min="11" max="12" width="27" customWidth="1"/>
-    <col min="13" max="13" width="33.1796875" customWidth="1"/>
+    <col min="13" max="13" width="33.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2130,7 +2128,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2173,7 +2171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2216,7 +2214,7 @@
         <v xml:space="preserve"> (transmittance)</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -2259,7 +2257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -2302,7 +2300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -2345,7 +2343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -2388,7 +2386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -2431,7 +2429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -2474,7 +2472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -2517,7 +2515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -2560,7 +2558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -2603,7 +2601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -2647,7 +2645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -2691,7 +2689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -2735,7 +2733,7 @@
         <v xml:space="preserve"> (by vol.)</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -2779,7 +2777,7 @@
         <v xml:space="preserve"> (wet)</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -2823,7 +2821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -2867,7 +2865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>59</v>
       </c>
@@ -2911,7 +2909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>62</v>
       </c>
@@ -2955,7 +2953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>65</v>
       </c>
@@ -2999,7 +2997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>68</v>
       </c>
@@ -3043,7 +3041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>71</v>
       </c>
@@ -3087,7 +3085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>74</v>
       </c>
@@ -3131,7 +3129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>77</v>
       </c>
@@ -3175,7 +3173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>80</v>
       </c>
@@ -3219,7 +3217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>83</v>
       </c>
@@ -3263,7 +3261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>86</v>
       </c>
@@ -3307,7 +3305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>89</v>
       </c>
@@ -3351,7 +3349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>92</v>
       </c>
@@ -3395,7 +3393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>95</v>
       </c>
@@ -3439,7 +3437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>98</v>
       </c>
@@ -3483,7 +3481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>101</v>
       </c>
@@ -3527,7 +3525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>104</v>
       </c>
@@ -3571,7 +3569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>107</v>
       </c>
@@ -3615,7 +3613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>110</v>
       </c>
@@ -3659,7 +3657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>113</v>
       </c>
@@ -3703,7 +3701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -3747,7 +3745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>118</v>
       </c>
@@ -3791,7 +3789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>121</v>
       </c>
@@ -3835,7 +3833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>124</v>
       </c>
@@ -3879,7 +3877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>127</v>
       </c>
@@ -3923,7 +3921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>130</v>
       </c>
@@ -3967,7 +3965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>133</v>
       </c>
@@ -4011,7 +4009,7 @@
         <v xml:space="preserve"> (wet)</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>136</v>
       </c>
@@ -4055,7 +4053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>139</v>
       </c>
@@ -4099,7 +4097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>142</v>
       </c>
@@ -4143,7 +4141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>145</v>
       </c>
@@ -4187,7 +4185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>148</v>
       </c>
@@ -4231,7 +4229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>151</v>
       </c>
@@ -4275,7 +4273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>154</v>
       </c>
@@ -4319,7 +4317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>157</v>
       </c>
@@ -4363,7 +4361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>160</v>
       </c>
@@ -4407,7 +4405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>163</v>
       </c>
@@ -4451,7 +4449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>166</v>
       </c>
@@ -4495,7 +4493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>169</v>
       </c>
@@ -4539,7 +4537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>172</v>
       </c>
@@ -4583,7 +4581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>175</v>
       </c>
@@ -4627,7 +4625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>178</v>
       </c>
@@ -4671,7 +4669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>181</v>
       </c>
@@ -4715,7 +4713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>184</v>
       </c>
@@ -4759,7 +4757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>187</v>
       </c>
@@ -4803,7 +4801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>190</v>
       </c>
@@ -4847,7 +4845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>193</v>
       </c>
@@ -4891,7 +4889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>196</v>
       </c>
@@ -4935,7 +4933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>199</v>
       </c>
@@ -4979,7 +4977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>202</v>
       </c>
@@ -5023,7 +5021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>205</v>
       </c>
@@ -5067,7 +5065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>208</v>
       </c>
@@ -5111,7 +5109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>211</v>
       </c>
@@ -5155,7 +5153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>214</v>
       </c>
@@ -5199,7 +5197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>217</v>
       </c>
@@ -5243,7 +5241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>220</v>
       </c>
@@ -5287,7 +5285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>223</v>
       </c>
@@ -5331,7 +5329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>226</v>
       </c>
@@ -5375,7 +5373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>229</v>
       </c>
@@ -5419,7 +5417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>232</v>
       </c>
@@ -5463,7 +5461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>235</v>
       </c>
@@ -5507,7 +5505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>238</v>
       </c>
@@ -5551,7 +5549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>241</v>
       </c>
@@ -5595,7 +5593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>244</v>
       </c>
@@ -5639,7 +5637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>247</v>
       </c>
@@ -5683,7 +5681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>250</v>
       </c>
@@ -5727,7 +5725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>253</v>
       </c>
@@ -5771,7 +5769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>256</v>
       </c>
@@ -5815,7 +5813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>259</v>
       </c>
@@ -5859,7 +5857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>262</v>
       </c>
@@ -5903,7 +5901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>265</v>
       </c>
@@ -5947,7 +5945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>268</v>
       </c>
@@ -5991,7 +5989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>271</v>
       </c>
@@ -6035,7 +6033,7 @@
         <v xml:space="preserve"> (mortality)</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>274</v>
       </c>
@@ -6079,7 +6077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>277</v>
       </c>
@@ -6123,7 +6121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>280</v>
       </c>
@@ -6167,7 +6165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>283</v>
       </c>
@@ -6211,7 +6209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>286</v>
       </c>
@@ -6255,7 +6253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>289</v>
       </c>
@@ -6299,7 +6297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>291</v>
       </c>
@@ -6343,7 +6341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>294</v>
       </c>
@@ -6387,7 +6385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>296</v>
       </c>
@@ -6431,7 +6429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>299</v>
       </c>
@@ -6475,7 +6473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>302</v>
       </c>
@@ -6519,7 +6517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>305</v>
       </c>
@@ -6563,7 +6561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>308</v>
       </c>
@@ -6607,7 +6605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>311</v>
       </c>
@@ -6651,7 +6649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>314</v>
       </c>
@@ -6695,7 +6693,7 @@
         <v xml:space="preserve"> (wet)</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>317</v>
       </c>
@@ -6739,7 +6737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>319</v>
       </c>
@@ -6783,7 +6781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>322</v>
       </c>
@@ -6827,7 +6825,7 @@
         <v xml:space="preserve"> (LEL)</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>325</v>
       </c>
@@ -6871,7 +6869,7 @@
         <v xml:space="preserve"> (saturation)</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>327</v>
       </c>
@@ -6915,7 +6913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>330</v>
       </c>
@@ -6959,7 +6957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>333</v>
       </c>
@@ -7003,7 +7001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>336</v>
       </c>
@@ -7047,7 +7045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>339</v>
       </c>
@@ -7091,7 +7089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>342</v>
       </c>
@@ -7135,7 +7133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>345</v>
       </c>
@@ -7179,7 +7177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>348</v>
       </c>
@@ -7238,17 +7236,17 @@
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.81640625" customWidth="1"/>
-    <col min="2" max="2" width="32.7265625" customWidth="1"/>
-    <col min="3" max="6" width="22.26953125" customWidth="1"/>
-    <col min="7" max="7" width="27.26953125" customWidth="1"/>
-    <col min="8" max="8" width="39.26953125" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1"/>
+    <col min="3" max="6" width="22.28515625" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" customWidth="1"/>
+    <col min="8" max="8" width="39.28515625" customWidth="1"/>
     <col min="9" max="9" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>352</v>
       </c>
@@ -7277,7 +7275,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -7294,7 +7292,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -7311,7 +7309,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>114</v>
       </c>
@@ -7328,7 +7326,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -7345,7 +7343,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -7365,7 +7363,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -7382,7 +7380,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>254</v>
       </c>
@@ -7399,7 +7397,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>102</v>
       </c>
@@ -7416,7 +7414,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -7433,7 +7431,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>108</v>
       </c>
@@ -7450,7 +7448,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -7467,7 +7465,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -7484,7 +7482,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>96</v>
       </c>
@@ -7501,7 +7499,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>116</v>
       </c>
@@ -7518,7 +7516,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>84</v>
       </c>
@@ -7535,7 +7533,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -7552,7 +7550,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -7572,7 +7570,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -7589,7 +7587,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>72</v>
       </c>
@@ -7606,7 +7604,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>90</v>
       </c>
@@ -7623,7 +7621,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>111</v>
       </c>
@@ -7640,7 +7638,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>105</v>
       </c>
@@ -7657,7 +7655,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>134</v>
       </c>
@@ -7677,7 +7675,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -7694,7 +7692,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>75</v>
       </c>
@@ -7711,7 +7709,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -7728,7 +7726,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -7745,7 +7743,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>343</v>
       </c>
@@ -7762,7 +7760,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>78</v>
       </c>
@@ -7779,7 +7777,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>81</v>
       </c>
@@ -7796,7 +7794,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>248</v>
       </c>
@@ -7813,7 +7811,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>263</v>
       </c>
@@ -7830,7 +7828,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>63</v>
       </c>
@@ -7847,7 +7845,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>260</v>
       </c>
@@ -7864,7 +7862,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>272</v>
       </c>
@@ -7884,7 +7882,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>99</v>
       </c>
@@ -7901,7 +7899,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>257</v>
       </c>
@@ -7918,7 +7916,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -7935,7 +7933,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>306</v>
       </c>
@@ -7952,7 +7950,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>69</v>
       </c>
@@ -7969,7 +7967,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>318</v>
       </c>
@@ -7986,7 +7984,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>60</v>
       </c>
@@ -8003,7 +8001,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>340</v>
       </c>
@@ -8020,7 +8018,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>443</v>
       </c>
@@ -8037,7 +8035,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>334</v>
       </c>
@@ -8054,7 +8052,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>137</v>
       </c>
@@ -8071,7 +8069,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>122</v>
       </c>
@@ -8088,7 +8086,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>448</v>
       </c>
@@ -8105,7 +8103,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>452</v>
       </c>
@@ -8122,7 +8120,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>320</v>
       </c>
@@ -8139,7 +8137,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>143</v>
       </c>
@@ -8156,7 +8154,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>146</v>
       </c>
@@ -8173,7 +8171,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>323</v>
       </c>
@@ -8193,7 +8191,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>152</v>
       </c>
@@ -8210,7 +8208,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>457</v>
       </c>
@@ -8227,7 +8225,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>326</v>
       </c>
@@ -8247,7 +8245,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>462</v>
       </c>
@@ -8264,7 +8262,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>66</v>
       </c>
@@ -8281,7 +8279,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>465</v>
       </c>
@@ -8298,7 +8296,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>158</v>
       </c>
@@ -8315,7 +8313,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>275</v>
       </c>
@@ -8332,7 +8330,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>349</v>
       </c>
@@ -8349,7 +8347,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>468</v>
       </c>
@@ -8366,7 +8364,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>328</v>
       </c>
@@ -8383,7 +8381,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>13</v>
       </c>
@@ -8403,7 +8401,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>337</v>
       </c>
@@ -8420,7 +8418,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>93</v>
       </c>
@@ -8437,7 +8435,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>472</v>
       </c>
@@ -8454,7 +8452,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>128</v>
       </c>
@@ -8471,7 +8469,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>475</v>
       </c>
@@ -8488,7 +8486,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>119</v>
       </c>
@@ -8505,7 +8503,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>476</v>
       </c>
@@ -8522,7 +8520,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>477</v>
       </c>
@@ -8539,7 +8537,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>478</v>
       </c>
@@ -8556,7 +8554,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>479</v>
       </c>
@@ -8573,7 +8571,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>315</v>
       </c>
@@ -8593,7 +8591,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>155</v>
       </c>
@@ -8618,35 +8616,36 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3036B1CA-FBEB-4E41-A2A1-61CD7E3CC4C8}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="A109" sqref="A109"/>
-      <selection pane="topRight" activeCell="H83" sqref="H83"/>
+      <selection pane="topRight" activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.1796875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="25.81640625" customWidth="1"/>
-    <col min="3" max="3" width="42.81640625" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+    <col min="3" max="3" width="42.85546875" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="17.7265625" customWidth="1"/>
-    <col min="6" max="7" width="16.7265625" customWidth="1"/>
-    <col min="8" max="8" width="20.7265625" customWidth="1"/>
-    <col min="9" max="9" width="10.7265625" customWidth="1"/>
-    <col min="10" max="10" width="8.7265625" customWidth="1"/>
-    <col min="11" max="11" width="20.54296875" customWidth="1"/>
-    <col min="12" max="12" width="33.54296875" customWidth="1"/>
-    <col min="13" max="13" width="29.26953125" customWidth="1"/>
-    <col min="14" max="14" width="40.1796875" customWidth="1"/>
-    <col min="15" max="15" width="23.1796875" customWidth="1"/>
-    <col min="16" max="16" width="19.81640625" customWidth="1"/>
-    <col min="17" max="17" width="15.54296875" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="7" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" customWidth="1"/>
+    <col min="11" max="11" width="20.5703125" customWidth="1"/>
+    <col min="12" max="12" width="33.5703125" customWidth="1"/>
+    <col min="13" max="13" width="29.28515625" customWidth="1"/>
+    <col min="14" max="14" width="40.140625" customWidth="1"/>
+    <col min="15" max="15" width="23.140625" customWidth="1"/>
+    <col min="16" max="16" width="19.85546875" customWidth="1"/>
+    <col min="17" max="17" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -8666,25 +8665,25 @@
         <v>351</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>353</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>355</v>
@@ -8697,7 +8696,7 @@
       </c>
       <c r="Q1" s="4"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>113</v>
       </c>
@@ -8744,7 +8743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>271</v>
       </c>
@@ -8791,7 +8790,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>311</v>
       </c>
@@ -8832,13 +8831,13 @@
         <v>115</v>
       </c>
       <c r="O4" t="s">
+        <v>519</v>
+      </c>
+      <c r="P4" t="s">
         <v>520</v>
       </c>
-      <c r="P4" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>322</v>
       </c>
@@ -8885,7 +8884,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>325</v>
       </c>
@@ -8932,7 +8931,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
@@ -8979,7 +8978,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>47</v>
       </c>
@@ -9026,7 +9025,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>50</v>
       </c>
@@ -9073,7 +9072,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>336</v>
       </c>
@@ -9120,7 +9119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>256</v>
       </c>
@@ -9167,7 +9166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>327</v>
       </c>
@@ -9214,7 +9213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>62</v>
       </c>
@@ -9261,7 +9260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>107</v>
       </c>
@@ -9311,7 +9310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>296</v>
       </c>
@@ -9346,19 +9345,19 @@
         <v>318</v>
       </c>
       <c r="M15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="N15" t="s">
         <v>298</v>
       </c>
       <c r="O15" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="P15" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>299</v>
       </c>
@@ -9399,13 +9398,13 @@
         <v>301</v>
       </c>
       <c r="O16" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="P16" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>193</v>
       </c>
@@ -9456,7 +9455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>77</v>
       </c>
@@ -9503,7 +9502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>319</v>
       </c>
@@ -9550,7 +9549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>32</v>
       </c>
@@ -9594,7 +9593,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>317</v>
       </c>
@@ -9641,7 +9640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>348</v>
       </c>
@@ -9692,7 +9691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>280</v>
       </c>
@@ -9730,7 +9729,7 @@
         <v>389</v>
       </c>
       <c r="M23" t="s">
-        <v>515</v>
+        <v>531</v>
       </c>
       <c r="N23" t="s">
         <v>282</v>
@@ -9742,57 +9741,57 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="8" t="s">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" t="s">
         <v>173</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" t="s">
         <v>174</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="9" t="s">
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" t="s">
         <v>116</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" t="s">
         <v>116</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24">
         <v>4546.09</v>
       </c>
-      <c r="I24" s="9">
-        <v>0</v>
-      </c>
-      <c r="J24" s="9">
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
         <v>176</v>
       </c>
-      <c r="K24" s="9" t="b">
+      <c r="K24" t="b">
         <v>1</v>
       </c>
-      <c r="L24" s="9" t="s">
+      <c r="L24" t="s">
         <v>389</v>
       </c>
-      <c r="M24" s="9" t="s">
+      <c r="M24" t="s">
         <v>500</v>
       </c>
-      <c r="N24" s="9" t="s">
+      <c r="N24" t="s">
         <v>174</v>
       </c>
-      <c r="O24" s="9" t="s">
+      <c r="O24" t="s">
         <v>391</v>
       </c>
-      <c r="P24" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>178</v>
       </c>
@@ -9842,7 +9841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>232</v>
       </c>
@@ -9893,7 +9892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>65</v>
       </c>
@@ -9931,7 +9930,7 @@
         <v>490</v>
       </c>
       <c r="N27" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="O27" t="s">
         <v>460</v>
@@ -9940,7 +9939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>166</v>
       </c>
@@ -9991,7 +9990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>139</v>
       </c>
@@ -10041,7 +10040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>53</v>
       </c>
@@ -10091,7 +10090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>259</v>
       </c>
@@ -10141,7 +10140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>169</v>
       </c>
@@ -10192,7 +10191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>244</v>
       </c>
@@ -10236,7 +10235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>253</v>
       </c>
@@ -10283,7 +10282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>214</v>
       </c>
@@ -10330,7 +10329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>229</v>
       </c>
@@ -10381,58 +10380,58 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="8" t="s">
+    <row r="37" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" t="s">
         <v>149</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" t="s">
         <v>150</v>
       </c>
-      <c r="D37" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" s="9" t="s">
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" t="s">
         <v>18</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F37" t="s">
         <v>19</v>
       </c>
-      <c r="G37" s="9" t="s">
+      <c r="G37" t="s">
         <v>57</v>
       </c>
-      <c r="H37" s="9">
+      <c r="H37">
         <f>1000000000</f>
         <v>1000000000</v>
       </c>
-      <c r="I37" s="9">
-        <v>0</v>
-      </c>
-      <c r="J37" s="9">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
         <v>16</v>
       </c>
-      <c r="K37" s="9" t="b">
+      <c r="K37" t="b">
         <v>1</v>
       </c>
-      <c r="L37" s="9" t="s">
+      <c r="L37" t="s">
         <v>407</v>
       </c>
-      <c r="M37" s="9" t="s">
+      <c r="M37" t="s">
         <v>497</v>
       </c>
-      <c r="N37" s="9" t="s">
+      <c r="N37" t="s">
         <v>150</v>
       </c>
-      <c r="O37" s="9" t="s">
+      <c r="O37" t="s">
         <v>409</v>
       </c>
-      <c r="P37" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>286</v>
       </c>
@@ -10482,7 +10481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>95</v>
       </c>
@@ -10532,7 +10531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>71</v>
       </c>
@@ -10583,7 +10582,7 @@
       </c>
       <c r="Q40"/>
     </row>
-    <row r="41" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>175</v>
       </c>
@@ -10635,7 +10634,7 @@
       </c>
       <c r="Q41"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>250</v>
       </c>
@@ -10686,7 +10685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>283</v>
       </c>
@@ -10737,7 +10736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>83</v>
       </c>
@@ -10787,7 +10786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>104</v>
       </c>
@@ -10837,7 +10836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>157</v>
       </c>
@@ -10887,7 +10886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>11</v>
       </c>
@@ -10937,7 +10936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>187</v>
       </c>
@@ -10987,58 +10986,58 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="8" t="s">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" t="s">
         <v>236</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" t="s">
         <v>237</v>
       </c>
-      <c r="D49" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E49" s="9" t="s">
+      <c r="D49" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" t="s">
         <v>11</v>
       </c>
-      <c r="F49" s="9" t="s">
+      <c r="F49" t="s">
         <v>116</v>
       </c>
-      <c r="G49" s="9" t="s">
+      <c r="G49" t="s">
         <v>116</v>
       </c>
-      <c r="H49" s="9">
+      <c r="H49">
         <f>1/30</f>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="I49" s="9">
-        <v>0</v>
-      </c>
-      <c r="J49" s="9">
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
         <v>6</v>
       </c>
-      <c r="K49" s="9" t="b">
+      <c r="K49" t="b">
         <v>1</v>
       </c>
-      <c r="L49" s="9" t="s">
+      <c r="L49" t="s">
         <v>389</v>
       </c>
-      <c r="M49" s="9" t="s">
+      <c r="M49" t="s">
         <v>511</v>
       </c>
-      <c r="N49" s="9" t="s">
+      <c r="N49" t="s">
         <v>237</v>
       </c>
-      <c r="O49" s="9" t="s">
+      <c r="O49" t="s">
         <v>391</v>
       </c>
-      <c r="P49" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>184</v>
       </c>
@@ -11089,7 +11088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>92</v>
       </c>
@@ -11140,7 +11139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>7</v>
       </c>
@@ -11188,7 +11187,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="53" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>190</v>
       </c>
@@ -11240,7 +11239,7 @@
       </c>
       <c r="Q53"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>89</v>
       </c>
@@ -11291,7 +11290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>238</v>
       </c>
@@ -11342,58 +11341,58 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="8" t="s">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" t="s">
         <v>242</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C56" t="s">
         <v>243</v>
       </c>
-      <c r="D56" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E56" s="9" t="s">
+      <c r="D56" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" t="s">
         <v>11</v>
       </c>
-      <c r="F56" s="9" t="s">
+      <c r="F56" t="s">
         <v>116</v>
       </c>
-      <c r="G56" s="9" t="s">
+      <c r="G56" t="s">
         <v>116</v>
       </c>
-      <c r="H56" s="9">
+      <c r="H56">
         <f>1/365.25</f>
         <v>2.7378507871321013E-3</v>
       </c>
-      <c r="I56" s="9">
-        <v>0</v>
-      </c>
-      <c r="J56" s="9">
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
         <v>12</v>
       </c>
-      <c r="K56" s="9" t="b">
+      <c r="K56" t="b">
         <v>1</v>
       </c>
-      <c r="L56" s="9" t="s">
+      <c r="L56" t="s">
         <v>389</v>
       </c>
-      <c r="M56" s="9" t="s">
+      <c r="M56" t="s">
         <v>513</v>
       </c>
-      <c r="N56" s="9" t="s">
+      <c r="N56" t="s">
         <v>243</v>
       </c>
-      <c r="O56" s="9" t="s">
+      <c r="O56" t="s">
         <v>391</v>
       </c>
-      <c r="P56" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="P56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>333</v>
       </c>
@@ -11413,7 +11412,7 @@
         <v>0</v>
       </c>
       <c r="G57" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H57">
         <v>1000</v>
@@ -11431,7 +11430,7 @@
         <v>433</v>
       </c>
       <c r="M57" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="N57" t="s">
         <v>335</v>
@@ -11444,7 +11443,7 @@
       </c>
       <c r="Q57"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>24</v>
       </c>
@@ -11491,7 +11490,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>59</v>
       </c>
@@ -11541,7 +11540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>205</v>
       </c>
@@ -11593,7 +11592,7 @@
       </c>
       <c r="Q60"/>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>211</v>
       </c>
@@ -11643,7 +11642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>217</v>
       </c>
@@ -11693,7 +11692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>220</v>
       </c>
@@ -11743,7 +11742,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>18</v>
       </c>
@@ -11790,7 +11789,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>223</v>
       </c>
@@ -11841,7 +11840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>124</v>
       </c>
@@ -11891,7 +11890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>160</v>
       </c>
@@ -11941,7 +11940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>44</v>
       </c>
@@ -11988,7 +11987,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>118</v>
       </c>
@@ -12039,7 +12038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>196</v>
       </c>
@@ -12090,7 +12089,7 @@
       </c>
       <c r="Q70" s="3"/>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>247</v>
       </c>
@@ -12137,7 +12136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>80</v>
       </c>
@@ -12184,7 +12183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>262</v>
       </c>
@@ -12231,7 +12230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>345</v>
       </c>
@@ -12269,7 +12268,7 @@
         <v>378</v>
       </c>
       <c r="M74" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N74" t="s">
         <v>347</v>
@@ -12281,7 +12280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>110</v>
       </c>
@@ -12328,7 +12327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>289</v>
       </c>
@@ -12379,7 +12378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>142</v>
       </c>
@@ -12430,7 +12429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>291</v>
       </c>
@@ -12471,13 +12470,13 @@
         <v>293</v>
       </c>
       <c r="O78" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="P78" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>308</v>
       </c>
@@ -12512,19 +12511,19 @@
         <v>318</v>
       </c>
       <c r="M79" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="N79" t="s">
         <v>310</v>
       </c>
       <c r="O79" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="P79" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>15</v>
       </c>
@@ -12568,7 +12567,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>35</v>
       </c>
@@ -12609,7 +12608,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>136</v>
       </c>
@@ -12661,7 +12660,7 @@
       </c>
       <c r="Q82" s="3"/>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>314</v>
       </c>
@@ -12713,7 +12712,7 @@
       </c>
       <c r="Q83" s="3"/>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>121</v>
       </c>
@@ -12764,7 +12763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>30</v>
       </c>
@@ -12808,7 +12807,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>154</v>
       </c>
@@ -12846,7 +12845,7 @@
         <v>482</v>
       </c>
       <c r="N86" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="O86" t="s">
         <v>411</v>
@@ -12855,7 +12854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>339</v>
       </c>
@@ -12893,7 +12892,7 @@
         <v>442</v>
       </c>
       <c r="N87" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="O87" t="s">
         <v>411</v>
@@ -12902,7 +12901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>151</v>
       </c>
@@ -12940,7 +12939,7 @@
         <v>442</v>
       </c>
       <c r="N88" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="O88" t="s">
         <v>411</v>
@@ -12949,7 +12948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>145</v>
       </c>
@@ -12987,7 +12986,7 @@
         <v>442</v>
       </c>
       <c r="N89" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="O89" t="s">
         <v>411</v>
@@ -12996,7 +12995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>74</v>
       </c>
@@ -13043,7 +13042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>342</v>
       </c>
@@ -13090,7 +13089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>41</v>
       </c>
@@ -13134,7 +13133,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="93" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>98</v>
       </c>
@@ -13156,7 +13155,7 @@
       <c r="G93" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H93" s="10">
+      <c r="H93" s="8">
         <f>1000000000</f>
         <v>1000000000</v>
       </c>
@@ -13185,7 +13184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>101</v>
       </c>
@@ -13235,7 +13234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>274</v>
       </c>
@@ -13285,7 +13284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>38</v>
       </c>
@@ -13329,7 +13328,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>330</v>
       </c>
@@ -13370,13 +13369,13 @@
         <v>332</v>
       </c>
       <c r="O97" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="P97" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>226</v>
       </c>
@@ -13426,7 +13425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>68</v>
       </c>
@@ -13446,7 +13445,7 @@
         <v>0</v>
       </c>
       <c r="G99" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -13476,7 +13475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>208</v>
       </c>
@@ -13527,7 +13526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>130</v>
       </c>
@@ -13578,7 +13577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>86</v>
       </c>
@@ -13628,7 +13627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>199</v>
       </c>
@@ -13679,7 +13678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>202</v>
       </c>
@@ -13730,7 +13729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>21</v>
       </c>
@@ -13777,7 +13776,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>133</v>
       </c>
@@ -13827,7 +13826,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>302</v>
       </c>
@@ -13866,7 +13865,7 @@
         <v>368</v>
       </c>
       <c r="M107" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="N107" t="s">
         <v>304</v>
@@ -13878,7 +13877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>127</v>
       </c>
@@ -13929,7 +13928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>56</v>
       </c>
@@ -13979,7 +13978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>268</v>
       </c>
@@ -14030,7 +14029,7 @@
       </c>
       <c r="Q110"/>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>163</v>
       </c>
@@ -14080,7 +14079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>305</v>
       </c>
@@ -14130,7 +14129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>27</v>
       </c>
@@ -14179,7 +14178,7 @@
       <c r="P113"/>
       <c r="Q113"/>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>277</v>
       </c>
@@ -14230,7 +14229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>181</v>
       </c>
@@ -14281,7 +14280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>294</v>
       </c>
@@ -14322,14 +14321,20 @@
         <v>295</v>
       </c>
       <c r="O116" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="P116" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q116" xr:uid="{3036B1CA-FBEB-4E41-A2A1-61CD7E3CC4C8}"/>
+  <autoFilter ref="A1:Q116" xr:uid="{3036B1CA-FBEB-4E41-A2A1-61CD7E3CC4C8}">
+    <filterColumn colId="11">
+      <filters>
+        <filter val="Flow"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q116">
     <sortCondition ref="B2:B116"/>
   </sortState>

--- a/utils/config/ReferenceLists/Units.xlsx
+++ b/utils/config/ReferenceLists/Units.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcgov-my.sharepoint.com/personal/jeremy_krogh_gov_bc_ca/Documents/Projects/2025/github_projects/aqs-api/utils/config/ReferenceLists/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcgov-my.sharepoint.com/personal/sahil_bhandari_gov_bc_ca/Documents/teamdocs/GitHub/aqs-api/utils/config/ReferenceLists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="222" documentId="8_{7DEAA6C1-0DF4-4EB3-B17D-DC8C9B3E57AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5B76C80-50D0-40FD-B65F-7D418E51B3DA}"/>
+  <xr:revisionPtr revIDLastSave="228" documentId="8_{7DEAA6C1-0DF4-4EB3-B17D-DC8C9B3E57AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDF16032-C2E6-4145-81D5-FD6D3A0D9769}"/>
   <bookViews>
-    <workbookView xWindow="-10000" yWindow="-21710" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{BEB82E07-AA54-4E71-A23C-79CC3F3C1001}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="2" xr2:uid="{BEB82E07-AA54-4E71-A23C-79CC3F3C1001}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2283" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2283" uniqueCount="531">
   <si>
     <t>CODE</t>
   </si>
@@ -1618,9 +1618,6 @@
   </si>
   <si>
     <t>No/m²</t>
-  </si>
-  <si>
-    <t>(percent)</t>
   </si>
   <si>
     <t xml:space="preserve"> (recovery)</t>
@@ -2074,20 +2071,20 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="50.28515625" customWidth="1"/>
-    <col min="4" max="6" width="18.5703125" customWidth="1"/>
-    <col min="7" max="7" width="23.42578125" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" customWidth="1"/>
-    <col min="9" max="9" width="27.5703125" customWidth="1"/>
-    <col min="10" max="10" width="27.7109375" customWidth="1"/>
+    <col min="1" max="2" width="18.54296875" customWidth="1"/>
+    <col min="3" max="3" width="50.26953125" customWidth="1"/>
+    <col min="4" max="6" width="18.54296875" customWidth="1"/>
+    <col min="7" max="7" width="23.453125" customWidth="1"/>
+    <col min="8" max="8" width="18.54296875" customWidth="1"/>
+    <col min="9" max="9" width="27.54296875" customWidth="1"/>
+    <col min="10" max="10" width="27.7265625" customWidth="1"/>
     <col min="11" max="12" width="27" customWidth="1"/>
-    <col min="13" max="13" width="33.140625" customWidth="1"/>
+    <col min="13" max="13" width="33.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2128,7 +2125,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2171,7 +2168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2214,7 +2211,7 @@
         <v xml:space="preserve"> (transmittance)</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -2257,7 +2254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -2300,7 +2297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -2343,7 +2340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -2386,7 +2383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -2429,7 +2426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -2472,7 +2469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -2515,7 +2512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -2558,7 +2555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -2601,7 +2598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -2645,7 +2642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -2689,7 +2686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -2733,7 +2730,7 @@
         <v xml:space="preserve"> (by vol.)</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -2777,7 +2774,7 @@
         <v xml:space="preserve"> (wet)</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -2821,7 +2818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -2865,7 +2862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>59</v>
       </c>
@@ -2909,7 +2906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>62</v>
       </c>
@@ -2953,7 +2950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>65</v>
       </c>
@@ -2997,7 +2994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>68</v>
       </c>
@@ -3041,7 +3038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>71</v>
       </c>
@@ -3085,7 +3082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>74</v>
       </c>
@@ -3129,7 +3126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>77</v>
       </c>
@@ -3173,7 +3170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>80</v>
       </c>
@@ -3217,7 +3214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>83</v>
       </c>
@@ -3261,7 +3258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>86</v>
       </c>
@@ -3305,7 +3302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>89</v>
       </c>
@@ -3349,7 +3346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>92</v>
       </c>
@@ -3393,7 +3390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>95</v>
       </c>
@@ -3437,7 +3434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>98</v>
       </c>
@@ -3481,7 +3478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>101</v>
       </c>
@@ -3525,7 +3522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>104</v>
       </c>
@@ -3569,7 +3566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>107</v>
       </c>
@@ -3613,7 +3610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>110</v>
       </c>
@@ -3657,7 +3654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>113</v>
       </c>
@@ -3701,7 +3698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -3745,7 +3742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>118</v>
       </c>
@@ -3789,7 +3786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>121</v>
       </c>
@@ -3833,7 +3830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>124</v>
       </c>
@@ -3877,7 +3874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>127</v>
       </c>
@@ -3921,7 +3918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>130</v>
       </c>
@@ -3965,7 +3962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>133</v>
       </c>
@@ -4009,7 +4006,7 @@
         <v xml:space="preserve"> (wet)</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>136</v>
       </c>
@@ -4053,7 +4050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>139</v>
       </c>
@@ -4097,7 +4094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>142</v>
       </c>
@@ -4141,7 +4138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>145</v>
       </c>
@@ -4185,7 +4182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>148</v>
       </c>
@@ -4229,7 +4226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>151</v>
       </c>
@@ -4273,7 +4270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>154</v>
       </c>
@@ -4317,7 +4314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>157</v>
       </c>
@@ -4361,7 +4358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>160</v>
       </c>
@@ -4405,7 +4402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>163</v>
       </c>
@@ -4449,7 +4446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>166</v>
       </c>
@@ -4493,7 +4490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>169</v>
       </c>
@@ -4537,7 +4534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>172</v>
       </c>
@@ -4581,7 +4578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>175</v>
       </c>
@@ -4625,7 +4622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>178</v>
       </c>
@@ -4669,7 +4666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>181</v>
       </c>
@@ -4713,7 +4710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>184</v>
       </c>
@@ -4757,7 +4754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>187</v>
       </c>
@@ -4801,7 +4798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>190</v>
       </c>
@@ -4845,7 +4842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>193</v>
       </c>
@@ -4889,7 +4886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>196</v>
       </c>
@@ -4933,7 +4930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>199</v>
       </c>
@@ -4977,7 +4974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>202</v>
       </c>
@@ -5021,7 +5018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>205</v>
       </c>
@@ -5065,7 +5062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>208</v>
       </c>
@@ -5109,7 +5106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>211</v>
       </c>
@@ -5153,7 +5150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>214</v>
       </c>
@@ -5197,7 +5194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>217</v>
       </c>
@@ -5241,7 +5238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>220</v>
       </c>
@@ -5285,7 +5282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>223</v>
       </c>
@@ -5329,7 +5326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>226</v>
       </c>
@@ -5373,7 +5370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>229</v>
       </c>
@@ -5417,7 +5414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>232</v>
       </c>
@@ -5461,7 +5458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>235</v>
       </c>
@@ -5505,7 +5502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>238</v>
       </c>
@@ -5549,7 +5546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>241</v>
       </c>
@@ -5593,7 +5590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>244</v>
       </c>
@@ -5637,7 +5634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>247</v>
       </c>
@@ -5681,7 +5678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>250</v>
       </c>
@@ -5725,7 +5722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>253</v>
       </c>
@@ -5769,7 +5766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>256</v>
       </c>
@@ -5813,7 +5810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>259</v>
       </c>
@@ -5857,7 +5854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>262</v>
       </c>
@@ -5901,7 +5898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>265</v>
       </c>
@@ -5945,7 +5942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>268</v>
       </c>
@@ -5989,7 +5986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>271</v>
       </c>
@@ -6033,7 +6030,7 @@
         <v xml:space="preserve"> (mortality)</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>274</v>
       </c>
@@ -6077,7 +6074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>277</v>
       </c>
@@ -6121,7 +6118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>280</v>
       </c>
@@ -6165,7 +6162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>283</v>
       </c>
@@ -6209,7 +6206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>286</v>
       </c>
@@ -6253,7 +6250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>289</v>
       </c>
@@ -6297,7 +6294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>291</v>
       </c>
@@ -6341,7 +6338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>294</v>
       </c>
@@ -6385,7 +6382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>296</v>
       </c>
@@ -6429,7 +6426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>299</v>
       </c>
@@ -6473,7 +6470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>302</v>
       </c>
@@ -6517,7 +6514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>305</v>
       </c>
@@ -6561,7 +6558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>308</v>
       </c>
@@ -6605,7 +6602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>311</v>
       </c>
@@ -6649,7 +6646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>314</v>
       </c>
@@ -6693,7 +6690,7 @@
         <v xml:space="preserve"> (wet)</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>317</v>
       </c>
@@ -6737,7 +6734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>319</v>
       </c>
@@ -6781,7 +6778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>322</v>
       </c>
@@ -6825,7 +6822,7 @@
         <v xml:space="preserve"> (LEL)</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>325</v>
       </c>
@@ -6869,7 +6866,7 @@
         <v xml:space="preserve"> (saturation)</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>327</v>
       </c>
@@ -6913,7 +6910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>330</v>
       </c>
@@ -6957,7 +6954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>333</v>
       </c>
@@ -7001,7 +6998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>336</v>
       </c>
@@ -7045,7 +7042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>339</v>
       </c>
@@ -7089,7 +7086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>342</v>
       </c>
@@ -7133,7 +7130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>345</v>
       </c>
@@ -7177,7 +7174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>348</v>
       </c>
@@ -7236,17 +7233,17 @@
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
-    <col min="2" max="2" width="32.7109375" customWidth="1"/>
-    <col min="3" max="6" width="22.28515625" customWidth="1"/>
-    <col min="7" max="7" width="27.28515625" customWidth="1"/>
-    <col min="8" max="8" width="39.28515625" customWidth="1"/>
+    <col min="1" max="1" width="21.81640625" customWidth="1"/>
+    <col min="2" max="2" width="32.7265625" customWidth="1"/>
+    <col min="3" max="6" width="22.26953125" customWidth="1"/>
+    <col min="7" max="7" width="27.26953125" customWidth="1"/>
+    <col min="8" max="8" width="39.26953125" customWidth="1"/>
     <col min="9" max="9" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>352</v>
       </c>
@@ -7275,7 +7272,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -7292,7 +7289,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -7309,7 +7306,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>114</v>
       </c>
@@ -7326,7 +7323,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -7343,7 +7340,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -7363,7 +7360,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -7380,7 +7377,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>254</v>
       </c>
@@ -7397,7 +7394,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>102</v>
       </c>
@@ -7414,7 +7411,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -7431,7 +7428,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>108</v>
       </c>
@@ -7448,7 +7445,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -7465,7 +7462,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -7482,7 +7479,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>96</v>
       </c>
@@ -7499,7 +7496,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>116</v>
       </c>
@@ -7516,7 +7513,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>84</v>
       </c>
@@ -7533,7 +7530,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -7550,7 +7547,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -7570,7 +7567,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -7587,7 +7584,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>72</v>
       </c>
@@ -7604,7 +7601,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>90</v>
       </c>
@@ -7621,7 +7618,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>111</v>
       </c>
@@ -7638,7 +7635,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>105</v>
       </c>
@@ -7655,7 +7652,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>134</v>
       </c>
@@ -7675,7 +7672,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -7692,7 +7689,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>75</v>
       </c>
@@ -7709,7 +7706,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -7726,7 +7723,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -7743,7 +7740,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>343</v>
       </c>
@@ -7760,7 +7757,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>78</v>
       </c>
@@ -7777,7 +7774,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>81</v>
       </c>
@@ -7794,7 +7791,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>248</v>
       </c>
@@ -7811,7 +7808,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>263</v>
       </c>
@@ -7828,7 +7825,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>63</v>
       </c>
@@ -7845,7 +7842,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>260</v>
       </c>
@@ -7862,7 +7859,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>272</v>
       </c>
@@ -7882,7 +7879,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>99</v>
       </c>
@@ -7899,7 +7896,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>257</v>
       </c>
@@ -7916,7 +7913,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -7933,7 +7930,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>306</v>
       </c>
@@ -7950,7 +7947,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>69</v>
       </c>
@@ -7967,7 +7964,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>318</v>
       </c>
@@ -7984,7 +7981,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>60</v>
       </c>
@@ -8001,7 +7998,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>340</v>
       </c>
@@ -8018,7 +8015,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>443</v>
       </c>
@@ -8035,7 +8032,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>334</v>
       </c>
@@ -8052,7 +8049,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>137</v>
       </c>
@@ -8069,7 +8066,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>122</v>
       </c>
@@ -8086,7 +8083,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>448</v>
       </c>
@@ -8103,7 +8100,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>452</v>
       </c>
@@ -8120,7 +8117,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>320</v>
       </c>
@@ -8137,7 +8134,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>143</v>
       </c>
@@ -8154,7 +8151,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>146</v>
       </c>
@@ -8171,7 +8168,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>323</v>
       </c>
@@ -8191,7 +8188,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>152</v>
       </c>
@@ -8208,7 +8205,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>457</v>
       </c>
@@ -8225,7 +8222,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>326</v>
       </c>
@@ -8245,7 +8242,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>462</v>
       </c>
@@ -8262,7 +8259,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>66</v>
       </c>
@@ -8279,7 +8276,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>465</v>
       </c>
@@ -8296,7 +8293,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>158</v>
       </c>
@@ -8313,7 +8310,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>275</v>
       </c>
@@ -8330,7 +8327,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>349</v>
       </c>
@@ -8347,7 +8344,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>468</v>
       </c>
@@ -8364,7 +8361,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>328</v>
       </c>
@@ -8381,7 +8378,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>13</v>
       </c>
@@ -8401,7 +8398,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>337</v>
       </c>
@@ -8418,7 +8415,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>93</v>
       </c>
@@ -8435,7 +8432,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>472</v>
       </c>
@@ -8452,7 +8449,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>128</v>
       </c>
@@ -8469,7 +8466,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>475</v>
       </c>
@@ -8486,7 +8483,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>119</v>
       </c>
@@ -8503,7 +8500,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>476</v>
       </c>
@@ -8520,7 +8517,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>477</v>
       </c>
@@ -8537,7 +8534,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>478</v>
       </c>
@@ -8554,7 +8551,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>479</v>
       </c>
@@ -8571,7 +8568,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>315</v>
       </c>
@@ -8591,7 +8588,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>155</v>
       </c>
@@ -8616,36 +8613,35 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3036B1CA-FBEB-4E41-A2A1-61CD7E3CC4C8}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection activeCell="A109" sqref="A109"/>
-      <selection pane="topRight" activeCell="M24" sqref="M24"/>
+      <selection pane="topRight" activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" customWidth="1"/>
-    <col min="3" max="3" width="42.85546875" customWidth="1"/>
+    <col min="1" max="1" width="5.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.81640625" customWidth="1"/>
+    <col min="3" max="3" width="42.81640625" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="7" width="16.7109375" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" customWidth="1"/>
-    <col min="11" max="11" width="20.5703125" customWidth="1"/>
-    <col min="12" max="12" width="33.5703125" customWidth="1"/>
-    <col min="13" max="13" width="29.28515625" customWidth="1"/>
-    <col min="14" max="14" width="40.140625" customWidth="1"/>
-    <col min="15" max="15" width="23.140625" customWidth="1"/>
-    <col min="16" max="16" width="19.85546875" customWidth="1"/>
-    <col min="17" max="17" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.7265625" customWidth="1"/>
+    <col min="6" max="7" width="16.7265625" customWidth="1"/>
+    <col min="8" max="8" width="20.7265625" customWidth="1"/>
+    <col min="9" max="9" width="10.7265625" customWidth="1"/>
+    <col min="10" max="10" width="8.7265625" customWidth="1"/>
+    <col min="11" max="11" width="20.54296875" customWidth="1"/>
+    <col min="12" max="12" width="33.54296875" customWidth="1"/>
+    <col min="13" max="13" width="29.26953125" customWidth="1"/>
+    <col min="14" max="14" width="40.1796875" customWidth="1"/>
+    <col min="15" max="15" width="23.1796875" customWidth="1"/>
+    <col min="16" max="16" width="19.81640625" customWidth="1"/>
+    <col min="17" max="17" width="15.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -8665,25 +8661,25 @@
         <v>351</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>353</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>355</v>
@@ -8696,7 +8692,7 @@
       </c>
       <c r="Q1" s="4"/>
     </row>
-    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>113</v>
       </c>
@@ -8743,7 +8739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>271</v>
       </c>
@@ -8790,7 +8786,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>311</v>
       </c>
@@ -8831,13 +8827,13 @@
         <v>115</v>
       </c>
       <c r="O4" t="s">
+        <v>367</v>
+      </c>
+      <c r="P4" t="s">
         <v>519</v>
       </c>
-      <c r="P4" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>322</v>
       </c>
@@ -8884,7 +8880,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>325</v>
       </c>
@@ -8931,7 +8927,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
@@ -8978,7 +8974,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>47</v>
       </c>
@@ -9025,7 +9021,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>50</v>
       </c>
@@ -9072,7 +9068,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>336</v>
       </c>
@@ -9119,7 +9115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>256</v>
       </c>
@@ -9166,7 +9162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>327</v>
       </c>
@@ -9213,7 +9209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>62</v>
       </c>
@@ -9260,7 +9256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>107</v>
       </c>
@@ -9310,7 +9306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>296</v>
       </c>
@@ -9357,7 +9353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>299</v>
       </c>
@@ -9404,7 +9400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>193</v>
       </c>
@@ -9455,7 +9451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>77</v>
       </c>
@@ -9502,7 +9498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>319</v>
       </c>
@@ -9549,7 +9545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>32</v>
       </c>
@@ -9593,7 +9589,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>317</v>
       </c>
@@ -9640,7 +9636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>348</v>
       </c>
@@ -9691,7 +9687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>280</v>
       </c>
@@ -9729,7 +9725,7 @@
         <v>389</v>
       </c>
       <c r="M23" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="N23" t="s">
         <v>282</v>
@@ -9741,7 +9737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>172</v>
       </c>
@@ -9791,7 +9787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>178</v>
       </c>
@@ -9841,7 +9837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>232</v>
       </c>
@@ -9892,7 +9888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>65</v>
       </c>
@@ -9930,7 +9926,7 @@
         <v>490</v>
       </c>
       <c r="N27" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="O27" t="s">
         <v>460</v>
@@ -9939,7 +9935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>166</v>
       </c>
@@ -9990,7 +9986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>139</v>
       </c>
@@ -10040,7 +10036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>53</v>
       </c>
@@ -10090,7 +10086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>259</v>
       </c>
@@ -10140,7 +10136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>169</v>
       </c>
@@ -10191,7 +10187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>244</v>
       </c>
@@ -10235,7 +10231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>253</v>
       </c>
@@ -10282,7 +10278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>214</v>
       </c>
@@ -10329,7 +10325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>229</v>
       </c>
@@ -10380,7 +10376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>148</v>
       </c>
@@ -10431,7 +10427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>286</v>
       </c>
@@ -10481,7 +10477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>95</v>
       </c>
@@ -10531,7 +10527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>71</v>
       </c>
@@ -10582,7 +10578,7 @@
       </c>
       <c r="Q40"/>
     </row>
-    <row r="41" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>175</v>
       </c>
@@ -10634,7 +10630,7 @@
       </c>
       <c r="Q41"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>250</v>
       </c>
@@ -10685,7 +10681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>283</v>
       </c>
@@ -10736,7 +10732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>83</v>
       </c>
@@ -10786,7 +10782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>104</v>
       </c>
@@ -10836,7 +10832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
         <v>157</v>
       </c>
@@ -10886,7 +10882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>11</v>
       </c>
@@ -10936,7 +10932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>187</v>
       </c>
@@ -10986,7 +10982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>235</v>
       </c>
@@ -11037,7 +11033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
         <v>184</v>
       </c>
@@ -11088,7 +11084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>92</v>
       </c>
@@ -11139,7 +11135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
         <v>7</v>
       </c>
@@ -11187,7 +11183,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="53" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>190</v>
       </c>
@@ -11239,7 +11235,7 @@
       </c>
       <c r="Q53"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
         <v>89</v>
       </c>
@@ -11290,7 +11286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
         <v>238</v>
       </c>
@@ -11341,7 +11337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
         <v>241</v>
       </c>
@@ -11392,7 +11388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
         <v>333</v>
       </c>
@@ -11412,7 +11408,7 @@
         <v>0</v>
       </c>
       <c r="G57" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H57">
         <v>1000</v>
@@ -11430,7 +11426,7 @@
         <v>433</v>
       </c>
       <c r="M57" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="N57" t="s">
         <v>335</v>
@@ -11443,7 +11439,7 @@
       </c>
       <c r="Q57"/>
     </row>
-    <row r="58" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
         <v>24</v>
       </c>
@@ -11490,7 +11486,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="59" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
         <v>59</v>
       </c>
@@ -11540,7 +11536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
         <v>205</v>
       </c>
@@ -11592,7 +11588,7 @@
       </c>
       <c r="Q60"/>
     </row>
-    <row r="61" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
         <v>211</v>
       </c>
@@ -11642,7 +11638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
         <v>217</v>
       </c>
@@ -11692,7 +11688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
         <v>220</v>
       </c>
@@ -11742,7 +11738,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="64" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
         <v>18</v>
       </c>
@@ -11789,7 +11785,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="65" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
         <v>223</v>
       </c>
@@ -11840,7 +11836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
         <v>124</v>
       </c>
@@ -11890,7 +11886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
         <v>160</v>
       </c>
@@ -11940,7 +11936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
         <v>44</v>
       </c>
@@ -11987,7 +11983,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="69" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
         <v>118</v>
       </c>
@@ -12038,7 +12034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A70" s="7" t="s">
         <v>196</v>
       </c>
@@ -12089,7 +12085,7 @@
       </c>
       <c r="Q70" s="3"/>
     </row>
-    <row r="71" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
         <v>247</v>
       </c>
@@ -12136,7 +12132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
         <v>80</v>
       </c>
@@ -12183,7 +12179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
         <v>262</v>
       </c>
@@ -12230,7 +12226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
         <v>345</v>
       </c>
@@ -12268,7 +12264,7 @@
         <v>378</v>
       </c>
       <c r="M74" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="N74" t="s">
         <v>347</v>
@@ -12280,7 +12276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
         <v>110</v>
       </c>
@@ -12327,7 +12323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
         <v>289</v>
       </c>
@@ -12378,7 +12374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
         <v>142</v>
       </c>
@@ -12429,7 +12425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
         <v>291</v>
       </c>
@@ -12476,7 +12472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
         <v>308</v>
       </c>
@@ -12523,7 +12519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
         <v>15</v>
       </c>
@@ -12567,7 +12563,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="81" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
         <v>35</v>
       </c>
@@ -12608,7 +12604,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="82" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A82" s="7" t="s">
         <v>136</v>
       </c>
@@ -12660,7 +12656,7 @@
       </c>
       <c r="Q82" s="3"/>
     </row>
-    <row r="83" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A83" s="7" t="s">
         <v>314</v>
       </c>
@@ -12712,7 +12708,7 @@
       </c>
       <c r="Q83" s="3"/>
     </row>
-    <row r="84" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
         <v>121</v>
       </c>
@@ -12763,7 +12759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
         <v>30</v>
       </c>
@@ -12807,7 +12803,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="86" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
         <v>154</v>
       </c>
@@ -12845,7 +12841,7 @@
         <v>482</v>
       </c>
       <c r="N86" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="O86" t="s">
         <v>411</v>
@@ -12854,7 +12850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
         <v>339</v>
       </c>
@@ -12892,7 +12888,7 @@
         <v>442</v>
       </c>
       <c r="N87" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="O87" t="s">
         <v>411</v>
@@ -12901,7 +12897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
         <v>151</v>
       </c>
@@ -12939,7 +12935,7 @@
         <v>442</v>
       </c>
       <c r="N88" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="O88" t="s">
         <v>411</v>
@@ -12948,7 +12944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
         <v>145</v>
       </c>
@@ -12986,7 +12982,7 @@
         <v>442</v>
       </c>
       <c r="N89" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="O89" t="s">
         <v>411</v>
@@ -12995,7 +12991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
         <v>74</v>
       </c>
@@ -13042,7 +13038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
         <v>342</v>
       </c>
@@ -13089,7 +13085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
         <v>41</v>
       </c>
@@ -13133,7 +13129,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="93" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="7" t="s">
         <v>98</v>
       </c>
@@ -13184,7 +13180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
         <v>101</v>
       </c>
@@ -13234,7 +13230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
         <v>274</v>
       </c>
@@ -13284,7 +13280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
         <v>38</v>
       </c>
@@ -13328,7 +13324,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="97" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A97" s="5" t="s">
         <v>330</v>
       </c>
@@ -13375,7 +13371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A98" s="5" t="s">
         <v>226</v>
       </c>
@@ -13425,7 +13421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
         <v>68</v>
       </c>
@@ -13445,7 +13441,7 @@
         <v>0</v>
       </c>
       <c r="G99" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -13475,7 +13471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A100" s="5" t="s">
         <v>208</v>
       </c>
@@ -13526,7 +13522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A101" s="5" t="s">
         <v>130</v>
       </c>
@@ -13577,7 +13573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
         <v>86</v>
       </c>
@@ -13627,7 +13623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
         <v>199</v>
       </c>
@@ -13678,7 +13674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A104" s="5" t="s">
         <v>202</v>
       </c>
@@ -13729,7 +13725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A105" s="5" t="s">
         <v>21</v>
       </c>
@@ -13776,7 +13772,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="106" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A106" s="5" t="s">
         <v>133</v>
       </c>
@@ -13826,7 +13822,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="107" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
         <v>302</v>
       </c>
@@ -13877,7 +13873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A108" s="5" t="s">
         <v>127</v>
       </c>
@@ -13928,7 +13924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
         <v>56</v>
       </c>
@@ -13978,7 +13974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A110" s="5" t="s">
         <v>268</v>
       </c>
@@ -14029,7 +14025,7 @@
       </c>
       <c r="Q110"/>
     </row>
-    <row r="111" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A111" s="5" t="s">
         <v>163</v>
       </c>
@@ -14079,7 +14075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A112" s="5" t="s">
         <v>305</v>
       </c>
@@ -14129,7 +14125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A113" s="5" t="s">
         <v>27</v>
       </c>
@@ -14178,7 +14174,7 @@
       <c r="P113"/>
       <c r="Q113"/>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A114" s="5" t="s">
         <v>277</v>
       </c>
@@ -14229,7 +14225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A115" s="5" t="s">
         <v>181</v>
       </c>
@@ -14280,7 +14276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A116" s="5" t="s">
         <v>294</v>
       </c>
@@ -14328,13 +14324,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q116" xr:uid="{3036B1CA-FBEB-4E41-A2A1-61CD7E3CC4C8}">
-    <filterColumn colId="11">
-      <filters>
-        <filter val="Flow"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q116">
     <sortCondition ref="B2:B116"/>
   </sortState>

--- a/utils/config/ReferenceLists/Units.xlsx
+++ b/utils/config/ReferenceLists/Units.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcgov-my.sharepoint.com/personal/sahil_bhandari_gov_bc_ca/Documents/teamdocs/GitHub/aqs-api/utils/config/ReferenceLists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="228" documentId="8_{7DEAA6C1-0DF4-4EB3-B17D-DC8C9B3E57AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDF16032-C2E6-4145-81D5-FD6D3A0D9769}"/>
+  <xr:revisionPtr revIDLastSave="231" documentId="8_{7DEAA6C1-0DF4-4EB3-B17D-DC8C9B3E57AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1365963-F662-4BD8-8A00-43BC64CA836B}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="2" xr2:uid="{BEB82E07-AA54-4E71-A23C-79CC3F3C1001}"/>
   </bookViews>
@@ -8613,12 +8613,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3036B1CA-FBEB-4E41-A2A1-61CD7E3CC4C8}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane xSplit="3" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection activeCell="A109" sqref="A109"/>
-      <selection pane="topRight" activeCell="O4" sqref="O4"/>
+      <selection pane="topRight" activeCell="K97" sqref="K97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8692,7 +8693,7 @@
       </c>
       <c r="Q1" s="4"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>113</v>
       </c>
@@ -8739,7 +8740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>271</v>
       </c>
@@ -8786,7 +8787,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>311</v>
       </c>
@@ -8833,7 +8834,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>322</v>
       </c>
@@ -8880,7 +8881,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>325</v>
       </c>
@@ -8927,7 +8928,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
@@ -8974,7 +8975,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>47</v>
       </c>
@@ -9021,7 +9022,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>50</v>
       </c>
@@ -9068,7 +9069,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>336</v>
       </c>
@@ -9115,7 +9116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>256</v>
       </c>
@@ -9162,7 +9163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>327</v>
       </c>
@@ -9209,7 +9210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>62</v>
       </c>
@@ -9256,7 +9257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>107</v>
       </c>
@@ -9400,7 +9401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>193</v>
       </c>
@@ -9451,7 +9452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>77</v>
       </c>
@@ -9498,7 +9499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>319</v>
       </c>
@@ -9545,7 +9546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>32</v>
       </c>
@@ -9636,7 +9637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>348</v>
       </c>
@@ -9687,7 +9688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>280</v>
       </c>
@@ -9737,7 +9738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>172</v>
       </c>
@@ -9787,7 +9788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>178</v>
       </c>
@@ -9837,7 +9838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>232</v>
       </c>
@@ -9888,7 +9889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>65</v>
       </c>
@@ -9935,7 +9936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>166</v>
       </c>
@@ -9986,7 +9987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>139</v>
       </c>
@@ -10036,7 +10037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>53</v>
       </c>
@@ -10086,7 +10087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>259</v>
       </c>
@@ -10136,7 +10137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>169</v>
       </c>
@@ -10187,7 +10188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>244</v>
       </c>
@@ -10231,7 +10232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>253</v>
       </c>
@@ -10278,7 +10279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>214</v>
       </c>
@@ -10325,7 +10326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>229</v>
       </c>
@@ -10376,7 +10377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>148</v>
       </c>
@@ -10427,7 +10428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>286</v>
       </c>
@@ -10477,7 +10478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>95</v>
       </c>
@@ -10527,7 +10528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>71</v>
       </c>
@@ -10578,7 +10579,7 @@
       </c>
       <c r="Q40"/>
     </row>
-    <row r="41" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>175</v>
       </c>
@@ -10630,7 +10631,7 @@
       </c>
       <c r="Q41"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>250</v>
       </c>
@@ -10681,7 +10682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>283</v>
       </c>
@@ -10732,7 +10733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>83</v>
       </c>
@@ -10782,7 +10783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>104</v>
       </c>
@@ -10832,7 +10833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
         <v>157</v>
       </c>
@@ -10882,7 +10883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>11</v>
       </c>
@@ -10932,7 +10933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>187</v>
       </c>
@@ -10982,7 +10983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>235</v>
       </c>
@@ -11033,7 +11034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
         <v>184</v>
       </c>
@@ -11084,7 +11085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>92</v>
       </c>
@@ -11135,7 +11136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
         <v>7</v>
       </c>
@@ -11183,7 +11184,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="53" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>190</v>
       </c>
@@ -11235,7 +11236,7 @@
       </c>
       <c r="Q53"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
         <v>89</v>
       </c>
@@ -11286,7 +11287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
         <v>238</v>
       </c>
@@ -11337,7 +11338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
         <v>241</v>
       </c>
@@ -11388,7 +11389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
         <v>333</v>
       </c>
@@ -11439,7 +11440,7 @@
       </c>
       <c r="Q57"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
         <v>24</v>
       </c>
@@ -11486,7 +11487,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
         <v>59</v>
       </c>
@@ -11536,7 +11537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
         <v>205</v>
       </c>
@@ -11588,7 +11589,7 @@
       </c>
       <c r="Q60"/>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
         <v>211</v>
       </c>
@@ -11638,7 +11639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
         <v>217</v>
       </c>
@@ -11688,7 +11689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
         <v>220</v>
       </c>
@@ -11738,7 +11739,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
         <v>18</v>
       </c>
@@ -11785,7 +11786,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
         <v>223</v>
       </c>
@@ -11836,7 +11837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
         <v>124</v>
       </c>
@@ -11886,7 +11887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
         <v>160</v>
       </c>
@@ -11936,7 +11937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
         <v>44</v>
       </c>
@@ -11983,7 +11984,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
         <v>118</v>
       </c>
@@ -12034,7 +12035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="7" t="s">
         <v>196</v>
       </c>
@@ -12085,7 +12086,7 @@
       </c>
       <c r="Q70" s="3"/>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
         <v>247</v>
       </c>
@@ -12132,7 +12133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
         <v>80</v>
       </c>
@@ -12179,7 +12180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
         <v>262</v>
       </c>
@@ -12226,7 +12227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
         <v>345</v>
       </c>
@@ -12276,7 +12277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
         <v>110</v>
       </c>
@@ -12323,7 +12324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
         <v>289</v>
       </c>
@@ -12374,7 +12375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
         <v>142</v>
       </c>
@@ -12501,7 +12502,7 @@
         <v>1461</v>
       </c>
       <c r="K79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L79" t="s">
         <v>318</v>
@@ -12519,7 +12520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
         <v>15</v>
       </c>
@@ -12563,7 +12564,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
         <v>35</v>
       </c>
@@ -12604,7 +12605,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" s="7" t="s">
         <v>136</v>
       </c>
@@ -12656,7 +12657,7 @@
       </c>
       <c r="Q82" s="3"/>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" s="7" t="s">
         <v>314</v>
       </c>
@@ -12708,7 +12709,7 @@
       </c>
       <c r="Q83" s="3"/>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
         <v>121</v>
       </c>
@@ -12759,7 +12760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
         <v>30</v>
       </c>
@@ -12803,7 +12804,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
         <v>154</v>
       </c>
@@ -12850,7 +12851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
         <v>339</v>
       </c>
@@ -12897,7 +12898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
         <v>151</v>
       </c>
@@ -12944,7 +12945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
         <v>145</v>
       </c>
@@ -12991,7 +12992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
         <v>74</v>
       </c>
@@ -13038,7 +13039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
         <v>342</v>
       </c>
@@ -13085,7 +13086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
         <v>41</v>
       </c>
@@ -13129,7 +13130,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="93" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" s="7" t="s">
         <v>98</v>
       </c>
@@ -13180,7 +13181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
         <v>101</v>
       </c>
@@ -13230,7 +13231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
         <v>274</v>
       </c>
@@ -13280,7 +13281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
         <v>38</v>
       </c>
@@ -13371,7 +13372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" s="5" t="s">
         <v>226</v>
       </c>
@@ -13421,7 +13422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
         <v>68</v>
       </c>
@@ -13471,7 +13472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" s="5" t="s">
         <v>208</v>
       </c>
@@ -13522,7 +13523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" s="5" t="s">
         <v>130</v>
       </c>
@@ -13573,7 +13574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
         <v>86</v>
       </c>
@@ -13623,7 +13624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
         <v>199</v>
       </c>
@@ -13674,7 +13675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" s="5" t="s">
         <v>202</v>
       </c>
@@ -13725,7 +13726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" s="5" t="s">
         <v>21</v>
       </c>
@@ -13772,7 +13773,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" s="5" t="s">
         <v>133</v>
       </c>
@@ -13822,7 +13823,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
         <v>302</v>
       </c>
@@ -13873,7 +13874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" s="5" t="s">
         <v>127</v>
       </c>
@@ -13924,7 +13925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
         <v>56</v>
       </c>
@@ -13974,7 +13975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" s="5" t="s">
         <v>268</v>
       </c>
@@ -14025,7 +14026,7 @@
       </c>
       <c r="Q110"/>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" s="5" t="s">
         <v>163</v>
       </c>
@@ -14075,7 +14076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" s="5" t="s">
         <v>305</v>
       </c>
@@ -14125,7 +14126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:17" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" s="5" t="s">
         <v>27</v>
       </c>
@@ -14174,7 +14175,7 @@
       <c r="P113"/>
       <c r="Q113"/>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" s="5" t="s">
         <v>277</v>
       </c>
@@ -14225,7 +14226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" s="5" t="s">
         <v>181</v>
       </c>
@@ -14324,6 +14325,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Q116" xr:uid="{3036B1CA-FBEB-4E41-A2A1-61CD7E3CC4C8}">
+    <filterColumn colId="11">
+      <filters>
+        <filter val="Count"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q116">
     <sortCondition ref="B2:B116"/>
   </sortState>

--- a/utils/config/ReferenceLists/Units.xlsx
+++ b/utils/config/ReferenceLists/Units.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcgov-my.sharepoint.com/personal/sahil_bhandari_gov_bc_ca/Documents/teamdocs/GitHub/aqs-api/utils/config/ReferenceLists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="231" documentId="8_{7DEAA6C1-0DF4-4EB3-B17D-DC8C9B3E57AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1365963-F662-4BD8-8A00-43BC64CA836B}"/>
+  <xr:revisionPtr revIDLastSave="232" documentId="8_{7DEAA6C1-0DF4-4EB3-B17D-DC8C9B3E57AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{639F3B58-5F7C-486E-BD99-60DE16A9D642}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="2" xr2:uid="{BEB82E07-AA54-4E71-A23C-79CC3F3C1001}"/>
   </bookViews>
@@ -9307,7 +9307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>296</v>
       </c>
@@ -9354,7 +9354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>299</v>
       </c>
@@ -9590,7 +9590,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>317</v>
       </c>
@@ -9936,7 +9936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>166</v>
       </c>
@@ -10733,7 +10733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>83</v>
       </c>
@@ -11984,7 +11984,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="69" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
         <v>118</v>
       </c>
@@ -12426,7 +12426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
         <v>291</v>
       </c>
@@ -12473,7 +12473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
         <v>308</v>
       </c>
@@ -13325,7 +13325,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" s="5" t="s">
         <v>330</v>
       </c>
@@ -14277,7 +14277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" s="5" t="s">
         <v>294</v>
       </c>
@@ -14328,7 +14328,7 @@
   <autoFilter ref="A1:Q116" xr:uid="{3036B1CA-FBEB-4E41-A2A1-61CD7E3CC4C8}">
     <filterColumn colId="11">
       <filters>
-        <filter val="Count"/>
+        <filter val="Length"/>
       </filters>
     </filterColumn>
   </autoFilter>
